--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology_v1.1\02-Conceptual Data Model\MS-RPaM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology_v1.1\02-Conceptual_Data_Model\MS-RPaM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="386">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -617,15 +617,6 @@
     <t>Legal subject</t>
   </si>
   <si>
-    <t>The Legal Subject who has been authorised by the legal representative to act on his behalf</t>
-  </si>
-  <si>
-    <t>The legal representative(s) of the Service Customer</t>
-  </si>
-  <si>
-    <t>Who has been authorised by the legal representative and who administers the Mandates concerning the Service Customer</t>
-  </si>
-  <si>
     <t>The identifier(s) of the Mandatee</t>
   </si>
   <si>
@@ -648,12 +639,6 @@
   </si>
   <si>
     <t>Bank account</t>
-  </si>
-  <si>
-    <t>The registration of the unique characteristics of the legal representative MUST be verified on the basis of a successful bank transfer from a personal bank account, the holder of which must be the same person as the Applicant and for which, when the bank account was opened, the financial institution duly verified the identity of the account holder on the basis of a valid identity document</t>
-  </si>
-  <si>
-    <t>Either a Legal Person or Natural Person</t>
   </si>
   <si>
     <t>Ensure the adequate identification of representatives of the Service Customer/Chamber of Commerce; the adequate identification of the Service Customer/Chamber of Commerce or the mandated Legal Person; ensure that the information supplied by the Service Provider has been verified to be factually correct.</t>
@@ -711,9 +696,6 @@
     <t>The issuing of the identification means.</t>
   </si>
   <si>
-    <t>The identity data belonging to the issued means have been verified by the Means Issuer</t>
-  </si>
-  <si>
     <t>Une période de validité : un trimestre de début et un trimestre de fin (optionnel) qui définissent la période de validité du mandat.</t>
   </si>
   <si>
@@ -1168,6 +1150,45 @@
   </si>
   <si>
     <t>Mandate Registry</t>
+  </si>
+  <si>
+    <t>Personal number identifier.</t>
+  </si>
+  <si>
+    <t>Service Costumer</t>
+  </si>
+  <si>
+    <t>The user of the service.</t>
+  </si>
+  <si>
+    <t>Who has been authorised by the legal representative and who administers the Mandates concerning the Service Customer.</t>
+  </si>
+  <si>
+    <t>The identity data belonging to the issued means have been verified by the Means Issuer.</t>
+  </si>
+  <si>
+    <t>The legal representative(s) of the Service Customer.</t>
+  </si>
+  <si>
+    <t>Either a Legal Person or Natural Person.</t>
+  </si>
+  <si>
+    <t>The Legal Subject who has been authorised by the legal representative to act on his behalf.</t>
+  </si>
+  <si>
+    <t>The registration of the unique characteristics of the legal representative MUST be verified on the basis of a successful bank transfer from a personal bank account, the holder of which must be the same person as the Applicant and for which, when the bank account was opened, the financial institution duly verified the identity of the account holder on the basis of a valid identity document.</t>
+  </si>
+  <si>
+    <t>Applicant/BusinessName</t>
+  </si>
+  <si>
+    <t>Applicant/LegalName</t>
+  </si>
+  <si>
+    <t>Applicant/LocationAddress</t>
+  </si>
+  <si>
+    <t>Applicant/IdentificationNumbers</t>
   </si>
 </sst>
 </file>
@@ -1934,20 +1955,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:E8"/>
+  <dimension ref="C7:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>43</v>
       </c>
@@ -1962,7 +1983,7 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +2002,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="75" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -2027,7 +2048,7 @@
         <v>167</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L3" s="39" t="s">
         <v>168</v>
@@ -2477,7 +2498,7 @@
         <v>89</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>36</v>
@@ -2504,10 +2525,10 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="21" t="s">
@@ -2525,13 +2546,13 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>21</v>
@@ -2552,10 +2573,10 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>38</v>
@@ -2577,10 +2598,10 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
@@ -2602,10 +2623,10 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="21" t="s">
@@ -2625,10 +2646,10 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
@@ -2650,10 +2671,10 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="21" t="s">
@@ -2673,10 +2694,10 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="21" t="s">
@@ -2696,10 +2717,10 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="21" t="s">
@@ -2719,10 +2740,10 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="21" t="s">
@@ -2740,10 +2761,10 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
@@ -2763,10 +2784,10 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>82</v>
@@ -2790,10 +2811,10 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>21</v>
@@ -2814,13 +2835,13 @@
     </row>
     <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="69" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D34" s="63" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E34" s="63" t="s">
         <v>36</v>
@@ -3848,13 +3869,13 @@
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>43</v>
@@ -3872,13 +3893,13 @@
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>43</v>
@@ -3896,13 +3917,13 @@
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>43</v>
@@ -3912,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>38</v>
@@ -3930,13 +3951,13 @@
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>43</v>
@@ -3956,13 +3977,13 @@
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>43</v>
@@ -3980,10 +4001,10 @@
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -4000,13 +4021,13 @@
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -4022,13 +4043,13 @@
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
       <c r="C46" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>43</v>
@@ -4056,7 +4077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -4180,7 +4201,7 @@
         <v>161</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -4203,10 +4224,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -4238,7 +4259,7 @@
         <v>162</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -4269,10 +4290,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -4308,7 +4329,7 @@
         <v>163</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -4339,10 +4360,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -4373,7 +4394,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4393,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4413,10 +4434,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -4437,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4460,13 +4481,13 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>163</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -4482,10 +4503,10 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4502,10 +4523,10 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -4522,10 +4543,10 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -4542,13 +4563,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>162</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -4564,10 +4585,10 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -4584,10 +4605,10 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -4604,10 +4625,10 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -4624,13 +4645,13 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -4646,13 +4667,13 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -4668,10 +4689,10 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -4688,10 +4709,10 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -4708,10 +4729,10 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -4728,10 +4749,10 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -4748,10 +4769,10 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -4768,10 +4789,10 @@
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -4788,10 +4809,10 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -4808,10 +4829,10 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -4828,10 +4849,10 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -4848,10 +4869,10 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -4868,10 +4889,10 @@
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -4888,10 +4909,10 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -4908,10 +4929,10 @@
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -4928,13 +4949,13 @@
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -4950,13 +4971,13 @@
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="30" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -5114,7 +5135,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>6</v>
@@ -5639,23 +5660,23 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
       <c r="C21" s="58" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="68" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>45</v>
@@ -5675,23 +5696,23 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>47</v>
@@ -5705,13 +5726,13 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -5729,16 +5750,16 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>246</v>
-      </c>
       <c r="E24" s="21" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="26">
@@ -5755,13 +5776,13 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -5769,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -5781,13 +5802,13 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -5805,13 +5826,13 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -5819,7 +5840,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13" t="s">
@@ -5835,23 +5856,23 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="26">
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>82</v>
@@ -5871,16 +5892,16 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="26">
@@ -5897,16 +5918,16 @@
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="26">
@@ -5923,16 +5944,16 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="26" t="s">
@@ -5949,16 +5970,16 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="26" t="s">
@@ -5975,16 +5996,16 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="26" t="s">
@@ -6001,13 +6022,13 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -6025,13 +6046,13 @@
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -6039,7 +6060,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13" t="s">
@@ -6055,23 +6076,23 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="26">
         <v>1</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>82</v>
@@ -6091,16 +6112,16 @@
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="26">
@@ -6117,16 +6138,16 @@
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="26" t="s">
@@ -6143,16 +6164,16 @@
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E39" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="26" t="s">
@@ -6169,13 +6190,13 @@
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -6193,10 +6214,10 @@
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -6213,13 +6234,13 @@
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -6237,10 +6258,10 @@
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -6249,7 +6270,7 @@
         <v>30</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>21</v>
@@ -6266,10 +6287,10 @@
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -6278,7 +6299,7 @@
         <v>30</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K44" s="13" t="s">
         <v>21</v>
@@ -6295,10 +6316,10 @@
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -6315,13 +6336,13 @@
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -6339,16 +6360,16 @@
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="26">
@@ -6365,16 +6386,16 @@
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="26">
@@ -6391,16 +6412,16 @@
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="26" t="s">
@@ -6417,13 +6438,13 @@
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -6441,13 +6462,13 @@
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -6465,16 +6486,16 @@
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="26">
@@ -6491,16 +6512,16 @@
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
       <c r="C53" s="30" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="31">
@@ -6642,7 +6663,7 @@
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -6672,10 +6693,10 @@
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -6704,10 +6725,10 @@
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -6736,7 +6757,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -6760,7 +6781,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -6790,7 +6811,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -6814,7 +6835,7 @@
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="30" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -6852,10 +6873,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O31"/>
+  <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6863,7 +6884,7 @@
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
@@ -6943,7 +6964,7 @@
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>177</v>
@@ -6963,7 +6984,7 @@
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>178</v>
@@ -6983,7 +7004,7 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>179</v>
@@ -7003,7 +7024,7 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>180</v>
@@ -7023,7 +7044,7 @@
     <row r="8" spans="2:15" s="54" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>181</v>
@@ -7035,10 +7056,10 @@
       <c r="G8" s="48"/>
       <c r="H8" s="49"/>
       <c r="I8" s="50" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K8" s="48" t="s">
         <v>21</v>
@@ -7059,7 +7080,7 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>183</v>
@@ -7079,10 +7100,10 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -7099,10 +7120,10 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -7119,10 +7140,10 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -7139,10 +7160,10 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -7159,12 +7180,14 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>373</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="15"/>
@@ -7179,7 +7202,7 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>185</v>
@@ -7199,7 +7222,7 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>186</v>
@@ -7219,13 +7242,13 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>187</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -7249,7 +7272,7 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>188</v>
@@ -7269,13 +7292,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>189</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -7291,13 +7314,13 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -7315,13 +7338,13 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>191</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>196</v>
+        <v>378</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -7349,13 +7372,13 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>197</v>
+        <v>376</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -7374,10 +7397,10 @@
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -7395,13 +7418,13 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>193</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -7425,13 +7448,13 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>194</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -7452,10 +7475,10 @@
         <v>12</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>206</v>
+        <v>381</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -7473,13 +7496,13 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -7497,8 +7520,12 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>375</v>
+      </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -7512,19 +7539,15 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>214</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E29" s="21"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="40" t="s">
-        <v>43</v>
-      </c>
+      <c r="I29" s="40"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -7533,27 +7556,134 @@
       <c r="O29" s="15"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="21"/>
+      <c r="I30" s="40"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
+      <c r="O30" s="15"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>378</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="390">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -1189,13 +1189,25 @@
   </si>
   <si>
     <t>Applicant/IdentificationNumbers</t>
+  </si>
+  <si>
+    <t>Questions to AT</t>
+  </si>
+  <si>
+    <t>Why do you need the ID of the Mandatee as Base64?, we would have the ID of the Mandatee inside the entity Mandate as an ISO 15000-5 ctts:Identifier.</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Empowerment/Mandatee/X509SignatureCertificate</t>
+  </si>
+  <si>
+    <t>Base64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1240,8 +1252,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,8 +1297,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1516,12 +1546,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1561,7 +1607,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,7 +1622,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,6 +1694,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1674,9 +1721,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2001,23 +2053,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="74" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2035,7 +2087,7 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2044,19 +2096,19 @@
       <c r="I3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="37" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2079,11 +2131,11 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -2106,13 +2158,13 @@
         <v>165</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -2135,13 +2187,13 @@
       <c r="I6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="38"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2162,13 +2214,13 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -2191,11 +2243,11 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -2214,11 +2266,11 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
@@ -2243,15 +2295,15 @@
       <c r="I10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="37"/>
-    </row>
-    <row r="11" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="2:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
@@ -2267,12 +2319,12 @@
         <v>37</v>
       </c>
       <c r="H11" s="21"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
@@ -2297,15 +2349,15 @@
       <c r="I12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="37"/>
-    </row>
-    <row r="13" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="2:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -2321,14 +2373,14 @@
         <v>46</v>
       </c>
       <c r="H13" s="21"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-    </row>
-    <row r="14" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="39"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="2:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -2344,12 +2396,12 @@
         <v>46</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
@@ -2368,13 +2420,13 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
@@ -2395,13 +2447,13 @@
       <c r="I16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
@@ -2420,11 +2472,11 @@
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
@@ -2451,13 +2503,13 @@
       <c r="I18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
@@ -2482,49 +2534,49 @@
       <c r="I19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="67"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="67"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -2538,14 +2590,14 @@
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -2565,14 +2617,14 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -2590,14 +2642,14 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2615,14 +2667,14 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -2638,14 +2690,14 @@
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -2663,14 +2715,14 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -2686,14 +2738,14 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -2709,14 +2761,14 @@
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -2732,14 +2784,14 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -2753,14 +2805,14 @@
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -2776,14 +2828,14 @@
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -2803,14 +2855,14 @@
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="38" t="s">
         <v>234</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -2827,38 +2879,38 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
     </row>
     <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="63" t="s">
+      <c r="F34" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="63"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2872,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O46"/>
+  <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G49" sqref="D49:G49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,31 +2944,31 @@
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2935,7 +2987,7 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="22" t="s">
@@ -2950,7 +3002,7 @@
       <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="72" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
@@ -2959,21 +3011,24 @@
       <c r="O3" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="83" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -2982,7 +3037,7 @@
       <c r="J4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="81" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -2992,9 +3047,12 @@
         <v>46</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="32"/>
+      <c r="P4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="21" t="s">
         <v>12</v>
@@ -3007,18 +3065,26 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>389</v>
+      </c>
       <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="M5" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N5" s="13"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="21" t="s">
         <v>12</v>
@@ -3031,18 +3097,18 @@
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="13"/>
       <c r="M6" s="5"/>
       <c r="N6" s="13"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="21" t="s">
         <v>12</v>
@@ -3055,18 +3121,18 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>1</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="25"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="21" t="s">
         <v>12</v>
@@ -3081,18 +3147,18 @@
         <v>100</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>1</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="82"/>
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
       <c r="N8" s="13"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="21" t="s">
         <v>12</v>
@@ -3103,16 +3169,16 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="82"/>
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
       <c r="N9" s="13"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="21" t="s">
         <v>12</v>
@@ -3123,16 +3189,16 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="26"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="82"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="21" t="s">
         <v>12</v>
@@ -3143,16 +3209,16 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="26"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="82"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="M11" s="14"/>
       <c r="N11" s="13"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="21" t="s">
         <v>12</v>
@@ -3163,16 +3229,16 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="26"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="12"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="82"/>
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
       <c r="N12" s="13"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
@@ -3185,7 +3251,7 @@
         <v>97</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -3194,7 +3260,7 @@
       <c r="J13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="82" t="s">
         <v>21</v>
       </c>
       <c r="L13" s="13" t="s">
@@ -3206,7 +3272,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
@@ -3219,14 +3285,14 @@
         <v>100</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>58</v>
       </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="82" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="13" t="s">
@@ -3242,7 +3308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
@@ -3255,14 +3321,14 @@
         <v>109</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>63</v>
       </c>
       <c r="J15" s="13"/>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="82" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="13" t="s">
@@ -3276,7 +3342,7 @@
       </c>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="21"/>
       <c r="D16" s="13" t="s">
@@ -3287,7 +3353,7 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -3296,7 +3362,7 @@
       <c r="J16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="82" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="13" t="s">
@@ -3319,7 +3385,7 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -3328,7 +3394,7 @@
       <c r="J17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="82" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="13" t="s">
@@ -3351,7 +3417,7 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <v>1</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -3379,7 +3445,7 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -3407,14 +3473,14 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="13"/>
       <c r="O20" s="15"/>
     </row>
@@ -3431,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="G21" s="13"/>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>1</v>
       </c>
       <c r="I21" s="12"/>
@@ -3457,7 +3523,7 @@
       <c r="G22" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>1</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -3491,7 +3557,7 @@
       <c r="G23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>1</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -3521,14 +3587,14 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="M24" s="14"/>
       <c r="N24" s="13"/>
       <c r="O24" s="15"/>
     </row>
@@ -3543,14 +3609,14 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="M25" s="14"/>
       <c r="N25" s="13"/>
       <c r="O25" s="15"/>
     </row>
@@ -3565,14 +3631,14 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="M26" s="14"/>
       <c r="N26" s="13"/>
       <c r="O26" s="15"/>
     </row>
@@ -3589,7 +3655,7 @@
         <v>100</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I27" s="12" t="s">
@@ -3619,7 +3685,7 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="12" t="s">
@@ -3649,7 +3715,7 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="12"/>
@@ -3671,7 +3737,7 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="25" t="s">
         <v>37</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -3703,7 +3769,7 @@
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="26"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -3723,7 +3789,7 @@
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I32" s="12"/>
@@ -3743,7 +3809,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="12"/>
@@ -3763,7 +3829,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I34" s="12"/>
@@ -3783,7 +3849,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="12"/>
@@ -3805,10 +3871,10 @@
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I36" s="38" t="s">
         <v>173</v>
       </c>
       <c r="J36" s="21"/>
@@ -3820,7 +3886,7 @@
         <v>46</v>
       </c>
       <c r="N36" s="21"/>
-      <c r="O36" s="41"/>
+      <c r="O36" s="39"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
@@ -3833,7 +3899,7 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I37" s="12"/>
@@ -3846,7 +3912,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
-      <c r="C38" s="30"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="18" t="s">
         <v>95</v>
       </c>
@@ -3855,38 +3921,38 @@
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="31">
+      <c r="H38" s="30">
         <v>1</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="18"/>
-      <c r="O38" s="32"/>
+      <c r="O38" s="31"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="27" t="s">
         <v>313</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="27"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="9"/>
       <c r="O39" s="11"/>
     </row>
@@ -3905,12 +3971,12 @@
         <v>43</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="12"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
+      <c r="M40" s="14"/>
       <c r="N40" s="13"/>
       <c r="O40" s="15"/>
     </row>
@@ -3929,7 +3995,7 @@
         <v>43</v>
       </c>
       <c r="G41" s="13"/>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="25" t="s">
         <v>37</v>
       </c>
       <c r="I41" s="21" t="s">
@@ -3963,14 +4029,14 @@
         <v>43</v>
       </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="25" t="s">
         <v>37</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
+      <c r="M42" s="14"/>
       <c r="N42" s="13"/>
       <c r="O42" s="15"/>
     </row>
@@ -3989,12 +4055,12 @@
         <v>43</v>
       </c>
       <c r="G43" s="13"/>
-      <c r="H43" s="26"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
+      <c r="M43" s="14"/>
       <c r="N43" s="13"/>
       <c r="O43" s="15"/>
     </row>
@@ -4009,12 +4075,12 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="26"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
+      <c r="M44" s="14"/>
       <c r="N44" s="13"/>
       <c r="O44" s="15"/>
     </row>
@@ -4031,12 +4097,12 @@
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
+      <c r="M45" s="14"/>
       <c r="N45" s="13"/>
       <c r="O45" s="15"/>
     </row>
@@ -4045,7 +4111,7 @@
       <c r="C46" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="29" t="s">
         <v>312</v>
       </c>
       <c r="E46" s="18" t="s">
@@ -4055,14 +4121,14 @@
         <v>43</v>
       </c>
       <c r="G46" s="18"/>
-      <c r="H46" s="31"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="17"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
+      <c r="M46" s="19"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="32"/>
+      <c r="O46" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4070,6 +4136,7 @@
     <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4099,22 +4166,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -4167,13 +4234,13 @@
       <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="27"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="9" t="s">
         <v>44</v>
       </c>
@@ -4186,7 +4253,7 @@
       <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="28" t="s">
         <v>46</v>
       </c>
       <c r="N4" s="9"/>
@@ -4205,7 +4272,7 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="13" t="s">
         <v>70</v>
       </c>
@@ -4231,7 +4298,7 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="13" t="s">
         <v>63</v>
       </c>
@@ -4263,7 +4330,7 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="13" t="s">
         <v>80</v>
       </c>
@@ -4297,7 +4364,7 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="26"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="13" t="s">
         <v>80</v>
       </c>
@@ -4333,7 +4400,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="13" t="s">
         <v>89</v>
       </c>
@@ -4367,7 +4434,7 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="26"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="13" t="s">
         <v>58</v>
       </c>
@@ -4970,7 +5037,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="29" t="s">
         <v>347</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -4981,14 +5048,14 @@
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="32"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="17"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
-      <c r="O39" s="32"/>
+      <c r="O39" s="31"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C40" s="21"/>
@@ -5030,22 +5097,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -5637,19 +5704,19 @@
       <c r="H20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="62" t="s">
+      <c r="I20" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="63" t="s">
+      <c r="L20" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="64" t="s">
+      <c r="M20" s="62" t="s">
         <v>46</v>
       </c>
       <c r="N20" s="13"/>
@@ -5658,21 +5725,21 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="68" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="66" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -5690,8 +5757,8 @@
       <c r="M21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="60"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="58"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
@@ -5708,7 +5775,7 @@
         <v>236</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -5736,7 +5803,7 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>1</v>
       </c>
       <c r="I23" s="13"/>
@@ -5762,7 +5829,7 @@
         <v>274</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <v>1</v>
       </c>
       <c r="I24" s="21"/>
@@ -5786,7 +5853,7 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
@@ -5812,7 +5879,7 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="25" t="s">
         <v>37</v>
       </c>
       <c r="I26" s="13"/>
@@ -5836,7 +5903,7 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="13" t="s">
@@ -5868,7 +5935,7 @@
         <v>304</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="26">
+      <c r="H28" s="25">
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
@@ -5904,7 +5971,7 @@
         <v>301</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <v>1</v>
       </c>
       <c r="I29" s="13"/>
@@ -5930,7 +5997,7 @@
         <v>299</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="26">
+      <c r="H30" s="25">
         <v>1</v>
       </c>
       <c r="I30" s="13"/>
@@ -5956,7 +6023,7 @@
         <v>299</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="13"/>
@@ -5982,7 +6049,7 @@
         <v>301</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I32" s="13"/>
@@ -6008,7 +6075,7 @@
         <v>300</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="13"/>
@@ -6032,7 +6099,7 @@
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I34" s="13"/>
@@ -6056,7 +6123,7 @@
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="13" t="s">
@@ -6088,7 +6155,7 @@
         <v>303</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="26">
+      <c r="H36" s="25">
         <v>1</v>
       </c>
       <c r="I36" s="13" t="s">
@@ -6124,7 +6191,7 @@
         <v>299</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="26">
+      <c r="H37" s="25">
         <v>1</v>
       </c>
       <c r="I37" s="13"/>
@@ -6150,7 +6217,7 @@
         <v>301</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="13"/>
@@ -6176,7 +6243,7 @@
         <v>300</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I39" s="13"/>
@@ -6200,7 +6267,7 @@
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="13"/>
@@ -6222,7 +6289,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="26"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -6244,7 +6311,7 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="25" t="s">
         <v>37</v>
       </c>
       <c r="I42" s="13"/>
@@ -6266,7 +6333,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="13" t="s">
@@ -6295,7 +6362,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="13" t="s">
@@ -6324,7 +6391,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
@@ -6346,7 +6413,7 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I46" s="13"/>
@@ -6372,7 +6439,7 @@
         <v>299</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="26">
+      <c r="H47" s="25">
         <v>1</v>
       </c>
       <c r="I47" s="13"/>
@@ -6398,7 +6465,7 @@
         <v>274</v>
       </c>
       <c r="G48" s="13"/>
-      <c r="H48" s="26">
+      <c r="H48" s="25">
         <v>1</v>
       </c>
       <c r="I48" s="13"/>
@@ -6424,7 +6491,7 @@
         <v>298</v>
       </c>
       <c r="G49" s="13"/>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I49" s="13"/>
@@ -6448,7 +6515,7 @@
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="26">
+      <c r="H50" s="25">
         <v>1</v>
       </c>
       <c r="I50" s="13"/>
@@ -6472,7 +6539,7 @@
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="25" t="s">
         <v>46</v>
       </c>
       <c r="I51" s="13"/>
@@ -6498,7 +6565,7 @@
         <v>251</v>
       </c>
       <c r="G52" s="13"/>
-      <c r="H52" s="26">
+      <c r="H52" s="25">
         <v>1</v>
       </c>
       <c r="I52" s="13"/>
@@ -6511,7 +6578,7 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>234</v>
       </c>
       <c r="D53" s="18" t="s">
@@ -6524,7 +6591,7 @@
         <v>252</v>
       </c>
       <c r="G53" s="18"/>
-      <c r="H53" s="31">
+      <c r="H53" s="30">
         <v>1</v>
       </c>
       <c r="I53" s="18"/>
@@ -6533,7 +6600,7 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
-      <c r="O53" s="32"/>
+      <c r="O53" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6570,22 +6637,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -6653,7 +6720,7 @@
         <v>36</v>
       </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="44" t="s">
         <v>37</v>
       </c>
       <c r="N4" s="9"/>
@@ -6834,13 +6901,13 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>218</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="32"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="17" t="s">
         <v>81</v>
       </c>
@@ -6875,7 +6942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -6898,22 +6965,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="80" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -6936,7 +7003,7 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7041,39 +7108,39 @@
       <c r="N7" s="13"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="2:15" s="54" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
+    <row r="8" spans="2:15" s="52" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="48" t="s">
+      <c r="L8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="M8" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="51" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7483,7 +7550,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="38" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="13"/>
@@ -7507,7 +7574,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="38" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="13"/>
@@ -7529,7 +7596,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="40"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -7547,7 +7614,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="40"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -7565,7 +7632,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="40"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
@@ -7583,7 +7650,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="40"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -7601,7 +7668,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="40"/>
+      <c r="I32" s="38"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -7619,7 +7686,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="40"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -7639,7 +7706,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="38" t="s">
         <v>43</v>
       </c>
       <c r="J34" s="13"/>
@@ -7659,7 +7726,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="40"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -7670,20 +7737,20 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>372</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="32"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="17"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="32"/>
+      <c r="O36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology_v1.1\02-Conceptual_Data_Model\MS-RPaM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology\02-Conceptual_Data_Model\MS-RPaM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="392">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -1201,6 +1201,12 @@
   </si>
   <si>
     <t>Base64</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Criterion</t>
+  </si>
+  <si>
+    <t>Criteria, in the eMandateRequest are used to specify Service Provider adhoc information Requirements (IR). This need (OAFriendlyName) is seen as an SP-IR.</t>
   </si>
 </sst>
 </file>
@@ -1697,6 +1703,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1721,15 +1731,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
+    <cellStyle name="Notas" xfId="2" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1745,7 +1751,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2013,7 +2019,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -2038,7 +2044,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -2053,23 +2059,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="41"/>
       <c r="I2" s="42"/>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2926,11 +2932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
@@ -2949,22 +2955,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -3011,7 +3017,7 @@
       <c r="O3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="75" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3037,7 +3043,7 @@
       <c r="J4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="73" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -3068,13 +3074,13 @@
       <c r="H5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="76" t="s">
         <v>388</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="74" t="s">
         <v>389</v>
       </c>
       <c r="L5" s="13"/>
@@ -3100,11 +3106,17 @@
       <c r="H6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="K6" s="74"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="N6" s="13"/>
       <c r="O6" s="16"/>
     </row>
@@ -3126,7 +3138,7 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="82"/>
+      <c r="K7" s="74"/>
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
@@ -3152,7 +3164,7 @@
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="82"/>
+      <c r="K8" s="74"/>
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
       <c r="N8" s="13"/>
@@ -3172,7 +3184,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="82"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
       <c r="N9" s="13"/>
@@ -3192,7 +3204,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="82"/>
+      <c r="K10" s="74"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
       <c r="N10" s="13"/>
@@ -3212,7 +3224,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="82"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
@@ -3232,7 +3244,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="12"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="82"/>
+      <c r="K12" s="74"/>
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
       <c r="N12" s="13"/>
@@ -3260,7 +3272,7 @@
       <c r="J13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="82" t="s">
+      <c r="K13" s="74" t="s">
         <v>21</v>
       </c>
       <c r="L13" s="13" t="s">
@@ -3292,7 +3304,7 @@
         <v>58</v>
       </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="74" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="13" t="s">
@@ -3328,7 +3340,7 @@
         <v>63</v>
       </c>
       <c r="J15" s="13"/>
-      <c r="K15" s="82" t="s">
+      <c r="K15" s="74" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="13" t="s">
@@ -3362,7 +3374,7 @@
       <c r="J16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="82" t="s">
+      <c r="K16" s="74" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="13" t="s">
@@ -3394,7 +3406,7 @@
       <c r="J17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="82" t="s">
+      <c r="K17" s="74" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="13" t="s">
@@ -4148,7 +4160,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -4166,22 +4178,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5078,7 +5090,7 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" customWidth="1"/>
@@ -5097,22 +5109,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -6620,7 +6632,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -6637,22 +6649,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -6946,7 +6958,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -6965,22 +6977,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="79" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="398">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -1207,13 +1207,31 @@
   </si>
   <si>
     <t>Criteria, in the eMandateRequest are used to specify Service Provider adhoc information Requirements (IR). This need (OAFriendlyName) is seen as an SP-IR.</t>
+  </si>
+  <si>
+    <t>TBD with AT</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/id</t>
+  </si>
+  <si>
+    <t>The identifier(s) of the mandate</t>
+  </si>
+  <si>
+    <t>What for? TBD with AT</t>
+  </si>
+  <si>
+    <t>What does "target" refer to?</t>
+  </si>
+  <si>
+    <t>What would we need this in the exchanged document.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1267,6 +1285,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1573,7 +1599,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1731,6 +1757,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2932,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,6 +3146,9 @@
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="16"/>
+      <c r="P6" s="85" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
@@ -3143,6 +3173,9 @@
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
       <c r="O7" s="16"/>
+      <c r="P7" s="85" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
@@ -3169,6 +3202,9 @@
       <c r="M8" s="14"/>
       <c r="N8" s="13"/>
       <c r="O8" s="16"/>
+      <c r="P8" s="85" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
@@ -3182,13 +3218,24 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
+      <c r="I9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="K9" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="N9" s="13"/>
       <c r="O9" s="16"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -3209,6 +3256,9 @@
       <c r="M10" s="14"/>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
+      <c r="P10" s="85" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
@@ -3229,6 +3279,9 @@
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
       <c r="O11" s="15"/>
+      <c r="P11" s="85" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -3249,6 +3302,9 @@
       <c r="M12" s="14"/>
       <c r="N12" s="13"/>
       <c r="O12" s="15"/>
+      <c r="P12" s="85" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="409">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -1225,13 +1225,46 @@
   </si>
   <si>
     <t>What would we need this in the exchanged document.</t>
+  </si>
+  <si>
+    <t>The idea of accessing this datum online is interesting, but if the objective is to check it at real time, in our Use Case this would not be necessary as the mandate is retrieved directly from the eMandate Registry, without any intervention by the user. Thus the status is a "real-time" one.</t>
+  </si>
+  <si>
+    <t>TBD AT</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Empowerment/Description</t>
+  </si>
+  <si>
+    <t>xsd:String</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>ccts:Text</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Empowerment/statusType</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Empowerment/Mandatee</t>
+  </si>
+  <si>
+    <t>rpam:Mandatee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ontology is able to infer the type of person based on its type. In UBL we need to have to different ASBIEs, as in AT (see examples under folder 03-Syntax_Bindings/OWL-DL-TTL/examples and 03-Syntax_Bindings/UBL-NDR-BASED/examples </t>
+  </si>
+  <si>
+    <t>What is the difference between physical and corporate? The definitions do not give a hint.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1293,6 +1326,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1599,7 +1639,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1733,6 +1773,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1757,7 +1798,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2086,23 +2128,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="41"/>
       <c r="I2" s="42"/>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2959,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,22 +3024,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -3110,7 +3152,9 @@
       <c r="K5" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="13" t="s">
+        <v>402</v>
+      </c>
       <c r="M5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3146,7 +3190,7 @@
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="16"/>
-      <c r="P6" s="85" t="s">
+      <c r="P6" s="77" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3166,14 +3210,16 @@
       <c r="H7" s="25">
         <v>1</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="86" t="s">
+        <v>399</v>
+      </c>
       <c r="J7" s="13"/>
       <c r="K7" s="74"/>
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="85" t="s">
+      <c r="P7" s="77" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3195,14 +3241,16 @@
       <c r="H8" s="25">
         <v>1</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="86" t="s">
+        <v>399</v>
+      </c>
       <c r="J8" s="13"/>
       <c r="K8" s="74"/>
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
       <c r="N8" s="13"/>
       <c r="O8" s="16"/>
-      <c r="P8" s="85" t="s">
+      <c r="P8" s="77" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3224,7 +3272,7 @@
       <c r="J9" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="74" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -3235,7 +3283,7 @@
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="16"/>
-      <c r="P9" s="85"/>
+      <c r="P9" s="77"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -3249,14 +3297,16 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="86" t="s">
+        <v>399</v>
+      </c>
       <c r="J10" s="13"/>
       <c r="K10" s="74"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="85" t="s">
+      <c r="P10" s="77" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3272,14 +3322,16 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="86" t="s">
+        <v>399</v>
+      </c>
       <c r="J11" s="13"/>
       <c r="K11" s="74"/>
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
       <c r="O11" s="15"/>
-      <c r="P11" s="85" t="s">
+      <c r="P11" s="77" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3295,14 +3347,16 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="86" t="s">
+        <v>399</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="74"/>
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
       <c r="N12" s="13"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="77" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3356,15 +3410,15 @@
       <c r="H14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>58</v>
+      <c r="I14" s="76" t="s">
+        <v>400</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>15</v>
+        <v>403</v>
+      </c>
+      <c r="L14" s="74" t="s">
+        <v>401</v>
       </c>
       <c r="M14" s="5">
         <v>1</v>
@@ -3372,7 +3426,7 @@
       <c r="N14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="87" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3393,7 +3447,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>63</v>
+        <v>404</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="74" t="s">
@@ -3408,7 +3462,9 @@
       <c r="N15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="16"/>
+      <c r="O15" s="87" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
@@ -3425,24 +3481,23 @@
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="J16" s="13"/>
       <c r="K16" s="74" t="s">
-        <v>21</v>
+        <v>406</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="87" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="21"/>
       <c r="D17" s="13" t="s">
@@ -3457,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>83</v>
@@ -3473,8 +3528,11 @@
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="77" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="21"/>
       <c r="D18" s="13" t="s">
@@ -3502,7 +3560,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="21"/>
       <c r="D19" s="13" t="s">
@@ -3530,7 +3588,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="21"/>
       <c r="D20" s="13" t="s">
@@ -3552,7 +3610,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="21"/>
       <c r="D21" s="13" t="s">
@@ -3576,7 +3634,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="21"/>
       <c r="D22" s="13" t="s">
@@ -3610,7 +3668,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="21"/>
       <c r="D23" s="13" t="s">
@@ -3644,7 +3702,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="21"/>
       <c r="D24" s="13" t="s">
@@ -3666,7 +3724,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="21"/>
       <c r="D25" s="13" t="s">
@@ -3688,7 +3746,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="21"/>
       <c r="D26" s="13" t="s">
@@ -3710,7 +3768,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21"/>
       <c r="D27" s="13" t="s">
@@ -3742,7 +3800,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="21"/>
       <c r="D28" s="13" t="s">
@@ -3772,7 +3830,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="21"/>
       <c r="D29" s="13" t="s">
@@ -3794,7 +3852,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="21"/>
       <c r="D30" s="13" t="s">
@@ -3826,7 +3884,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21"/>
       <c r="D31" s="13" t="s">
@@ -3846,7 +3904,7 @@
       <c r="N31" s="13"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="21"/>
       <c r="D32" s="13" t="s">
@@ -4234,22 +4292,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5165,22 +5223,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -6705,22 +6763,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -7033,22 +7091,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="83" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="467">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -1209,33 +1209,18 @@
     <t>Criteria, in the eMandateRequest are used to specify Service Provider adhoc information Requirements (IR). This need (OAFriendlyName) is seen as an SP-IR.</t>
   </si>
   <si>
-    <t>TBD with AT</t>
-  </si>
-  <si>
     <t>eMandateRequest/Mandate/id</t>
   </si>
   <si>
     <t>The identifier(s) of the mandate</t>
   </si>
   <si>
-    <t>What for? TBD with AT</t>
-  </si>
-  <si>
-    <t>What does "target" refer to?</t>
-  </si>
-  <si>
-    <t>What would we need this in the exchanged document.</t>
-  </si>
-  <si>
     <t>The idea of accessing this datum online is interesting, but if the objective is to check it at real time, in our Use Case this would not be necessary as the mandate is retrieved directly from the eMandate Registry, without any intervention by the user. Thus the status is a "real-time" one.</t>
   </si>
   <si>
     <t>TBD AT</t>
   </si>
   <si>
-    <t>eMandateRequest/Mandate/Empowerment/Description</t>
-  </si>
-  <si>
     <t>xsd:String</t>
   </si>
   <si>
@@ -1245,26 +1230,218 @@
     <t>ccts:Text</t>
   </si>
   <si>
-    <t>eMandateRequest/Mandate/Empowerment/statusType</t>
-  </si>
-  <si>
-    <t>eMandateRequest/Mandate/Empowerment/Mandatee</t>
-  </si>
-  <si>
     <t>rpam:Mandatee</t>
   </si>
   <si>
     <t xml:space="preserve">The ontology is able to infer the type of person based on its type. In UBL we need to have to different ASBIEs, as in AT (see examples under folder 03-Syntax_Bindings/OWL-DL-TTL/examples and 03-Syntax_Bindings/UBL-NDR-BASED/examples </t>
   </si>
   <si>
-    <t>What is the difference between physical and corporate? The definitions do not give a hint.</t>
+    <t>The organization that mandated this person to represent it.</t>
+  </si>
+  <si>
+    <t>The empowered person.</t>
+  </si>
+  <si>
+    <t>The mandate of a mandator that is delegating its power onto another mandatee.</t>
+  </si>
+  <si>
+    <t>A proxy, as defined in Deliverable 1?</t>
+  </si>
+  <si>
+    <t>eR*/Mandate/Empowerment/Description</t>
+  </si>
+  <si>
+    <t>eMandateRequest</t>
+  </si>
+  <si>
+    <t>eRR stands for eMandateRequest and eMandateResponse</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/ID</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Empowerment/statusType</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Empowerment/Mandatee</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Empowerment/Intermediary</t>
+  </si>
+  <si>
+    <t>eRR/id</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/id</t>
+  </si>
+  <si>
+    <t>eRR/IssueDateTime</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Description</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/hasPower/Power/FinancialTheresholdConstraint</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/lifeSpan</t>
+  </si>
+  <si>
+    <t>ubl:Period</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Empowerment/Mandatee/Organization</t>
+  </si>
+  <si>
+    <t>org:Organization</t>
+  </si>
+  <si>
+    <t>Could belong to more than one organization</t>
+  </si>
+  <si>
+    <t>The attributes schemeID, schemeAgencyID should be compulsory for the Request and Response documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The attributes of the document id should be sufficient to identify who issued the document. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The attributes of the mandate id should be sufficient to identify the registry where the mandate was created. </t>
+  </si>
+  <si>
+    <t>The attributes schemeID, schemeAgencyID should be compulsory for the Mandate</t>
+  </si>
+  <si>
+    <t>The identifier(s) of the eBusiness Document (transaction)</t>
+  </si>
+  <si>
+    <t>The identifier(s) of the mandate (the empowerment container)</t>
+  </si>
+  <si>
+    <t>The date and time of the eBusiness Document</t>
+  </si>
+  <si>
+    <t>The lifecycle of the mandate in the eMandate Registry where it is kept.</t>
+  </si>
+  <si>
+    <t>The creation date and the struck-off date.</t>
+  </si>
+  <si>
+    <t>Both date and time must be compulsory in this case, as this is a systemic timestamp.</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Empowerment/MandatorConstraint</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Empowerment/Constraint(s)</t>
+  </si>
+  <si>
+    <t>The constraints applied to the use of the power by mandator and mandatees.</t>
+  </si>
+  <si>
+    <t>See triples rpam:Empowerment rpam:mandator ccev:Constraint and rpam:Empowerment rpam:mandatee ccev:Constraint</t>
+  </si>
+  <si>
+    <t>DEFINITION NEEDED</t>
+  </si>
+  <si>
+    <t>ccev:CriterionProperty</t>
+  </si>
+  <si>
+    <t>Cover by RPaM as a CriterionProperty of type xsd:boolean (ccts:Indicator in UBL)</t>
+  </si>
+  <si>
+    <t>Constraints applied to the Mandate that affect all the empowerments therein  contained. These constraints shoud be commonly shared through a register of SP-Information Requirements and Constraints (e.g. eCertis).</t>
+  </si>
+  <si>
+    <t>We want avoid the perverse effects of the "other" approach. This hampers terribly the interoperability. Our proposal is to register and share any constraint that may be reused. If the constraint is of national or administration scope, then the IR and Constraint Register should cater for the definition of sub-criteria based on the common global constraints, as in eCertis.</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Constraint</t>
+  </si>
+  <si>
+    <t>For data protection and privacy reasons, as the mandate can contain multiple empowerments to other persons, the eMandate Registry must make sure that the eMandate Response contains only information about the empowerment of the person concerned in the Request. This rule should apply to mandatees that are both Natural and Legal Persons.</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Empowerment/Mandatee/RelatedMandate</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Empowerment/Mandator/RelatedMandate</t>
+  </si>
+  <si>
+    <t>@everis:For all rows in this spread-sheet we need to re-check whether the requirement applies to both documents or just to one of them</t>
+  </si>
+  <si>
+    <t>@AT: We need more insight on the meaning of "substituable" from AT.</t>
+  </si>
+  <si>
+    <t>@AT: please, what is the difference between a Mandate and a SimpleMandate?</t>
+  </si>
+  <si>
+    <t>@AT: We do not understand how this is used. AT, can you explain,  please? And provide examples?</t>
+  </si>
+  <si>
+    <t>@AT: Do you refer to the constraints of the mandator's and mandatee's use of the power in an empowerment? Otherwise can you explain and PROVIDE EXAMPLES, please?</t>
+  </si>
+  <si>
+    <t>@everis: 1. Add to the ontology. 2. Update the configuration  matrix.</t>
+  </si>
+  <si>
+    <t>@AT: Can you elaborate plelase? @everis: 1. We need to understand well this need, but we can already add it to the Ontology. I have the gut-feeling that we'll need it. I see it in the empowerment. BTW I thing we have the definition in the glossary.</t>
+  </si>
+  <si>
+    <t>@everis: 1. Move the delegationLevel to Empowerment
+2. Add a new constraint to the GenericConstraint: "The power cannot be delegated".
+3. Simplify the model like this: rpam:Empowerment rpam:constraint ccev:CriterionProperty. 4. Update the Configuration Matrix</t>
+  </si>
+  <si>
+    <t>@AT: 1. We think that the need AT has is in reality to be able to access the organisation to which a person works for. Are we mistaken?
+2. Update the configuration matrix.</t>
+  </si>
+  <si>
+    <t>@everis: 1. Add this element to the Ontology. 2. Update the configuration matrix.</t>
+  </si>
+  <si>
+    <t>@AT: TBD</t>
+  </si>
+  <si>
+    <t>@AT: What for?</t>
+  </si>
+  <si>
+    <t>@AT: What does "target" refer to?</t>
+  </si>
+  <si>
+    <t>@AT: Why would we need this in the exchanged document.</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/ValidityPeriodConstraint</t>
+  </si>
+  <si>
+    <t>The period of time the power can be used by the mandatee.</t>
+  </si>
+  <si>
+    <t>If not present then it does not expire (until the empowerment is revoked or the mandate struck-off).</t>
+  </si>
+  <si>
+    <t>@everis: 1. Add to the matrix configuration the need to document that "If a mandate is struck-off in the eMandate Registry, all the empowerments therein contained must change their statuses accordingly (we may need to come up with a new status named :CANCELLED_MANDATE_STRUCK_OFF</t>
+  </si>
+  <si>
+    <t>@everis: we may need a code list for the types of Mandates (simple, collective, ….)</t>
+  </si>
+  <si>
+    <t>We think this is solved in our model, and that it can be controlled via the Mandate Type</t>
+  </si>
+  <si>
+    <t>We think this is not necessary in a trusted environment. The pilot should bring on board the e-Delivery four corners approach.</t>
+  </si>
+  <si>
+    <t>@AT: can we agree on this?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,8 +1508,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1639,7 +1824,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1676,9 +1861,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1694,7 +1876,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1742,9 +1923,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -1766,14 +1944,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1798,8 +1974,77 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2128,23 +2373,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="78" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2162,7 +2407,7 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="51" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2171,19 +2416,19 @@
       <c r="I3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="35" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2206,11 +2451,11 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -2233,13 +2478,13 @@
         <v>165</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
@@ -2262,13 +2507,13 @@
       <c r="I6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="36"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2289,13 +2534,13 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -2318,11 +2563,11 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -2341,11 +2586,11 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
@@ -2370,15 +2615,15 @@
       <c r="I10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="2:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="33"/>
+    </row>
+    <row r="11" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
@@ -2394,12 +2639,12 @@
         <v>37</v>
       </c>
       <c r="H11" s="21"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
@@ -2424,15 +2669,15 @@
       <c r="I12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="2:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="33"/>
+    </row>
+    <row r="13" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -2448,14 +2693,14 @@
         <v>46</v>
       </c>
       <c r="H13" s="21"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-    </row>
-    <row r="14" spans="2:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="37"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -2471,12 +2716,12 @@
         <v>46</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
@@ -2495,13 +2740,13 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
@@ -2522,13 +2767,13 @@
       <c r="I16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
@@ -2547,11 +2792,11 @@
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
@@ -2578,13 +2823,13 @@
       <c r="I18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
@@ -2609,49 +2854,49 @@
       <c r="I19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="65"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="65"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -2665,14 +2910,14 @@
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -2692,14 +2937,14 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -2717,14 +2962,14 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2742,14 +2987,14 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -2765,14 +3010,14 @@
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -2790,14 +3035,14 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -2813,14 +3058,14 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -2836,14 +3081,14 @@
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -2859,14 +3104,14 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -2880,14 +3125,14 @@
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -2903,14 +3148,14 @@
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -2930,14 +3175,14 @@
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="36" t="s">
         <v>234</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -2954,38 +3199,38 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
     </row>
     <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2999,1270 +3244,1544 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P46"/>
+  <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="89" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="89" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="89" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.28515625" style="89" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="89" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="89" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="89"/>
+    <col min="15" max="15" width="21.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="89" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="97" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="72" t="s">
+      <c r="M4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N4" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O4" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P4" s="84" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="27" t="s">
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="91"/>
+      <c r="C5" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E5" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="26">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I5" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J5" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L5" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M5" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="32"/>
-      <c r="P4" t="s">
+      <c r="N5" s="98"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="89" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="21" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E6" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="25" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I6" s="85" t="s">
         <v>388</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J6" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K6" s="86" t="s">
         <v>389</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L6" s="98" t="s">
+        <v>397</v>
+      </c>
+      <c r="M6" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="98"/>
+      <c r="O6" s="114"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>390</v>
+      </c>
+      <c r="J7" s="97" t="s">
+        <v>391</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="98"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="123" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99">
+        <v>1</v>
+      </c>
+      <c r="I8" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="J8" s="98"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="123" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="96"/>
+      <c r="C9" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99">
+        <v>1</v>
+      </c>
+      <c r="I9" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="123" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="96"/>
+      <c r="C10" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="J10" s="97" t="s">
+        <v>393</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="98"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="87"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="96"/>
+      <c r="C11" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="J11" s="98"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="123" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="96"/>
+      <c r="C12" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="J12" s="98"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="123" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="96"/>
+      <c r="C13" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="J13" s="98"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="123" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99">
+        <v>1</v>
+      </c>
+      <c r="I14" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="J14" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="98"/>
+      <c r="O14" s="114"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>405</v>
+      </c>
+      <c r="J15" s="98"/>
+      <c r="K15" s="86" t="s">
+        <v>398</v>
+      </c>
+      <c r="L15" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="M15" s="102">
+        <v>1</v>
+      </c>
+      <c r="N15" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="123" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="J16" s="98"/>
+      <c r="K16" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="102">
+        <v>1</v>
+      </c>
+      <c r="N16" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="115" t="s">
+        <v>394</v>
+      </c>
+      <c r="P16" s="113" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99">
+        <v>1</v>
+      </c>
+      <c r="I17" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="J17" s="98"/>
+      <c r="K17" s="86" t="s">
+        <v>399</v>
+      </c>
+      <c r="L17" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="115" t="s">
+        <v>400</v>
+      </c>
+      <c r="P17" s="113" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99">
+        <v>1</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>419</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>401</v>
+      </c>
+      <c r="K18" s="86" t="s">
+        <v>420</v>
+      </c>
+      <c r="L18" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="98"/>
+      <c r="O18" s="115" t="s">
+        <v>421</v>
+      </c>
+      <c r="P18" s="124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99">
+        <v>1</v>
+      </c>
+      <c r="I19" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="J19" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="K19" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="98"/>
+      <c r="M19" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="98"/>
+      <c r="O19" s="114"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="97"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99">
+        <v>1</v>
+      </c>
+      <c r="I20" s="85" t="s">
+        <v>444</v>
+      </c>
+      <c r="J20" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="98"/>
+      <c r="M20" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="98"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="123" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="25" t="s">
+      <c r="I21" s="85" t="s">
+        <v>411</v>
+      </c>
+      <c r="J21" s="97" t="s">
+        <v>404</v>
+      </c>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="98"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="123" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="J22" s="97" t="s">
+        <v>426</v>
+      </c>
+      <c r="K22" s="98"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="100">
+        <v>1</v>
+      </c>
+      <c r="N22" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="O22" s="115" t="s">
+        <v>423</v>
+      </c>
+      <c r="P22" s="112" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>413</v>
+      </c>
+      <c r="J23" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" s="98"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="100">
+        <v>1</v>
+      </c>
+      <c r="N23" s="85" t="s">
+        <v>425</v>
+      </c>
+      <c r="O23" s="115" t="s">
+        <v>424</v>
+      </c>
+      <c r="P23" s="112" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="96" t="s">
+        <v>414</v>
+      </c>
+      <c r="J24" s="97" t="s">
+        <v>428</v>
+      </c>
+      <c r="K24" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="100">
+        <v>1</v>
+      </c>
+      <c r="N24" s="85" t="s">
+        <v>431</v>
+      </c>
+      <c r="O24" s="114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="96" t="s">
+        <v>417</v>
+      </c>
+      <c r="J25" s="97" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="98" t="s">
+        <v>418</v>
+      </c>
+      <c r="L25" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="100">
+        <v>1</v>
+      </c>
+      <c r="N25" s="85" t="s">
+        <v>431</v>
+      </c>
+      <c r="O25" s="115" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="96"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="76" t="s">
-        <v>390</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="5" t="s">
+      <c r="I26" s="96" t="s">
+        <v>433</v>
+      </c>
+      <c r="J26" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="97" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="77" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="25">
+      <c r="N26" s="98"/>
+      <c r="O26" s="114" t="s">
+        <v>435</v>
+      </c>
+      <c r="P26" s="112" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="J27" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="K27" s="97" t="s">
+        <v>437</v>
+      </c>
+      <c r="L27" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="98"/>
+      <c r="O27" s="114" t="s">
+        <v>438</v>
+      </c>
+      <c r="P27" s="112" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="J28" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="K28" s="97" t="s">
+        <v>437</v>
+      </c>
+      <c r="L28" s="98"/>
+      <c r="M28" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="98"/>
+      <c r="O28" s="114" t="s">
+        <v>440</v>
+      </c>
+      <c r="P28" s="97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="98"/>
+      <c r="H29" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="98"/>
+      <c r="O29" s="114"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="98"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="112" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="96"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="96" t="s">
+        <v>444</v>
+      </c>
+      <c r="J31" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="K31" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="98"/>
+      <c r="M31" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="98"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="123" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="85" t="s">
+        <v>443</v>
+      </c>
+      <c r="J32" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="K32" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="98"/>
+      <c r="M32" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="85" t="s">
+        <v>442</v>
+      </c>
+      <c r="O32" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="123" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="96"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="J33" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="98"/>
+      <c r="O33" s="114"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="96"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="J34" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="K34" s="97" t="s">
+        <v>437</v>
+      </c>
+      <c r="L34" s="98"/>
+      <c r="M34" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="98"/>
+      <c r="O34" s="114" t="s">
+        <v>440</v>
+      </c>
+      <c r="P34" s="97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="J35" s="97" t="s">
+        <v>460</v>
+      </c>
+      <c r="K35" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="97" t="s">
+        <v>418</v>
+      </c>
+      <c r="M35" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="98"/>
+      <c r="O35" s="114" t="s">
+        <v>461</v>
+      </c>
+      <c r="P35" s="112" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="J36" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="K36" s="97" t="s">
+        <v>437</v>
+      </c>
+      <c r="L36" s="98"/>
+      <c r="M36" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" s="98"/>
+      <c r="O36" s="114" t="s">
+        <v>464</v>
+      </c>
+      <c r="P36" s="112" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="J37" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="K37" s="97" t="s">
+        <v>437</v>
+      </c>
+      <c r="L37" s="98"/>
+      <c r="M37" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" s="98"/>
+      <c r="O37" s="114" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="J38" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="K38" s="97" t="s">
+        <v>437</v>
+      </c>
+      <c r="L38" s="98"/>
+      <c r="M38" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" s="98"/>
+      <c r="O38" s="114" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="96"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="104" t="s">
+        <v>416</v>
+      </c>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="L39" s="97"/>
+      <c r="M39" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" s="97"/>
+      <c r="O39" s="117"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="J40" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="K40" s="97" t="s">
+        <v>437</v>
+      </c>
+      <c r="L40" s="98"/>
+      <c r="M40" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" s="98"/>
+      <c r="O40" s="114"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="105"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="108">
         <v>1</v>
       </c>
-      <c r="I7" s="86" t="s">
-        <v>399</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="77" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="25">
-        <v>1</v>
-      </c>
-      <c r="I8" s="86" t="s">
-        <v>399</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="77" t="s">
+      <c r="I41" s="125" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="25"/>
-      <c r="I9" t="s">
-        <v>393</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="K9" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="109"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="118" t="s">
+        <v>465</v>
+      </c>
+      <c r="P41" s="112" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="91"/>
+      <c r="C42" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="93"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="111"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="96"/>
+      <c r="C43" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="F43" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="98"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="101"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="96"/>
+      <c r="C44" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="E44" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="F44" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="98"/>
+      <c r="H44" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="77"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="86" t="s">
-        <v>399</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="77" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="86" t="s">
-        <v>399</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="77" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="86" t="s">
-        <v>399</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="77" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="25">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="76" t="s">
-        <v>400</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="L14" s="74" t="s">
-        <v>401</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" s="87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="87" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="25">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="74" t="s">
-        <v>406</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="87" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="77" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="25">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13" t="s">
+      <c r="I44" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="25">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="15"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="25">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="25">
-        <v>1</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="14">
-        <v>1</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="14">
-        <v>1</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="15"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="15"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="15"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="25" t="s">
+      <c r="L44" s="98"/>
+      <c r="M44" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="15"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N36" s="21"/>
-      <c r="O36" s="39"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="30">
-        <v>1</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="31"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
+      <c r="N44" s="98"/>
+      <c r="O44" s="101"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="96"/>
+      <c r="C45" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="D45" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="F45" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="11"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13" t="s">
+      <c r="G45" s="98"/>
+      <c r="H45" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" s="96"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="101"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="96"/>
+      <c r="C46" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="F40" s="21" t="s">
+      <c r="D46" s="97" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" s="98" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="15"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13" t="s">
+      <c r="G46" s="98"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="101"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="96"/>
+      <c r="C47" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="F41" s="21" t="s">
+      <c r="D47" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="98"/>
+      <c r="O47" s="101"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="96"/>
+      <c r="C48" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="97" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48" s="98" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="101"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="105"/>
+      <c r="C49" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="106" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" s="107" t="s">
+        <v>316</v>
+      </c>
+      <c r="F49" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N41" s="13"/>
-      <c r="O41" s="15"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="15"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
-      <c r="C43" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="15"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
-      <c r="C44" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="15"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
-      <c r="C45" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="15"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
-      <c r="C46" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="31"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="107"/>
+      <c r="O49" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="eR@ stands for eMandateRequest and eMandateResponse"/>
+    <hyperlink ref="P32" r:id="rId2" display="0@AT, please, what is the difference between a Mandate and a SimpleMandate?"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4292,22 +4811,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -4360,13 +4879,13 @@
       <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="26"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="9" t="s">
         <v>44</v>
       </c>
@@ -4379,7 +4898,7 @@
       <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>46</v>
       </c>
       <c r="N4" s="9"/>
@@ -4398,7 +4917,7 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="13" t="s">
         <v>70</v>
       </c>
@@ -4424,7 +4943,7 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="13" t="s">
         <v>63</v>
       </c>
@@ -4456,7 +4975,7 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="13" t="s">
         <v>80</v>
       </c>
@@ -4490,7 +5009,7 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="13" t="s">
         <v>80</v>
       </c>
@@ -4526,7 +5045,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="13" t="s">
         <v>89</v>
       </c>
@@ -4560,7 +5079,7 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="13" t="s">
         <v>58</v>
       </c>
@@ -5163,7 +5682,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>347</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -5174,14 +5693,14 @@
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="31"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="17"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
-      <c r="O39" s="31"/>
+      <c r="O39" s="30"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C40" s="21"/>
@@ -5223,22 +5742,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -5830,19 +6349,19 @@
       <c r="H20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="61" t="s">
+      <c r="L20" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="62" t="s">
+      <c r="M20" s="59" t="s">
         <v>46</v>
       </c>
       <c r="N20" s="13"/>
@@ -5851,21 +6370,21 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="66" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="63" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -5883,8 +6402,8 @@
       <c r="M21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="57"/>
-      <c r="O21" s="58"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
@@ -5901,7 +6420,7 @@
         <v>236</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -5929,7 +6448,7 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="25">
+      <c r="H23" s="24">
         <v>1</v>
       </c>
       <c r="I23" s="13"/>
@@ -5955,7 +6474,7 @@
         <v>274</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="25">
+      <c r="H24" s="24">
         <v>1</v>
       </c>
       <c r="I24" s="21"/>
@@ -5979,7 +6498,7 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="25">
+      <c r="H25" s="24">
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
@@ -6005,7 +6524,7 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="24" t="s">
         <v>37</v>
       </c>
       <c r="I26" s="13"/>
@@ -6029,7 +6548,7 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="13" t="s">
@@ -6061,7 +6580,7 @@
         <v>304</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="25">
+      <c r="H28" s="24">
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
@@ -6097,7 +6616,7 @@
         <v>301</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="25">
+      <c r="H29" s="24">
         <v>1</v>
       </c>
       <c r="I29" s="13"/>
@@ -6123,7 +6642,7 @@
         <v>299</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="25">
+      <c r="H30" s="24">
         <v>1</v>
       </c>
       <c r="I30" s="13"/>
@@ -6149,7 +6668,7 @@
         <v>299</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="13"/>
@@ -6175,7 +6694,7 @@
         <v>301</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I32" s="13"/>
@@ -6201,7 +6720,7 @@
         <v>300</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="13"/>
@@ -6225,7 +6744,7 @@
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I34" s="13"/>
@@ -6249,7 +6768,7 @@
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="13" t="s">
@@ -6281,7 +6800,7 @@
         <v>303</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="25">
+      <c r="H36" s="24">
         <v>1</v>
       </c>
       <c r="I36" s="13" t="s">
@@ -6317,7 +6836,7 @@
         <v>299</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="25">
+      <c r="H37" s="24">
         <v>1</v>
       </c>
       <c r="I37" s="13"/>
@@ -6343,7 +6862,7 @@
         <v>301</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="13"/>
@@ -6369,7 +6888,7 @@
         <v>300</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I39" s="13"/>
@@ -6393,7 +6912,7 @@
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="13"/>
@@ -6415,7 +6934,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -6437,7 +6956,7 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="24" t="s">
         <v>37</v>
       </c>
       <c r="I42" s="13"/>
@@ -6459,7 +6978,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="13" t="s">
@@ -6488,7 +7007,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="13" t="s">
@@ -6517,7 +7036,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="25"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
@@ -6539,7 +7058,7 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="24" t="s">
         <v>46</v>
       </c>
       <c r="I46" s="13"/>
@@ -6565,7 +7084,7 @@
         <v>299</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="25">
+      <c r="H47" s="24">
         <v>1</v>
       </c>
       <c r="I47" s="13"/>
@@ -6591,7 +7110,7 @@
         <v>274</v>
       </c>
       <c r="G48" s="13"/>
-      <c r="H48" s="25">
+      <c r="H48" s="24">
         <v>1</v>
       </c>
       <c r="I48" s="13"/>
@@ -6617,7 +7136,7 @@
         <v>298</v>
       </c>
       <c r="G49" s="13"/>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I49" s="13"/>
@@ -6641,7 +7160,7 @@
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="25">
+      <c r="H50" s="24">
         <v>1</v>
       </c>
       <c r="I50" s="13"/>
@@ -6665,7 +7184,7 @@
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="24" t="s">
         <v>46</v>
       </c>
       <c r="I51" s="13"/>
@@ -6691,7 +7210,7 @@
         <v>251</v>
       </c>
       <c r="G52" s="13"/>
-      <c r="H52" s="25">
+      <c r="H52" s="24">
         <v>1</v>
       </c>
       <c r="I52" s="13"/>
@@ -6704,7 +7223,7 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="28" t="s">
         <v>234</v>
       </c>
       <c r="D53" s="18" t="s">
@@ -6717,7 +7236,7 @@
         <v>252</v>
       </c>
       <c r="G53" s="18"/>
-      <c r="H53" s="30">
+      <c r="H53" s="29">
         <v>1</v>
       </c>
       <c r="I53" s="18"/>
@@ -6726,7 +7245,7 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
-      <c r="O53" s="31"/>
+      <c r="O53" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6763,22 +7282,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -6846,7 +7365,7 @@
         <v>36</v>
       </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="42" t="s">
         <v>37</v>
       </c>
       <c r="N4" s="9"/>
@@ -7027,13 +7546,13 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>218</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="17" t="s">
         <v>81</v>
       </c>
@@ -7091,22 +7610,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="84" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -7129,7 +7648,7 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="41" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7234,39 +7753,39 @@
       <c r="N7" s="13"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="2:15" s="52" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="s">
+    <row r="8" spans="2:15" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="49" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7676,7 +8195,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="36" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="13"/>
@@ -7700,7 +8219,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="36" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="13"/>
@@ -7722,7 +8241,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="38"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -7740,7 +8259,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="38"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -7758,7 +8277,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
@@ -7776,7 +8295,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="38"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -7794,7 +8313,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="38"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -7812,7 +8331,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="38"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -7832,7 +8351,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="36" t="s">
         <v>43</v>
       </c>
       <c r="J34" s="13"/>
@@ -7852,7 +8371,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="38"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -7863,20 +8382,20 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>372</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="31"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="17"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="31"/>
+      <c r="O36" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="483">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -1270,9 +1270,6 @@
   </si>
   <si>
     <t>eRR/id</t>
-  </si>
-  <si>
-    <t>eRR/Mandate/id</t>
   </si>
   <si>
     <t>eRR/IssueDateTime</t>
@@ -1435,13 +1432,64 @@
   </si>
   <si>
     <t>@AT: can we agree on this?</t>
+  </si>
+  <si>
+    <t>@AT: Shouldn't this be treated in a header? OASIS has a standard for this…or may be as a national information requirement/constraint?</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>eMandate/Intermediary</t>
+  </si>
+  <si>
+    <t>@AT: Isn't this the same as the intermediary? In any case is an organisation that should be linked to the mandate, not to the document, right? We can add the digital certificate as the ID of that organisation or person. CCTS Identifiers are normalized strings, and an xsd:base64binary is a normalized string.</t>
+  </si>
+  <si>
+    <t>The attributes of the identifier of this "Agent" are sufficient to lead to the correct organisation. I think this is particular to AT, derived from the fact that each public administration organisation uses their own ID policy and then there's a central registry that is in charge of rerouting the information to the right organisation.</t>
+  </si>
+  <si>
+    <t>The attributes of the identifier of this "Agent" are sufficient to lead to the correct organisation or person.</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Exception</t>
+  </si>
+  <si>
+    <t>A message about the Mandate in the eMandate Respose document. In case no mandate is included in the response (e.g. because no information matching the request was found, the mandate has been struck-off or the empowerments have bee revoked, etc.), the the Exception describes the possible causes.</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Exception/Description</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Exception/ID</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Exception/Type</t>
+  </si>
+  <si>
+    <t>A URI pointing at the description of the  Exception.</t>
+  </si>
+  <si>
+    <t>A code describing the type of error (from a taxonomy).</t>
+  </si>
+  <si>
+    <t>The description of the exception.</t>
+  </si>
+  <si>
+    <t>@everis: this class was already in the EAP file, but not in the OWL-DL-TTL of the ontology. @Laia, please add it.</t>
+  </si>
+  <si>
+    <t>The URI identifies the Exception in a de-referenceable location from where all the metadata about the exception can  be retrieved.</t>
+  </si>
+  <si>
+    <t>@everis: we should provide one dataset populated with Exceptions. @AT: can you provide us with real ones?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1516,6 +1564,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -1824,7 +1880,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2040,11 +2096,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3244,10 +3302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P49"/>
+  <dimension ref="B1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="J31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,8 +3502,8 @@
       </c>
       <c r="N7" s="98"/>
       <c r="O7" s="114"/>
-      <c r="P7" s="123" t="s">
-        <v>455</v>
+      <c r="P7" s="124" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -3473,8 +3531,8 @@
       <c r="M8" s="100"/>
       <c r="N8" s="98"/>
       <c r="O8" s="114"/>
-      <c r="P8" s="123" t="s">
-        <v>455</v>
+      <c r="P8" s="124" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -3504,8 +3562,8 @@
       <c r="M9" s="100"/>
       <c r="N9" s="98"/>
       <c r="O9" s="114"/>
-      <c r="P9" s="123" t="s">
-        <v>456</v>
+      <c r="P9" s="124" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -3560,8 +3618,8 @@
       <c r="M11" s="100"/>
       <c r="N11" s="98"/>
       <c r="O11" s="114"/>
-      <c r="P11" s="123" t="s">
-        <v>457</v>
+      <c r="P11" s="124" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -3585,8 +3643,8 @@
       <c r="M12" s="100"/>
       <c r="N12" s="98"/>
       <c r="O12" s="114"/>
-      <c r="P12" s="123" t="s">
-        <v>457</v>
+      <c r="P12" s="124" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -3610,8 +3668,8 @@
       <c r="M13" s="100"/>
       <c r="N13" s="98"/>
       <c r="O13" s="114"/>
-      <c r="P13" s="123" t="s">
-        <v>458</v>
+      <c r="P13" s="124" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3683,8 +3741,8 @@
       <c r="O15" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="123" t="s">
-        <v>454</v>
+      <c r="P15" s="124" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -3775,13 +3833,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J18" s="98" t="s">
         <v>401</v>
       </c>
       <c r="K18" s="86" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L18" s="98" t="s">
         <v>69</v>
@@ -3791,10 +3849,10 @@
       </c>
       <c r="N18" s="98"/>
       <c r="O18" s="115" t="s">
-        <v>421</v>
-      </c>
-      <c r="P18" s="124" t="s">
-        <v>453</v>
+        <v>420</v>
+      </c>
+      <c r="P18" s="125" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -3842,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="85" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J20" s="97" t="s">
         <v>403</v>
@@ -3856,8 +3914,8 @@
       </c>
       <c r="N20" s="98"/>
       <c r="O20" s="116"/>
-      <c r="P20" s="123" t="s">
-        <v>452</v>
+      <c r="P20" s="124" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -3887,8 +3945,8 @@
       </c>
       <c r="N21" s="98"/>
       <c r="O21" s="114"/>
-      <c r="P21" s="123" t="s">
-        <v>451</v>
+      <c r="P21" s="124" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -3911,7 +3969,7 @@
         <v>412</v>
       </c>
       <c r="J22" s="97" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K22" s="98"/>
       <c r="L22" s="80"/>
@@ -3919,13 +3977,13 @@
         <v>1</v>
       </c>
       <c r="N22" s="85" t="s">
+        <v>421</v>
+      </c>
+      <c r="O22" s="115" t="s">
         <v>422</v>
       </c>
-      <c r="O22" s="115" t="s">
-        <v>423</v>
-      </c>
       <c r="P22" s="112" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -3945,10 +4003,10 @@
         <v>30</v>
       </c>
       <c r="I23" s="96" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J23" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K23" s="98"/>
       <c r="L23" s="80"/>
@@ -3956,10 +4014,10 @@
         <v>1</v>
       </c>
       <c r="N23" s="85" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O23" s="115" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P23" s="112" t="s">
         <v>43</v>
@@ -3984,10 +4042,10 @@
         <v>30</v>
       </c>
       <c r="I24" s="96" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J24" s="97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K24" s="98" t="s">
         <v>19</v>
@@ -3999,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="85" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O24" s="114" t="s">
         <v>43</v>
@@ -4024,13 +4082,13 @@
         <v>30</v>
       </c>
       <c r="I25" s="96" t="s">
+        <v>416</v>
+      </c>
+      <c r="J25" s="97" t="s">
+        <v>428</v>
+      </c>
+      <c r="K25" s="98" t="s">
         <v>417</v>
-      </c>
-      <c r="J25" s="97" t="s">
-        <v>429</v>
-      </c>
-      <c r="K25" s="98" t="s">
-        <v>418</v>
       </c>
       <c r="L25" s="97" t="s">
         <v>69</v>
@@ -4039,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="N25" s="85" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O25" s="115" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -4060,13 +4118,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="J26" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="J26" s="97" t="s">
-        <v>434</v>
-      </c>
       <c r="K26" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L26" s="97" t="s">
         <v>69</v>
@@ -4076,10 +4134,10 @@
       </c>
       <c r="N26" s="98"/>
       <c r="O26" s="114" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P26" s="112" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -4097,13 +4155,13 @@
         <v>30</v>
       </c>
       <c r="I27" s="96" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J27" s="85" t="s">
+        <v>435</v>
+      </c>
+      <c r="K27" s="97" t="s">
         <v>436</v>
-      </c>
-      <c r="K27" s="97" t="s">
-        <v>437</v>
       </c>
       <c r="L27" s="97" t="s">
         <v>69</v>
@@ -4113,10 +4171,10 @@
       </c>
       <c r="N27" s="98"/>
       <c r="O27" s="114" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P27" s="112" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -4134,13 +4192,13 @@
         <v>46</v>
       </c>
       <c r="I28" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J28" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K28" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L28" s="98"/>
       <c r="M28" s="100" t="s">
@@ -4148,7 +4206,7 @@
       </c>
       <c r="N28" s="98"/>
       <c r="O28" s="114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P28" s="97" t="s">
         <v>43</v>
@@ -4171,7 +4229,7 @@
         <v>46</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J29" s="98"/>
       <c r="K29" s="98" t="s">
@@ -4201,7 +4259,7 @@
         <v>46</v>
       </c>
       <c r="I30" s="96" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J30" s="98"/>
       <c r="K30" s="98" t="s">
@@ -4216,7 +4274,7 @@
       <c r="N30" s="98"/>
       <c r="O30" s="114"/>
       <c r="P30" s="112" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -4234,7 +4292,7 @@
         <v>46</v>
       </c>
       <c r="I31" s="96" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J31" s="97" t="s">
         <v>403</v>
@@ -4248,8 +4306,8 @@
       </c>
       <c r="N31" s="98"/>
       <c r="O31" s="116"/>
-      <c r="P31" s="123" t="s">
-        <v>445</v>
+      <c r="P31" s="124" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -4267,7 +4325,7 @@
         <v>46</v>
       </c>
       <c r="I32" s="85" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J32" s="97" t="s">
         <v>403</v>
@@ -4280,13 +4338,13 @@
         <v>30</v>
       </c>
       <c r="N32" s="85" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O32" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="P32" s="123" t="s">
-        <v>447</v>
+      <c r="P32" s="124" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -4336,13 +4394,13 @@
         <v>30</v>
       </c>
       <c r="I34" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K34" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L34" s="98"/>
       <c r="M34" s="100" t="s">
@@ -4350,7 +4408,7 @@
       </c>
       <c r="N34" s="98"/>
       <c r="O34" s="114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P34" s="97" t="s">
         <v>43</v>
@@ -4371,26 +4429,26 @@
         <v>30</v>
       </c>
       <c r="I35" s="96" t="s">
+        <v>458</v>
+      </c>
+      <c r="J35" s="97" t="s">
         <v>459</v>
-      </c>
-      <c r="J35" s="97" t="s">
-        <v>460</v>
       </c>
       <c r="K35" s="97" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="97" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M35" s="102" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="98"/>
       <c r="O35" s="114" t="s">
+        <v>460</v>
+      </c>
+      <c r="P35" s="112" t="s">
         <v>461</v>
-      </c>
-      <c r="P35" s="112" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -4406,13 +4464,13 @@
         <v>30</v>
       </c>
       <c r="I36" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J36" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K36" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L36" s="98"/>
       <c r="M36" s="100" t="s">
@@ -4420,10 +4478,10 @@
       </c>
       <c r="N36" s="98"/>
       <c r="O36" s="114" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P36" s="112" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -4439,13 +4497,13 @@
         <v>30</v>
       </c>
       <c r="I37" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J37" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K37" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L37" s="98"/>
       <c r="M37" s="100" t="s">
@@ -4453,7 +4511,7 @@
       </c>
       <c r="N37" s="98"/>
       <c r="O37" s="114" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -4469,13 +4527,13 @@
         <v>30</v>
       </c>
       <c r="I38" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K38" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L38" s="98"/>
       <c r="M38" s="100" t="s">
@@ -4483,7 +4541,7 @@
       </c>
       <c r="N38" s="98"/>
       <c r="O38" s="114" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -4501,7 +4559,7 @@
         <v>30</v>
       </c>
       <c r="I39" s="104" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J39" s="97"/>
       <c r="K39" s="97" t="s">
@@ -4529,13 +4587,13 @@
         <v>46</v>
       </c>
       <c r="I40" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J40" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K40" s="97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L40" s="98"/>
       <c r="M40" s="102" t="s">
@@ -4558,7 +4616,7 @@
       <c r="H41" s="108">
         <v>1</v>
       </c>
-      <c r="I41" s="125" t="s">
+      <c r="I41" s="126" t="s">
         <v>395</v>
       </c>
       <c r="J41" s="107"/>
@@ -4567,10 +4625,10 @@
       <c r="M41" s="109"/>
       <c r="N41" s="107"/>
       <c r="O41" s="118" t="s">
+        <v>464</v>
+      </c>
+      <c r="P41" s="112" t="s">
         <v>465</v>
-      </c>
-      <c r="P41" s="112" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -4589,13 +4647,18 @@
       </c>
       <c r="G42" s="93"/>
       <c r="H42" s="94"/>
-      <c r="I42" s="91"/>
+      <c r="I42" s="127" t="s">
+        <v>395</v>
+      </c>
       <c r="J42" s="93"/>
       <c r="K42" s="93"/>
       <c r="L42" s="93"/>
       <c r="M42" s="95"/>
       <c r="N42" s="93"/>
       <c r="O42" s="111"/>
+      <c r="P42" s="123" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="96"/>
@@ -4613,13 +4676,18 @@
       </c>
       <c r="G43" s="98"/>
       <c r="H43" s="99"/>
-      <c r="I43" s="96"/>
+      <c r="I43" s="127" t="s">
+        <v>395</v>
+      </c>
       <c r="J43" s="98"/>
       <c r="K43" s="98"/>
       <c r="L43" s="98"/>
       <c r="M43" s="100"/>
       <c r="N43" s="98"/>
       <c r="O43" s="101"/>
+      <c r="P43" s="87" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="96"/>
@@ -4673,13 +4741,22 @@
       <c r="H45" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="96"/>
+      <c r="I45" s="96" t="s">
+        <v>468</v>
+      </c>
       <c r="J45" s="98"/>
       <c r="K45" s="98"/>
       <c r="L45" s="98"/>
-      <c r="M45" s="100"/>
+      <c r="M45" s="100" t="s">
+        <v>46</v>
+      </c>
       <c r="N45" s="98"/>
-      <c r="O45" s="101"/>
+      <c r="O45" s="118" t="s">
+        <v>471</v>
+      </c>
+      <c r="P45" s="112" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="96"/>
@@ -4696,14 +4773,22 @@
         <v>43</v>
       </c>
       <c r="G46" s="98"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="96"/>
+      <c r="H46" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="96" t="s">
+        <v>468</v>
+      </c>
       <c r="J46" s="98"/>
       <c r="K46" s="98"/>
       <c r="L46" s="98"/>
-      <c r="M46" s="100"/>
+      <c r="M46" s="100" t="s">
+        <v>46</v>
+      </c>
       <c r="N46" s="98"/>
-      <c r="O46" s="101"/>
+      <c r="O46" s="118" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="96"/>
@@ -4717,13 +4802,20 @@
       <c r="F47" s="98"/>
       <c r="G47" s="98"/>
       <c r="H47" s="99"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="98"/>
+      <c r="I47" s="85" t="s">
+        <v>472</v>
+      </c>
+      <c r="J47" s="98" t="s">
+        <v>473</v>
+      </c>
       <c r="K47" s="98"/>
       <c r="L47" s="98"/>
       <c r="M47" s="100"/>
       <c r="N47" s="98"/>
       <c r="O47" s="101"/>
+      <c r="P47" s="112" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="96"/>
@@ -4739,37 +4831,76 @@
       <c r="F48" s="98"/>
       <c r="G48" s="98"/>
       <c r="H48" s="99"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="98"/>
+      <c r="I48" s="96" t="s">
+        <v>475</v>
+      </c>
+      <c r="J48" s="98" t="s">
+        <v>477</v>
+      </c>
       <c r="K48" s="98"/>
       <c r="L48" s="98"/>
-      <c r="M48" s="100"/>
+      <c r="M48" s="100" t="s">
+        <v>37</v>
+      </c>
       <c r="N48" s="98"/>
-      <c r="O48" s="101"/>
+      <c r="O48" s="118" t="s">
+        <v>481</v>
+      </c>
+      <c r="P48" s="112" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="105"/>
-      <c r="C49" s="107" t="s">
+      <c r="B49" s="96"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="J49" s="98" t="s">
+        <v>478</v>
+      </c>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="98"/>
+      <c r="O49" s="101"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="105"/>
+      <c r="C50" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="106" t="s">
+      <c r="D50" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="E49" s="107" t="s">
+      <c r="E50" s="107" t="s">
         <v>316</v>
       </c>
-      <c r="F49" s="107" t="s">
+      <c r="F50" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="107"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="109"/>
-      <c r="N49" s="107"/>
-      <c r="O49" s="110"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="J50" s="107" t="s">
+        <v>479</v>
+      </c>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="107"/>
+      <c r="O50" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology\02-Conceptual_Data_Model\MS-RPaM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology_v1.1\02-Conceptual_Data_Model\MS-RPaM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1880,7 +1880,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2006,30 +2006,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2088,26 +2064,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="2" builtinId="10"/>
-    <cellStyle name="Texto de advertencia" xfId="1" builtinId="11"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2123,7 +2120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2391,7 +2388,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -2416,7 +2413,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -2431,23 +2428,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
       <c r="H2" s="39"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -3304,1603 +3301,1603 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="89" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" style="89" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="89" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="89" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.28515625" style="89" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="89" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="89" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" style="89" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="89"/>
-    <col min="15" max="15" width="21.7109375" style="89" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="89" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="89"/>
+    <col min="1" max="1" width="3.28515625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="81" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="81" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.28515625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="81" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="81"/>
+    <col min="15" max="15" width="21.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="81" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="89" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="119" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="74" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="71" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91"/>
-      <c r="C5" s="97" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94">
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86">
         <v>1</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="100" t="s">
+      <c r="M5" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="98"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="89" t="s">
+      <c r="N5" s="90"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="81" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="96"/>
-      <c r="C6" s="97" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="90" t="s">
         <v>397</v>
       </c>
-      <c r="M6" s="100" t="s">
+      <c r="M6" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="98"/>
-      <c r="O6" s="114"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="106"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="96"/>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99" t="s">
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="77" t="s">
         <v>390</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="K7" s="86"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="102" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="124" t="s">
+      <c r="N7" s="90"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="114" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91">
         <v>1</v>
       </c>
-      <c r="I8" s="88" t="s">
+      <c r="I8" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="124" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="114" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="96"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99">
+      <c r="G9" s="90"/>
+      <c r="H9" s="91">
         <v>1</v>
       </c>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="124" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="114" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="96"/>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="89" t="s">
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="81" t="s">
         <v>392</v>
       </c>
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="93" t="s">
+      <c r="L10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="95" t="s">
+      <c r="M10" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="98"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="87"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="79"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="96"/>
-      <c r="C11" s="97" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="88" t="s">
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J11" s="98"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="124" t="s">
+      <c r="J11" s="90"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="114" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="96"/>
-      <c r="C12" s="97" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="88" t="s">
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="124" t="s">
+      <c r="J12" s="90"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="114" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="96"/>
-      <c r="C13" s="97" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="88" t="s">
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="124" t="s">
+      <c r="J13" s="90"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="114" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99">
+      <c r="G14" s="90"/>
+      <c r="H14" s="91">
         <v>1</v>
       </c>
-      <c r="I14" s="96" t="s">
+      <c r="I14" s="88" t="s">
         <v>408</v>
       </c>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="98" t="s">
+      <c r="L14" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="98"/>
-      <c r="O14" s="114"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="106"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99" t="s">
+      <c r="G15" s="90"/>
+      <c r="H15" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="85" t="s">
+      <c r="I15" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="86" t="s">
+      <c r="J15" s="90"/>
+      <c r="K15" s="78" t="s">
         <v>398</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="L15" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="M15" s="102">
+      <c r="M15" s="94">
         <v>1</v>
       </c>
-      <c r="N15" s="98" t="s">
+      <c r="N15" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="115" t="s">
+      <c r="O15" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="124" t="s">
+      <c r="P15" s="114" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99" t="s">
+      <c r="G16" s="90"/>
+      <c r="H16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="J16" s="98"/>
-      <c r="K16" s="86" t="s">
+      <c r="J16" s="90"/>
+      <c r="K16" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="98" t="s">
+      <c r="L16" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="102">
+      <c r="M16" s="94">
         <v>1</v>
       </c>
-      <c r="N16" s="98" t="s">
+      <c r="N16" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="115" t="s">
+      <c r="O16" s="107" t="s">
         <v>394</v>
       </c>
-      <c r="P16" s="113" t="s">
+      <c r="P16" s="105" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99">
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91">
         <v>1</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="I17" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="J17" s="98"/>
-      <c r="K17" s="86" t="s">
+      <c r="J17" s="90"/>
+      <c r="K17" s="78" t="s">
         <v>399</v>
       </c>
-      <c r="L17" s="98" t="s">
+      <c r="L17" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="100" t="s">
+      <c r="M17" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="115" t="s">
+      <c r="O17" s="107" t="s">
         <v>400</v>
       </c>
-      <c r="P17" s="113" t="s">
+      <c r="P17" s="105" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="165" x14ac:dyDescent="0.25">
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99">
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91">
         <v>1</v>
       </c>
-      <c r="I18" s="85" t="s">
+      <c r="I18" s="77" t="s">
         <v>418</v>
       </c>
-      <c r="J18" s="98" t="s">
+      <c r="J18" s="90" t="s">
         <v>401</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="78" t="s">
         <v>419</v>
       </c>
-      <c r="L18" s="98" t="s">
+      <c r="L18" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="100" t="s">
+      <c r="M18" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="98"/>
-      <c r="O18" s="115" t="s">
+      <c r="N18" s="90"/>
+      <c r="O18" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="P18" s="125" t="s">
+      <c r="P18" s="114" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99">
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91">
         <v>1</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="J19" s="98" t="s">
+      <c r="J19" s="90" t="s">
         <v>402</v>
       </c>
-      <c r="K19" s="98" t="s">
+      <c r="K19" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="98"/>
-      <c r="M19" s="100" t="s">
+      <c r="L19" s="90"/>
+      <c r="M19" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="98"/>
-      <c r="O19" s="114"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="106"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97" t="s">
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99">
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91">
         <v>1</v>
       </c>
-      <c r="I20" s="85" t="s">
+      <c r="I20" s="77" t="s">
         <v>443</v>
       </c>
-      <c r="J20" s="97" t="s">
+      <c r="J20" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="K20" s="86" t="s">
+      <c r="K20" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="98"/>
-      <c r="M20" s="102" t="s">
+      <c r="L20" s="90"/>
+      <c r="M20" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="98"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="124" t="s">
+      <c r="N20" s="90"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="114" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99" t="s">
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="85" t="s">
+      <c r="I21" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="J21" s="97" t="s">
+      <c r="J21" s="89" t="s">
         <v>404</v>
       </c>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="100" t="s">
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="98"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="124" t="s">
+      <c r="N21" s="90"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="114" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99" t="s">
+      <c r="G22" s="90"/>
+      <c r="H22" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="96" t="s">
+      <c r="I22" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="K22" s="98"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="100">
+      <c r="K22" s="90"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="92">
         <v>1</v>
       </c>
-      <c r="N22" s="85" t="s">
+      <c r="N22" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="O22" s="115" t="s">
+      <c r="O22" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="P22" s="112" t="s">
+      <c r="P22" s="104" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="98" t="s">
+      <c r="F23" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99" t="s">
+      <c r="G23" s="90"/>
+      <c r="H23" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="96" t="s">
+      <c r="I23" s="88" t="s">
         <v>408</v>
       </c>
-      <c r="J23" s="97" t="s">
+      <c r="J23" s="89" t="s">
         <v>426</v>
       </c>
-      <c r="K23" s="98"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="100">
+      <c r="K23" s="90"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="92">
         <v>1</v>
       </c>
-      <c r="N23" s="85" t="s">
+      <c r="N23" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="O23" s="115" t="s">
+      <c r="O23" s="107" t="s">
         <v>423</v>
       </c>
-      <c r="P23" s="112" t="s">
+      <c r="P23" s="104" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="98" t="s">
+      <c r="G24" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="99" t="s">
+      <c r="H24" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="96" t="s">
+      <c r="I24" s="88" t="s">
         <v>413</v>
       </c>
-      <c r="J24" s="97" t="s">
+      <c r="J24" s="89" t="s">
         <v>427</v>
       </c>
-      <c r="K24" s="98" t="s">
+      <c r="K24" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="98" t="s">
+      <c r="L24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="100">
+      <c r="M24" s="92">
         <v>1</v>
       </c>
-      <c r="N24" s="85" t="s">
+      <c r="N24" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O24" s="114" t="s">
+      <c r="O24" s="106" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98" t="s">
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="99" t="s">
+      <c r="H25" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="96" t="s">
+      <c r="I25" s="88" t="s">
         <v>416</v>
       </c>
-      <c r="J25" s="97" t="s">
+      <c r="J25" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="K25" s="98" t="s">
+      <c r="K25" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L25" s="97" t="s">
+      <c r="L25" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="100">
+      <c r="M25" s="92">
         <v>1</v>
       </c>
-      <c r="N25" s="85" t="s">
+      <c r="N25" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O25" s="115" t="s">
+      <c r="O25" s="107" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99" t="s">
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="96" t="s">
+      <c r="I26" s="88" t="s">
         <v>432</v>
       </c>
-      <c r="J26" s="97" t="s">
+      <c r="J26" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="K26" s="97" t="s">
+      <c r="K26" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L26" s="97" t="s">
+      <c r="L26" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="M26" s="100" t="s">
+      <c r="M26" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="98"/>
-      <c r="O26" s="114" t="s">
+      <c r="N26" s="90"/>
+      <c r="O26" s="106" t="s">
         <v>434</v>
       </c>
-      <c r="P26" s="112" t="s">
+      <c r="P26" s="104" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99" t="s">
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="96" t="s">
+      <c r="I27" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="J27" s="85" t="s">
+      <c r="J27" s="77" t="s">
         <v>435</v>
       </c>
-      <c r="K27" s="97" t="s">
+      <c r="K27" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L27" s="97" t="s">
+      <c r="L27" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="100" t="s">
+      <c r="M27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="98"/>
-      <c r="O27" s="114" t="s">
+      <c r="N27" s="90"/>
+      <c r="O27" s="106" t="s">
         <v>437</v>
       </c>
-      <c r="P27" s="112" t="s">
+      <c r="P27" s="104" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98" t="s">
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99" t="s">
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="96" t="s">
+      <c r="I28" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J28" s="85" t="s">
+      <c r="J28" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K28" s="97" t="s">
+      <c r="K28" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L28" s="98"/>
-      <c r="M28" s="100" t="s">
+      <c r="L28" s="90"/>
+      <c r="M28" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="98"/>
-      <c r="O28" s="114" t="s">
+      <c r="N28" s="90"/>
+      <c r="O28" s="106" t="s">
         <v>439</v>
       </c>
-      <c r="P28" s="97" t="s">
+      <c r="P28" s="89" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98" t="s">
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="98" t="s">
+      <c r="F29" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99" t="s">
+      <c r="G29" s="90"/>
+      <c r="H29" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="88" t="s">
         <v>414</v>
       </c>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98" t="s">
+      <c r="J29" s="90"/>
+      <c r="K29" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="L29" s="98" t="s">
+      <c r="L29" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="102" t="s">
+      <c r="M29" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="98"/>
-      <c r="O29" s="114"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="106"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98" t="s">
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99" t="s">
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="96" t="s">
+      <c r="I30" s="88" t="s">
         <v>414</v>
       </c>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98" t="s">
+      <c r="J30" s="90"/>
+      <c r="K30" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="L30" s="98" t="s">
+      <c r="L30" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="98"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="112" t="s">
+      <c r="N30" s="90"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="104" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="96"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="E31" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99" t="s">
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="96" t="s">
+      <c r="I31" s="88" t="s">
         <v>443</v>
       </c>
-      <c r="J31" s="97" t="s">
+      <c r="J31" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="K31" s="86" t="s">
+      <c r="K31" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="98"/>
-      <c r="M31" s="102" t="s">
+      <c r="L31" s="90"/>
+      <c r="M31" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="98"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="124" t="s">
+      <c r="N31" s="90"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="114" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="96"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="99" t="s">
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="J32" s="97" t="s">
+      <c r="J32" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="K32" s="86" t="s">
+      <c r="K32" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="98"/>
-      <c r="M32" s="102" t="s">
+      <c r="L32" s="90"/>
+      <c r="M32" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="85" t="s">
+      <c r="N32" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="O32" s="116" t="s">
+      <c r="O32" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="P32" s="124" t="s">
+      <c r="P32" s="114" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="96"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="98" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="99" t="s">
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="96" t="s">
+      <c r="I33" s="88" t="s">
         <v>408</v>
       </c>
-      <c r="J33" s="98" t="s">
+      <c r="J33" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="98" t="s">
+      <c r="K33" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="98" t="s">
+      <c r="L33" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="102" t="s">
+      <c r="M33" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N33" s="98"/>
-      <c r="O33" s="114"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="106"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="96"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99" t="s">
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="96" t="s">
+      <c r="I34" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J34" s="85" t="s">
+      <c r="J34" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K34" s="97" t="s">
+      <c r="K34" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L34" s="98"/>
-      <c r="M34" s="100" t="s">
+      <c r="L34" s="90"/>
+      <c r="M34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="98"/>
-      <c r="O34" s="114" t="s">
+      <c r="N34" s="90"/>
+      <c r="O34" s="106" t="s">
         <v>439</v>
       </c>
-      <c r="P34" s="97" t="s">
+      <c r="P34" s="89" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="96"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="98" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="99" t="s">
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="96" t="s">
+      <c r="I35" s="88" t="s">
         <v>458</v>
       </c>
-      <c r="J35" s="97" t="s">
+      <c r="J35" s="89" t="s">
         <v>459</v>
       </c>
-      <c r="K35" s="97" t="s">
+      <c r="K35" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="L35" s="97" t="s">
+      <c r="L35" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="M35" s="102" t="s">
+      <c r="M35" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N35" s="98"/>
-      <c r="O35" s="114" t="s">
+      <c r="N35" s="90"/>
+      <c r="O35" s="106" t="s">
         <v>460</v>
       </c>
-      <c r="P35" s="112" t="s">
+      <c r="P35" s="104" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98" t="s">
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="96" t="s">
+      <c r="I36" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J36" s="85" t="s">
+      <c r="J36" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K36" s="97" t="s">
+      <c r="K36" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L36" s="98"/>
-      <c r="M36" s="100" t="s">
+      <c r="L36" s="90"/>
+      <c r="M36" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N36" s="98"/>
-      <c r="O36" s="114" t="s">
+      <c r="N36" s="90"/>
+      <c r="O36" s="106" t="s">
         <v>463</v>
       </c>
-      <c r="P36" s="112" t="s">
+      <c r="P36" s="104" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="98" t="s">
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="99" t="s">
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="96" t="s">
+      <c r="I37" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J37" s="85" t="s">
+      <c r="J37" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K37" s="97" t="s">
+      <c r="K37" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L37" s="98"/>
-      <c r="M37" s="100" t="s">
+      <c r="L37" s="90"/>
+      <c r="M37" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="98"/>
-      <c r="O37" s="114" t="s">
+      <c r="N37" s="90"/>
+      <c r="O37" s="106" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="98" t="s">
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="99" t="s">
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="96" t="s">
+      <c r="I38" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J38" s="85" t="s">
+      <c r="J38" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K38" s="97" t="s">
+      <c r="K38" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L38" s="98"/>
-      <c r="M38" s="100" t="s">
+      <c r="L38" s="90"/>
+      <c r="M38" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="98"/>
-      <c r="O38" s="114" t="s">
+      <c r="N38" s="90"/>
+      <c r="O38" s="106" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="96"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="98" t="s">
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="98" t="s">
+      <c r="E39" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="99" t="s">
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="104" t="s">
+      <c r="I39" s="96" t="s">
         <v>415</v>
       </c>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97" t="s">
+      <c r="J39" s="89"/>
+      <c r="K39" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="L39" s="97"/>
-      <c r="M39" s="102" t="s">
+      <c r="L39" s="89"/>
+      <c r="M39" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N39" s="97"/>
-      <c r="O39" s="117"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="109"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="98" t="s">
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="99" t="s">
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="96" t="s">
+      <c r="I40" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J40" s="85" t="s">
+      <c r="J40" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K40" s="97" t="s">
+      <c r="K40" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L40" s="98"/>
-      <c r="M40" s="102" t="s">
+      <c r="L40" s="90"/>
+      <c r="M40" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="98"/>
-      <c r="O40" s="114"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="106"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="105"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="107" t="s">
+      <c r="B41" s="97"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="107" t="s">
+      <c r="E41" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="108">
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100">
         <v>1</v>
       </c>
-      <c r="I41" s="126" t="s">
+      <c r="I41" s="115" t="s">
         <v>395</v>
       </c>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="107"/>
-      <c r="O41" s="118" t="s">
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="110" t="s">
         <v>464</v>
       </c>
-      <c r="P41" s="112" t="s">
+      <c r="P41" s="104" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="91"/>
-      <c r="C42" s="93" t="s">
+      <c r="B42" s="83"/>
+      <c r="C42" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="92" t="s">
+      <c r="D42" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="E42" s="92" t="s">
+      <c r="E42" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="F42" s="93" t="s">
+      <c r="F42" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="127" t="s">
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="116" t="s">
         <v>395</v>
       </c>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="123" t="s">
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="113" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="96"/>
-      <c r="C43" s="98" t="s">
+      <c r="B43" s="88"/>
+      <c r="C43" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D43" s="97" t="s">
+      <c r="D43" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="E43" s="97" t="s">
+      <c r="E43" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="F43" s="97" t="s">
+      <c r="F43" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="98"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="127" t="s">
+      <c r="G43" s="90"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="116" t="s">
         <v>395</v>
       </c>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="87" t="s">
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="79" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="96"/>
-      <c r="C44" s="98" t="s">
+      <c r="B44" s="88"/>
+      <c r="C44" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="97" t="s">
+      <c r="D44" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="E44" s="97" t="s">
+      <c r="E44" s="89" t="s">
         <v>319</v>
       </c>
-      <c r="F44" s="97" t="s">
+      <c r="F44" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99" t="s">
+      <c r="G44" s="90"/>
+      <c r="H44" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="97" t="s">
+      <c r="I44" s="89" t="s">
         <v>327</v>
       </c>
-      <c r="J44" s="98" t="s">
+      <c r="J44" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="98" t="s">
+      <c r="K44" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="98"/>
-      <c r="M44" s="102" t="s">
+      <c r="L44" s="90"/>
+      <c r="M44" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="N44" s="98"/>
-      <c r="O44" s="101"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="93"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="96"/>
-      <c r="C45" s="98" t="s">
+      <c r="B45" s="88"/>
+      <c r="C45" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="97" t="s">
+      <c r="D45" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="E45" s="98" t="s">
+      <c r="E45" s="90" t="s">
         <v>318</v>
       </c>
-      <c r="F45" s="97" t="s">
+      <c r="F45" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="98"/>
-      <c r="H45" s="99" t="s">
+      <c r="G45" s="90"/>
+      <c r="H45" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="96" t="s">
+      <c r="I45" s="88" t="s">
         <v>468</v>
       </c>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="100" t="s">
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="98"/>
-      <c r="O45" s="118" t="s">
+      <c r="N45" s="90"/>
+      <c r="O45" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="P45" s="112" t="s">
+      <c r="P45" s="104" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="96"/>
-      <c r="C46" s="98" t="s">
+      <c r="B46" s="88"/>
+      <c r="C46" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D46" s="97" t="s">
+      <c r="D46" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="E46" s="98" t="s">
+      <c r="E46" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="F46" s="97" t="s">
+      <c r="F46" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="98"/>
-      <c r="H46" s="99" t="s">
+      <c r="G46" s="90"/>
+      <c r="H46" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="96" t="s">
+      <c r="I46" s="88" t="s">
         <v>468</v>
       </c>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="100" t="s">
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N46" s="98"/>
-      <c r="O46" s="118" t="s">
+      <c r="N46" s="90"/>
+      <c r="O46" s="110" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="96"/>
-      <c r="C47" s="98" t="s">
+      <c r="B47" s="88"/>
+      <c r="C47" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="D47" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="85" t="s">
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="J47" s="98" t="s">
+      <c r="J47" s="90" t="s">
         <v>473</v>
       </c>
-      <c r="K47" s="98"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="101"/>
-      <c r="P47" s="112" t="s">
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="96"/>
-      <c r="C48" s="98" t="s">
+      <c r="B48" s="88"/>
+      <c r="C48" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D48" s="97" t="s">
+      <c r="D48" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="90" t="s">
         <v>315</v>
       </c>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="96" t="s">
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="88" t="s">
         <v>475</v>
       </c>
-      <c r="J48" s="98" t="s">
+      <c r="J48" s="90" t="s">
         <v>477</v>
       </c>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="100" t="s">
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="98"/>
-      <c r="O48" s="118" t="s">
+      <c r="N48" s="90"/>
+      <c r="O48" s="110" t="s">
         <v>481</v>
       </c>
-      <c r="P48" s="112" t="s">
+      <c r="P48" s="104" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="96"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="96" t="s">
+      <c r="B49" s="88"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="88" t="s">
         <v>476</v>
       </c>
-      <c r="J49" s="98" t="s">
+      <c r="J49" s="90" t="s">
         <v>478</v>
       </c>
-      <c r="K49" s="98"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="100" t="s">
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="98"/>
-      <c r="O49" s="101"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="93"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="105"/>
-      <c r="C50" s="107" t="s">
+      <c r="B50" s="97"/>
+      <c r="C50" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="106" t="s">
+      <c r="D50" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="E50" s="107" t="s">
+      <c r="E50" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="F50" s="107" t="s">
+      <c r="F50" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="107"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="96" t="s">
+      <c r="G50" s="99"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="J50" s="107" t="s">
+      <c r="J50" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="K50" s="107"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="109" t="s">
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="N50" s="107"/>
-      <c r="O50" s="110"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4920,11 +4917,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -4942,22 +4939,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5850,11 +5847,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" customWidth="1"/>
@@ -5873,22 +5870,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -7396,7 +7393,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -7413,22 +7410,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -7722,7 +7719,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -7741,22 +7738,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="77" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="489">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -1483,6 +1483,24 @@
   </si>
   <si>
     <t>@everis: we should provide one dataset populated with Exceptions. @AT: can you provide us with real ones?</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Issuer/Identifier</t>
+  </si>
+  <si>
+    <t>@AT: do you have this need, too? If yes, which is the code list?</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Empowerment</t>
+  </si>
+  <si>
+    <t>A collection of empowerments.</t>
+  </si>
+  <si>
+    <t>In RPaM this goes in the Empowerment</t>
+  </si>
+  <si>
+    <t>See above</t>
   </si>
 </sst>
 </file>
@@ -2006,30 +2024,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2088,21 +2082,43 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2431,23 +2447,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
       <c r="H2" s="39"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -3304,1603 +3320,1603 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="89" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" style="89" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="89" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="89" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.28515625" style="89" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="89" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="89" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" style="89" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="89"/>
-    <col min="15" max="15" width="21.7109375" style="89" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="89" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="89"/>
+    <col min="1" max="1" width="3.28515625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="81" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="81" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.28515625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="81" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="81"/>
+    <col min="15" max="15" width="21.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="81" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="89" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="119" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="74" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="71" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91"/>
-      <c r="C5" s="97" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94">
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86">
         <v>1</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="100" t="s">
+      <c r="M5" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="98"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="89" t="s">
+      <c r="N5" s="90"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="81" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="96"/>
-      <c r="C6" s="97" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="90" t="s">
         <v>397</v>
       </c>
-      <c r="M6" s="100" t="s">
+      <c r="M6" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="98"/>
-      <c r="O6" s="114"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="106"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="96"/>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99" t="s">
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="77" t="s">
         <v>390</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="K7" s="86"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="102" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="124" t="s">
+      <c r="N7" s="90"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="114" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91">
         <v>1</v>
       </c>
-      <c r="I8" s="88" t="s">
+      <c r="I8" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="124" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="114" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="96"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99">
+      <c r="G9" s="90"/>
+      <c r="H9" s="91">
         <v>1</v>
       </c>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="124" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="114" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="96"/>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="89" t="s">
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="81" t="s">
         <v>392</v>
       </c>
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="93" t="s">
+      <c r="L10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="95" t="s">
+      <c r="M10" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="98"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="87"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="79"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="96"/>
-      <c r="C11" s="97" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="88" t="s">
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J11" s="98"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="124" t="s">
+      <c r="J11" s="90"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="114" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="96"/>
-      <c r="C12" s="97" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="88" t="s">
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="124" t="s">
+      <c r="J12" s="90"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="114" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="96"/>
-      <c r="C13" s="97" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="88" t="s">
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="124" t="s">
+      <c r="J13" s="90"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="114" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99">
+      <c r="G14" s="90"/>
+      <c r="H14" s="91">
         <v>1</v>
       </c>
-      <c r="I14" s="96" t="s">
+      <c r="I14" s="88" t="s">
         <v>408</v>
       </c>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="98" t="s">
+      <c r="L14" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="98"/>
-      <c r="O14" s="114"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="106"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99" t="s">
+      <c r="G15" s="90"/>
+      <c r="H15" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="85" t="s">
+      <c r="I15" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="86" t="s">
+      <c r="J15" s="90"/>
+      <c r="K15" s="78" t="s">
         <v>398</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="L15" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="M15" s="102">
+      <c r="M15" s="94">
         <v>1</v>
       </c>
-      <c r="N15" s="98" t="s">
+      <c r="N15" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="115" t="s">
+      <c r="O15" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="124" t="s">
+      <c r="P15" s="114" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99" t="s">
+      <c r="G16" s="90"/>
+      <c r="H16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="J16" s="98"/>
-      <c r="K16" s="86" t="s">
+      <c r="J16" s="90"/>
+      <c r="K16" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="98" t="s">
+      <c r="L16" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="102">
+      <c r="M16" s="94">
         <v>1</v>
       </c>
-      <c r="N16" s="98" t="s">
+      <c r="N16" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="115" t="s">
+      <c r="O16" s="107" t="s">
         <v>394</v>
       </c>
-      <c r="P16" s="113" t="s">
+      <c r="P16" s="105" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99">
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91">
         <v>1</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="I17" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="J17" s="98"/>
-      <c r="K17" s="86" t="s">
+      <c r="J17" s="90"/>
+      <c r="K17" s="78" t="s">
         <v>399</v>
       </c>
-      <c r="L17" s="98" t="s">
+      <c r="L17" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="100" t="s">
+      <c r="M17" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="115" t="s">
+      <c r="O17" s="107" t="s">
         <v>400</v>
       </c>
-      <c r="P17" s="113" t="s">
+      <c r="P17" s="105" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="165" x14ac:dyDescent="0.25">
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99">
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91">
         <v>1</v>
       </c>
-      <c r="I18" s="85" t="s">
+      <c r="I18" s="77" t="s">
         <v>418</v>
       </c>
-      <c r="J18" s="98" t="s">
+      <c r="J18" s="90" t="s">
         <v>401</v>
       </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="78" t="s">
         <v>419</v>
       </c>
-      <c r="L18" s="98" t="s">
+      <c r="L18" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="100" t="s">
+      <c r="M18" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="98"/>
-      <c r="O18" s="115" t="s">
+      <c r="N18" s="90"/>
+      <c r="O18" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="P18" s="125" t="s">
+      <c r="P18" s="114" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99">
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91">
         <v>1</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="J19" s="98" t="s">
+      <c r="J19" s="90" t="s">
         <v>402</v>
       </c>
-      <c r="K19" s="98" t="s">
+      <c r="K19" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="98"/>
-      <c r="M19" s="100" t="s">
+      <c r="L19" s="90"/>
+      <c r="M19" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="98"/>
-      <c r="O19" s="114"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="106"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97" t="s">
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99">
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91">
         <v>1</v>
       </c>
-      <c r="I20" s="85" t="s">
+      <c r="I20" s="77" t="s">
         <v>443</v>
       </c>
-      <c r="J20" s="97" t="s">
+      <c r="J20" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="K20" s="86" t="s">
+      <c r="K20" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="98"/>
-      <c r="M20" s="102" t="s">
+      <c r="L20" s="90"/>
+      <c r="M20" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="98"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="124" t="s">
+      <c r="N20" s="90"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="114" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99" t="s">
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="85" t="s">
+      <c r="I21" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="J21" s="97" t="s">
+      <c r="J21" s="89" t="s">
         <v>404</v>
       </c>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="100" t="s">
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="98"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="124" t="s">
+      <c r="N21" s="90"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="114" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99" t="s">
+      <c r="G22" s="90"/>
+      <c r="H22" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="96" t="s">
+      <c r="I22" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="K22" s="98"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="100">
+      <c r="K22" s="90"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="92">
         <v>1</v>
       </c>
-      <c r="N22" s="85" t="s">
+      <c r="N22" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="O22" s="115" t="s">
+      <c r="O22" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="P22" s="112" t="s">
+      <c r="P22" s="104" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="98" t="s">
+      <c r="F23" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99" t="s">
+      <c r="G23" s="90"/>
+      <c r="H23" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="96" t="s">
+      <c r="I23" s="88" t="s">
         <v>408</v>
       </c>
-      <c r="J23" s="97" t="s">
+      <c r="J23" s="89" t="s">
         <v>426</v>
       </c>
-      <c r="K23" s="98"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="100">
+      <c r="K23" s="90"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="92">
         <v>1</v>
       </c>
-      <c r="N23" s="85" t="s">
+      <c r="N23" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="O23" s="115" t="s">
+      <c r="O23" s="107" t="s">
         <v>423</v>
       </c>
-      <c r="P23" s="112" t="s">
+      <c r="P23" s="104" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="98" t="s">
+      <c r="G24" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="99" t="s">
+      <c r="H24" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="96" t="s">
+      <c r="I24" s="88" t="s">
         <v>413</v>
       </c>
-      <c r="J24" s="97" t="s">
+      <c r="J24" s="89" t="s">
         <v>427</v>
       </c>
-      <c r="K24" s="98" t="s">
+      <c r="K24" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="98" t="s">
+      <c r="L24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="100">
+      <c r="M24" s="92">
         <v>1</v>
       </c>
-      <c r="N24" s="85" t="s">
+      <c r="N24" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O24" s="114" t="s">
+      <c r="O24" s="106" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98" t="s">
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="99" t="s">
+      <c r="H25" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="96" t="s">
+      <c r="I25" s="88" t="s">
         <v>416</v>
       </c>
-      <c r="J25" s="97" t="s">
+      <c r="J25" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="K25" s="98" t="s">
+      <c r="K25" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="L25" s="97" t="s">
+      <c r="L25" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="100">
+      <c r="M25" s="92">
         <v>1</v>
       </c>
-      <c r="N25" s="85" t="s">
+      <c r="N25" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="O25" s="115" t="s">
+      <c r="O25" s="107" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99" t="s">
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="96" t="s">
+      <c r="I26" s="88" t="s">
         <v>432</v>
       </c>
-      <c r="J26" s="97" t="s">
+      <c r="J26" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="K26" s="97" t="s">
+      <c r="K26" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L26" s="97" t="s">
+      <c r="L26" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="M26" s="100" t="s">
+      <c r="M26" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="98"/>
-      <c r="O26" s="114" t="s">
+      <c r="N26" s="90"/>
+      <c r="O26" s="106" t="s">
         <v>434</v>
       </c>
-      <c r="P26" s="112" t="s">
+      <c r="P26" s="104" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99" t="s">
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="96" t="s">
+      <c r="I27" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="J27" s="85" t="s">
+      <c r="J27" s="77" t="s">
         <v>435</v>
       </c>
-      <c r="K27" s="97" t="s">
+      <c r="K27" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L27" s="97" t="s">
+      <c r="L27" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="100" t="s">
+      <c r="M27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="98"/>
-      <c r="O27" s="114" t="s">
+      <c r="N27" s="90"/>
+      <c r="O27" s="106" t="s">
         <v>437</v>
       </c>
-      <c r="P27" s="112" t="s">
+      <c r="P27" s="104" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98" t="s">
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99" t="s">
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="96" t="s">
+      <c r="I28" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J28" s="85" t="s">
+      <c r="J28" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K28" s="97" t="s">
+      <c r="K28" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L28" s="98"/>
-      <c r="M28" s="100" t="s">
+      <c r="L28" s="90"/>
+      <c r="M28" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="98"/>
-      <c r="O28" s="114" t="s">
+      <c r="N28" s="90"/>
+      <c r="O28" s="106" t="s">
         <v>439</v>
       </c>
-      <c r="P28" s="97" t="s">
+      <c r="P28" s="89" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98" t="s">
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="98" t="s">
+      <c r="F29" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99" t="s">
+      <c r="G29" s="90"/>
+      <c r="H29" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="88" t="s">
         <v>414</v>
       </c>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98" t="s">
+      <c r="J29" s="90"/>
+      <c r="K29" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="L29" s="98" t="s">
+      <c r="L29" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="102" t="s">
+      <c r="M29" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="98"/>
-      <c r="O29" s="114"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="106"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98" t="s">
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99" t="s">
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="96" t="s">
+      <c r="I30" s="88" t="s">
         <v>414</v>
       </c>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98" t="s">
+      <c r="J30" s="90"/>
+      <c r="K30" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="L30" s="98" t="s">
+      <c r="L30" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="98"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="112" t="s">
+      <c r="N30" s="90"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="104" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="96"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="E31" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99" t="s">
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="96" t="s">
+      <c r="I31" s="88" t="s">
         <v>443</v>
       </c>
-      <c r="J31" s="97" t="s">
+      <c r="J31" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="K31" s="86" t="s">
+      <c r="K31" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="98"/>
-      <c r="M31" s="102" t="s">
+      <c r="L31" s="90"/>
+      <c r="M31" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="98"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="124" t="s">
+      <c r="N31" s="90"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="114" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="96"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="99" t="s">
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="J32" s="97" t="s">
+      <c r="J32" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="K32" s="86" t="s">
+      <c r="K32" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="98"/>
-      <c r="M32" s="102" t="s">
+      <c r="L32" s="90"/>
+      <c r="M32" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="85" t="s">
+      <c r="N32" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="O32" s="116" t="s">
+      <c r="O32" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="P32" s="124" t="s">
+      <c r="P32" s="114" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="96"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="98" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="99" t="s">
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="96" t="s">
+      <c r="I33" s="88" t="s">
         <v>408</v>
       </c>
-      <c r="J33" s="98" t="s">
+      <c r="J33" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="98" t="s">
+      <c r="K33" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="98" t="s">
+      <c r="L33" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="102" t="s">
+      <c r="M33" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N33" s="98"/>
-      <c r="O33" s="114"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="106"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="96"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99" t="s">
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="96" t="s">
+      <c r="I34" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J34" s="85" t="s">
+      <c r="J34" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K34" s="97" t="s">
+      <c r="K34" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L34" s="98"/>
-      <c r="M34" s="100" t="s">
+      <c r="L34" s="90"/>
+      <c r="M34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="98"/>
-      <c r="O34" s="114" t="s">
+      <c r="N34" s="90"/>
+      <c r="O34" s="106" t="s">
         <v>439</v>
       </c>
-      <c r="P34" s="97" t="s">
+      <c r="P34" s="89" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="96"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="98" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="99" t="s">
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="96" t="s">
+      <c r="I35" s="88" t="s">
         <v>458</v>
       </c>
-      <c r="J35" s="97" t="s">
+      <c r="J35" s="89" t="s">
         <v>459</v>
       </c>
-      <c r="K35" s="97" t="s">
+      <c r="K35" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="L35" s="97" t="s">
+      <c r="L35" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="M35" s="102" t="s">
+      <c r="M35" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="N35" s="98"/>
-      <c r="O35" s="114" t="s">
+      <c r="N35" s="90"/>
+      <c r="O35" s="106" t="s">
         <v>460</v>
       </c>
-      <c r="P35" s="112" t="s">
+      <c r="P35" s="104" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98" t="s">
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="96" t="s">
+      <c r="I36" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J36" s="85" t="s">
+      <c r="J36" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K36" s="97" t="s">
+      <c r="K36" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L36" s="98"/>
-      <c r="M36" s="100" t="s">
+      <c r="L36" s="90"/>
+      <c r="M36" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N36" s="98"/>
-      <c r="O36" s="114" t="s">
+      <c r="N36" s="90"/>
+      <c r="O36" s="106" t="s">
         <v>463</v>
       </c>
-      <c r="P36" s="112" t="s">
+      <c r="P36" s="104" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="98" t="s">
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="99" t="s">
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="96" t="s">
+      <c r="I37" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J37" s="85" t="s">
+      <c r="J37" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K37" s="97" t="s">
+      <c r="K37" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L37" s="98"/>
-      <c r="M37" s="100" t="s">
+      <c r="L37" s="90"/>
+      <c r="M37" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="98"/>
-      <c r="O37" s="114" t="s">
+      <c r="N37" s="90"/>
+      <c r="O37" s="106" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="98" t="s">
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="99" t="s">
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="96" t="s">
+      <c r="I38" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J38" s="85" t="s">
+      <c r="J38" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K38" s="97" t="s">
+      <c r="K38" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L38" s="98"/>
-      <c r="M38" s="100" t="s">
+      <c r="L38" s="90"/>
+      <c r="M38" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="98"/>
-      <c r="O38" s="114" t="s">
+      <c r="N38" s="90"/>
+      <c r="O38" s="106" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="96"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="98" t="s">
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="98" t="s">
+      <c r="E39" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="99" t="s">
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="104" t="s">
+      <c r="I39" s="96" t="s">
         <v>415</v>
       </c>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97" t="s">
+      <c r="J39" s="89"/>
+      <c r="K39" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="L39" s="97"/>
-      <c r="M39" s="102" t="s">
+      <c r="L39" s="89"/>
+      <c r="M39" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N39" s="97"/>
-      <c r="O39" s="117"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="109"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="98" t="s">
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="99" t="s">
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="96" t="s">
+      <c r="I40" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="J40" s="85" t="s">
+      <c r="J40" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="K40" s="97" t="s">
+      <c r="K40" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="L40" s="98"/>
-      <c r="M40" s="102" t="s">
+      <c r="L40" s="90"/>
+      <c r="M40" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="98"/>
-      <c r="O40" s="114"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="106"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="105"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="107" t="s">
+      <c r="B41" s="97"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="107" t="s">
+      <c r="E41" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="108">
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100">
         <v>1</v>
       </c>
-      <c r="I41" s="126" t="s">
+      <c r="I41" s="115" t="s">
         <v>395</v>
       </c>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="107"/>
-      <c r="O41" s="118" t="s">
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="110" t="s">
         <v>464</v>
       </c>
-      <c r="P41" s="112" t="s">
+      <c r="P41" s="104" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="91"/>
-      <c r="C42" s="93" t="s">
+      <c r="B42" s="83"/>
+      <c r="C42" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="92" t="s">
+      <c r="D42" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="E42" s="92" t="s">
+      <c r="E42" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="F42" s="93" t="s">
+      <c r="F42" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="127" t="s">
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="116" t="s">
         <v>395</v>
       </c>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="123" t="s">
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="113" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="96"/>
-      <c r="C43" s="98" t="s">
+      <c r="B43" s="88"/>
+      <c r="C43" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D43" s="97" t="s">
+      <c r="D43" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="E43" s="97" t="s">
+      <c r="E43" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="F43" s="97" t="s">
+      <c r="F43" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="98"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="127" t="s">
+      <c r="G43" s="90"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="116" t="s">
         <v>395</v>
       </c>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="87" t="s">
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="79" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="96"/>
-      <c r="C44" s="98" t="s">
+      <c r="B44" s="88"/>
+      <c r="C44" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="97" t="s">
+      <c r="D44" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="E44" s="97" t="s">
+      <c r="E44" s="89" t="s">
         <v>319</v>
       </c>
-      <c r="F44" s="97" t="s">
+      <c r="F44" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99" t="s">
+      <c r="G44" s="90"/>
+      <c r="H44" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="97" t="s">
+      <c r="I44" s="89" t="s">
         <v>327</v>
       </c>
-      <c r="J44" s="98" t="s">
+      <c r="J44" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="98" t="s">
+      <c r="K44" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="98"/>
-      <c r="M44" s="102" t="s">
+      <c r="L44" s="90"/>
+      <c r="M44" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="N44" s="98"/>
-      <c r="O44" s="101"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="93"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="96"/>
-      <c r="C45" s="98" t="s">
+      <c r="B45" s="88"/>
+      <c r="C45" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="97" t="s">
+      <c r="D45" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="E45" s="98" t="s">
+      <c r="E45" s="90" t="s">
         <v>318</v>
       </c>
-      <c r="F45" s="97" t="s">
+      <c r="F45" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="98"/>
-      <c r="H45" s="99" t="s">
+      <c r="G45" s="90"/>
+      <c r="H45" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="96" t="s">
+      <c r="I45" s="88" t="s">
         <v>468</v>
       </c>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="100" t="s">
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="98"/>
-      <c r="O45" s="118" t="s">
+      <c r="N45" s="90"/>
+      <c r="O45" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="P45" s="112" t="s">
+      <c r="P45" s="104" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="96"/>
-      <c r="C46" s="98" t="s">
+      <c r="B46" s="88"/>
+      <c r="C46" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D46" s="97" t="s">
+      <c r="D46" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="E46" s="98" t="s">
+      <c r="E46" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="F46" s="97" t="s">
+      <c r="F46" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="98"/>
-      <c r="H46" s="99" t="s">
+      <c r="G46" s="90"/>
+      <c r="H46" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="96" t="s">
+      <c r="I46" s="88" t="s">
         <v>468</v>
       </c>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="100" t="s">
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N46" s="98"/>
-      <c r="O46" s="118" t="s">
+      <c r="N46" s="90"/>
+      <c r="O46" s="110" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="96"/>
-      <c r="C47" s="98" t="s">
+      <c r="B47" s="88"/>
+      <c r="C47" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="D47" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="85" t="s">
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="J47" s="98" t="s">
+      <c r="J47" s="90" t="s">
         <v>473</v>
       </c>
-      <c r="K47" s="98"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="101"/>
-      <c r="P47" s="112" t="s">
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="96"/>
-      <c r="C48" s="98" t="s">
+      <c r="B48" s="88"/>
+      <c r="C48" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="D48" s="97" t="s">
+      <c r="D48" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="90" t="s">
         <v>315</v>
       </c>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="96" t="s">
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="88" t="s">
         <v>475</v>
       </c>
-      <c r="J48" s="98" t="s">
+      <c r="J48" s="90" t="s">
         <v>477</v>
       </c>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="100" t="s">
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="98"/>
-      <c r="O48" s="118" t="s">
+      <c r="N48" s="90"/>
+      <c r="O48" s="110" t="s">
         <v>481</v>
       </c>
-      <c r="P48" s="112" t="s">
+      <c r="P48" s="104" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="96"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="96" t="s">
+      <c r="B49" s="88"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="88" t="s">
         <v>476</v>
       </c>
-      <c r="J49" s="98" t="s">
+      <c r="J49" s="90" t="s">
         <v>478</v>
       </c>
-      <c r="K49" s="98"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="100" t="s">
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="98"/>
-      <c r="O49" s="101"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="93"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="105"/>
-      <c r="C50" s="107" t="s">
+      <c r="B50" s="97"/>
+      <c r="C50" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="106" t="s">
+      <c r="D50" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="E50" s="107" t="s">
+      <c r="E50" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="F50" s="107" t="s">
+      <c r="F50" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="107"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="96" t="s">
+      <c r="G50" s="99"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="J50" s="107" t="s">
+      <c r="J50" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="K50" s="107"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="109" t="s">
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="N50" s="107"/>
-      <c r="O50" s="110"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4921,7 +4937,7 @@
   <dimension ref="B2:O40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4942,22 +4958,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5848,10 +5864,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O53"/>
+  <dimension ref="B1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5868,31 +5884,31 @@
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="15" width="45.7109375" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+    <row r="1" spans="2:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -5936,7 +5952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
         <v>12</v>
@@ -5972,7 +5988,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
         <v>12</v>
@@ -5990,8 +6006,8 @@
       <c r="H6" s="14">
         <v>1</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>20</v>
+      <c r="I6" s="77" t="s">
+        <v>483</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
@@ -6008,7 +6024,7 @@
       </c>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
         <v>12</v>
@@ -6045,8 +6061,11 @@
       <c r="O7" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="127" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
         <v>12</v>
@@ -6068,7 +6087,7 @@
         <v>35</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>38</v>
+        <v>486</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>36</v>
@@ -6080,7 +6099,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
         <v>12</v>
@@ -6116,7 +6135,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
         <v>12</v>
@@ -6142,11 +6161,11 @@
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="13"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
@@ -6164,27 +6183,17 @@
       <c r="H11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
         <v>12</v>
@@ -6202,23 +6211,17 @@
       <c r="H12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
         <v>12</v>
@@ -6236,17 +6239,20 @@
       <c r="H13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
       <c r="N13" s="13"/>
       <c r="O13" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
@@ -6265,88 +6271,100 @@
         <v>30</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="5">
+        <v>70</v>
+      </c>
+      <c r="J14" s="89" t="s">
+        <v>428</v>
+      </c>
+      <c r="K14" s="90" t="s">
+        <v>417</v>
+      </c>
+      <c r="L14" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="92">
         <v>1</v>
       </c>
-      <c r="N14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="O14" s="107" t="s">
+        <v>429</v>
+      </c>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="14" t="s">
-        <v>30</v>
+      <c r="H15" s="14">
+        <v>1</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>70</v>
+        <v>485</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="M15" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="K16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="O16" s="16"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
@@ -6354,39 +6372,29 @@
         <v>12</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>90</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
@@ -6394,36 +6402,36 @@
         <v>12</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J18" s="13"/>
       <c r="K18" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="13"/>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="O18" s="16" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -6432,293 +6440,341 @@
         <v>12</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
       <c r="N19" s="13" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="G20" s="13"/>
       <c r="H20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="59" t="s">
         <v>46</v>
       </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="13"/>
       <c r="O20" s="16" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="63" t="s">
-        <v>46</v>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J21" s="13"/>
       <c r="K21" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
-      <c r="C22" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>238</v>
+      <c r="C22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>278</v>
+        <v>68</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="24" t="s">
-        <v>46</v>
+      <c r="H22" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
       <c r="N22" s="13"/>
-      <c r="O22" s="15"/>
+      <c r="O22" s="16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
-      <c r="C23" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="24">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13"/>
+      <c r="H23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="K23" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="M23" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N23" s="13"/>
-      <c r="O23" s="15"/>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
-      <c r="C24" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>276</v>
+      <c r="C24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="15"/>
+      <c r="H24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
-      <c r="C25" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>241</v>
+      <c r="C25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F25" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="24">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="H25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N25" s="13"/>
-      <c r="O25" s="15"/>
+      <c r="O25" s="16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
-      <c r="C26" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>280</v>
+      <c r="C26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="15"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
-      <c r="C27" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>283</v>
+      <c r="C27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14" t="s">
-        <v>30</v>
+      <c r="I27" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="59" t="s">
+        <v>46</v>
       </c>
       <c r="N27" s="13"/>
-      <c r="O27" s="15"/>
+      <c r="O27" s="16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="24">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>335</v>
+      <c r="D28" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" s="54"/>
+      <c r="H28" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>21</v>
@@ -6726,11 +6782,11 @@
       <c r="L28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="15"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
@@ -6738,23 +6794,27 @@
         <v>234</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>286</v>
+        <v>238</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="24">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="H29" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="M29" s="14"/>
       <c r="N29" s="13"/>
       <c r="O29" s="15"/>
     </row>
@@ -6764,14 +6824,12 @@
         <v>234</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>299</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="24">
         <v>1</v>
@@ -6780,7 +6838,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="M30" s="14"/>
       <c r="N30" s="13"/>
       <c r="O30" s="15"/>
     </row>
@@ -6790,23 +6848,23 @@
         <v>234</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="13"/>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="M31" s="14"/>
       <c r="N31" s="13"/>
       <c r="O31" s="15"/>
     </row>
@@ -6816,23 +6874,23 @@
         <v>234</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>301</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="13"/>
+      <c r="H32" s="24">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>338</v>
+      </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="M32" s="14"/>
       <c r="N32" s="13"/>
       <c r="O32" s="15"/>
     </row>
@@ -6842,23 +6900,21 @@
         <v>234</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="M33" s="14"/>
       <c r="N33" s="13"/>
       <c r="O33" s="15"/>
     </row>
@@ -6868,21 +6924,27 @@
         <v>234</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="13" t="s">
+        <v>334</v>
+      </c>
       <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="K34" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="M34" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N34" s="13"/>
       <c r="O34" s="15"/>
     </row>
@@ -6892,26 +6954,32 @@
         <v>234</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F35" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>304</v>
+      </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="24" t="s">
-        <v>30</v>
+      <c r="H35" s="24">
+        <v>1</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="J35" s="13"/>
+        <v>335</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="K35" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="M35" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="15"/>
@@ -6922,33 +6990,23 @@
         <v>234</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>302</v>
+        <v>254</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="24">
         <v>1</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14"/>
       <c r="N36" s="13"/>
       <c r="O36" s="15"/>
     </row>
@@ -6958,10 +7016,10 @@
         <v>234</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>299</v>
@@ -6974,7 +7032,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="M37" s="14"/>
       <c r="N37" s="13"/>
       <c r="O37" s="15"/>
     </row>
@@ -6984,13 +7042,13 @@
         <v>234</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="24" t="s">
@@ -7000,7 +7058,7 @@
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="M38" s="14"/>
       <c r="N38" s="13"/>
       <c r="O38" s="15"/>
     </row>
@@ -7010,13 +7068,13 @@
         <v>234</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="24" t="s">
@@ -7026,7 +7084,7 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
+      <c r="M39" s="14"/>
       <c r="N39" s="13"/>
       <c r="O39" s="15"/>
     </row>
@@ -7036,12 +7094,14 @@
         <v>234</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="F40" s="13"/>
+        <v>289</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>300</v>
+      </c>
       <c r="G40" s="13"/>
       <c r="H40" s="24" t="s">
         <v>30</v>
@@ -7050,7 +7110,7 @@
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
+      <c r="M40" s="14"/>
       <c r="N40" s="13"/>
       <c r="O40" s="15"/>
     </row>
@@ -7060,17 +7120,21 @@
         <v>234</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="13"/>
+        <v>259</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>290</v>
+      </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="24"/>
+      <c r="H41" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
+      <c r="M41" s="14"/>
       <c r="N41" s="13"/>
       <c r="O41" s="15"/>
     </row>
@@ -7080,21 +7144,27 @@
         <v>234</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>334</v>
+      </c>
       <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="K42" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
+      <c r="M42" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N42" s="13"/>
       <c r="O42" s="15"/>
     </row>
@@ -7104,16 +7174,23 @@
         <v>234</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+        <v>260</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>303</v>
+      </c>
       <c r="G43" s="13"/>
-      <c r="H43" s="24" t="s">
-        <v>30</v>
+      <c r="H43" s="24">
+        <v>1</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>21</v>
@@ -7133,26 +7210,23 @@
         <v>234</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+        <v>261</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="G44" s="13"/>
-      <c r="H44" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="H44" s="24">
+        <v>1</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14"/>
       <c r="N44" s="13"/>
       <c r="O44" s="15"/>
     </row>
@@ -7162,17 +7236,23 @@
         <v>234</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>301</v>
+      </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="24"/>
+      <c r="H45" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
+      <c r="M45" s="14"/>
       <c r="N45" s="13"/>
       <c r="O45" s="15"/>
     </row>
@@ -7182,21 +7262,23 @@
         <v>234</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" s="13"/>
+        <v>263</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>300</v>
+      </c>
       <c r="G46" s="13"/>
       <c r="H46" s="24" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="M46" s="14"/>
       <c r="N46" s="13"/>
       <c r="O46" s="15"/>
     </row>
@@ -7206,23 +7288,21 @@
         <v>234</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>299</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="24">
-        <v>1</v>
+      <c r="H47" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
+      <c r="M47" s="14"/>
       <c r="N47" s="13"/>
       <c r="O47" s="15"/>
     </row>
@@ -7232,23 +7312,17 @@
         <v>234</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>274</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="24">
-        <v>1</v>
-      </c>
+      <c r="H48" s="24"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
+      <c r="M48" s="14"/>
       <c r="N48" s="13"/>
       <c r="O48" s="15"/>
     </row>
@@ -7258,23 +7332,21 @@
         <v>234</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>298</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
+      <c r="M49" s="14"/>
       <c r="N49" s="13"/>
       <c r="O49" s="15"/>
     </row>
@@ -7283,22 +7355,27 @@
       <c r="C50" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>323</v>
-      </c>
+      <c r="D50" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="24">
-        <v>1</v>
-      </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
+      <c r="H50" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N50" s="13"/>
       <c r="O50" s="15"/>
     </row>
@@ -7307,22 +7384,27 @@
       <c r="C51" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>324</v>
-      </c>
+      <c r="D51" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="15"/>
     </row>
@@ -7331,52 +7413,222 @@
       <c r="C52" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>251</v>
-      </c>
+      <c r="D52" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="24">
-        <v>1</v>
-      </c>
+      <c r="H52" s="24"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
+      <c r="M52" s="14"/>
       <c r="N52" s="13"/>
       <c r="O52" s="15"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="17"/>
-      <c r="C53" s="28" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="15"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="24">
+        <v>1</v>
+      </c>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="15"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="24">
+        <v>1</v>
+      </c>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="15"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="15"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="12"/>
+      <c r="C57" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="24">
+        <v>1</v>
+      </c>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="15"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="15"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+      <c r="C59" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="24">
+        <v>1</v>
+      </c>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="15"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="17"/>
+      <c r="C60" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E60" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F60" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="29">
+      <c r="G60" s="18"/>
+      <c r="H60" s="29">
         <v>1</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="30"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7413,22 +7665,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -7741,22 +7993,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="77" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology\02-Conceptual_Data_Model\MS-RPaM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology_v1.1\02-Conceptual_Data_Model\MS-RPaM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="518">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -793,9 +793,6 @@
   </si>
   <si>
     <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/IdentificacionPF</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Nombre</t>
   </si>
   <si>
     <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Apellido1</t>
@@ -1491,16 +1488,106 @@
     <t>@AT: do you have this need, too? If yes, which is the code list?</t>
   </si>
   <si>
-    <t>eMandateRequest/Mandate/Empowerment</t>
-  </si>
-  <si>
     <t>A collection of empowerments.</t>
   </si>
   <si>
-    <t>In RPaM this goes in the Empowerment</t>
-  </si>
-  <si>
     <t>See above</t>
+  </si>
+  <si>
+    <t>eMandateRequest/ubl:AdditionalDocumentReference</t>
+  </si>
+  <si>
+    <t>ubl:DocumentReference</t>
+  </si>
+  <si>
+    <t>Attachments to documents suplied by the SP, to inform the eMR about specific requirements (eg.; this could be used to attach legislation, templates for evidences, etc.)</t>
+  </si>
+  <si>
+    <t>In RPaM this goes in the Empowerment. Looks like a taxonomy.</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/MandatorConstraint/CriterionProperty</t>
+  </si>
+  <si>
+    <t>The creation date and the struck-off date. The Criterion Property Constraint is of type Validity Period (see MorMeeConstraintType code list).</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/ID</t>
+  </si>
+  <si>
+    <t>@ES: Beware that the ISO 15000-5 CCTS caters for the possibility of specifying the schemeID, schemeAgencyID, schemeVersionID, etc.</t>
+  </si>
+  <si>
+    <t>@ES: looks like a taxonomy. Can you provide us with examples please?</t>
+  </si>
+  <si>
+    <t>@ES: The RPaM solution approaches this need diferently. The eMandate Request refers to one or multiple IRCs (Information Request and Constraints) for the eMandate Registry to provide back the data expected by the SP.</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/statusType</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/Type</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/LifeSpanPeriod</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/Mandatee</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/Mandatee/ID</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Mandator</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Mandator/ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ES: the eMandate Response contains n Mandates. The ID is one more attribute of the Mandate. </t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Type</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/StatusType</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Mandator</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Mandator/ID</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaFisica/Nombre</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Mandator/GivenName</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Mandator/FamilyName</t>
+  </si>
+  <si>
+    <t>@ES: we propose to concatenate both family names into one single field.</t>
+  </si>
+  <si>
+    <t>Concatenate all family names into one single  family name instance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ES: the individuals of Mandator and Mandatee already specify the type of :Mandator are also of type foaf:Person or of type org:Organisation. This works well for the OWL-DL expression of the ontology. For the UBL syntax binding we will have to distinguish between ubl:Party and ubl:Person, as you do in your model. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWL-DL-Syntax Bindings: when creating and individual of foaf:Agent, the implementer MUST define the individual as being also of rdf:type foaf:Person, org:Organisation or rpam:System. </t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Mandator/Mbox</t>
+  </si>
+  <si>
+    <t>@ES: can you help us to understand this please? Could this be a document reference?</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1985,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2088,6 +2175,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2118,12 +2206,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="2" builtinId="10"/>
-    <cellStyle name="Texto de advertencia" xfId="1" builtinId="11"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2139,7 +2227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2407,7 +2495,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -2432,7 +2520,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -2447,23 +2535,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="39"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2974,7 +3062,7 @@
         <v>234</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="21" t="s">
@@ -2995,10 +3083,10 @@
         <v>234</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>21</v>
@@ -3022,7 +3110,7 @@
         <v>234</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>38</v>
@@ -3047,7 +3135,7 @@
         <v>234</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
@@ -3072,7 +3160,7 @@
         <v>234</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="21" t="s">
@@ -3095,7 +3183,7 @@
         <v>234</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
@@ -3120,7 +3208,7 @@
         <v>234</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="21" t="s">
@@ -3143,7 +3231,7 @@
         <v>234</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="21" t="s">
@@ -3166,7 +3254,7 @@
         <v>234</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="21" t="s">
@@ -3189,7 +3277,7 @@
         <v>234</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="21" t="s">
@@ -3210,7 +3298,7 @@
         <v>234</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
@@ -3233,7 +3321,7 @@
         <v>234</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>82</v>
@@ -3260,7 +3348,7 @@
         <v>234</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>21</v>
@@ -3284,7 +3372,7 @@
         <v>234</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>195</v>
@@ -3320,11 +3408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="H15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J25" sqref="J25:S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="81" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="81" customWidth="1"/>
@@ -3347,26 +3435,26 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C1" s="89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
       <c r="N3" s="111"/>
       <c r="O3" s="112"/>
       <c r="P3" s="112"/>
@@ -3415,13 +3503,13 @@
         <v>59</v>
       </c>
       <c r="P4" s="76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="83"/>
       <c r="C5" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D5" s="84" t="s">
         <v>147</v>
@@ -3452,13 +3540,13 @@
       <c r="N5" s="90"/>
       <c r="O5" s="106"/>
       <c r="P5" s="81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="88"/>
       <c r="C6" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>148</v>
@@ -3472,16 +3560,16 @@
         <v>46</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J6" s="89" t="s">
         <v>157</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L6" s="90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M6" s="92" t="s">
         <v>46</v>
@@ -3492,7 +3580,7 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="88"/>
       <c r="C7" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>149</v>
@@ -3506,10 +3594,10 @@
         <v>46</v>
       </c>
       <c r="I7" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="J7" s="89" t="s">
         <v>390</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>391</v>
       </c>
       <c r="K7" s="78"/>
       <c r="L7" s="90"/>
@@ -3519,13 +3607,13 @@
       <c r="N7" s="90"/>
       <c r="O7" s="106"/>
       <c r="P7" s="114" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="88"/>
       <c r="C8" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>150</v>
@@ -3539,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="78"/>
@@ -3548,13 +3636,13 @@
       <c r="N8" s="90"/>
       <c r="O8" s="106"/>
       <c r="P8" s="114" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="88"/>
       <c r="C9" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D9" s="89" t="s">
         <v>151</v>
@@ -3570,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="78"/>
@@ -3579,13 +3667,13 @@
       <c r="N9" s="90"/>
       <c r="O9" s="106"/>
       <c r="P9" s="114" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="88"/>
       <c r="C10" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" s="89" t="s">
         <v>152</v>
@@ -3595,10 +3683,10 @@
       <c r="G10" s="90"/>
       <c r="H10" s="91"/>
       <c r="I10" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="J10" s="89" t="s">
         <v>392</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>393</v>
       </c>
       <c r="K10" s="78" t="s">
         <v>21</v>
@@ -3616,7 +3704,7 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="88"/>
       <c r="C11" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D11" s="89" t="s">
         <v>153</v>
@@ -3626,7 +3714,7 @@
       <c r="G11" s="90"/>
       <c r="H11" s="91"/>
       <c r="I11" s="80" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J11" s="90"/>
       <c r="K11" s="78"/>
@@ -3635,13 +3723,13 @@
       <c r="N11" s="90"/>
       <c r="O11" s="106"/>
       <c r="P11" s="114" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="88"/>
       <c r="C12" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D12" s="89" t="s">
         <v>154</v>
@@ -3651,7 +3739,7 @@
       <c r="G12" s="90"/>
       <c r="H12" s="91"/>
       <c r="I12" s="80" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J12" s="90"/>
       <c r="K12" s="78"/>
@@ -3660,13 +3748,13 @@
       <c r="N12" s="90"/>
       <c r="O12" s="106"/>
       <c r="P12" s="114" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="88"/>
       <c r="C13" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D13" s="89" t="s">
         <v>155</v>
@@ -3676,7 +3764,7 @@
       <c r="G13" s="90"/>
       <c r="H13" s="91"/>
       <c r="I13" s="80" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J13" s="90"/>
       <c r="K13" s="78"/>
@@ -3685,7 +3773,7 @@
       <c r="N13" s="90"/>
       <c r="O13" s="106"/>
       <c r="P13" s="114" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J14" s="90" t="s">
         <v>45</v>
@@ -3739,14 +3827,14 @@
         <v>30</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L15" s="78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M15" s="94">
         <v>1</v>
@@ -3758,7 +3846,7 @@
         <v>43</v>
       </c>
       <c r="P15" s="114" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -3778,7 +3866,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="78" t="s">
@@ -3794,7 +3882,7 @@
         <v>65</v>
       </c>
       <c r="O16" s="107" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P16" s="105" t="s">
         <v>43</v>
@@ -3815,11 +3903,11 @@
         <v>1</v>
       </c>
       <c r="I17" s="88" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J17" s="90"/>
       <c r="K17" s="78" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L17" s="90" t="s">
         <v>69</v>
@@ -3828,7 +3916,7 @@
         <v>46</v>
       </c>
       <c r="O17" s="107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P17" s="105" t="s">
         <v>43</v>
@@ -3849,13 +3937,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="J18" s="90" t="s">
+        <v>400</v>
+      </c>
+      <c r="K18" s="78" t="s">
         <v>418</v>
-      </c>
-      <c r="J18" s="90" t="s">
-        <v>401</v>
-      </c>
-      <c r="K18" s="78" t="s">
-        <v>419</v>
       </c>
       <c r="L18" s="90" t="s">
         <v>69</v>
@@ -3865,10 +3953,10 @@
       </c>
       <c r="N18" s="90"/>
       <c r="O18" s="107" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P18" s="114" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -3886,10 +3974,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="88" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J19" s="90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K19" s="90" t="s">
         <v>36</v>
@@ -3916,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="77" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K20" s="78" t="s">
         <v>36</v>
@@ -3931,7 +4019,7 @@
       <c r="N20" s="90"/>
       <c r="O20" s="108"/>
       <c r="P20" s="114" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -3949,10 +4037,10 @@
         <v>46</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K21" s="90"/>
       <c r="L21" s="90"/>
@@ -3962,7 +4050,7 @@
       <c r="N21" s="90"/>
       <c r="O21" s="106"/>
       <c r="P21" s="114" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -3982,10 +4070,10 @@
         <v>30</v>
       </c>
       <c r="I22" s="88" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J22" s="89" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K22" s="90"/>
       <c r="L22" s="72"/>
@@ -3993,13 +4081,13 @@
         <v>1</v>
       </c>
       <c r="N22" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="O22" s="107" t="s">
         <v>421</v>
       </c>
-      <c r="O22" s="107" t="s">
-        <v>422</v>
-      </c>
       <c r="P22" s="104" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -4019,10 +4107,10 @@
         <v>30</v>
       </c>
       <c r="I23" s="88" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J23" s="89" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K23" s="90"/>
       <c r="L23" s="72"/>
@@ -4030,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="N23" s="77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O23" s="107" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P23" s="104" t="s">
         <v>43</v>
@@ -4058,10 +4146,10 @@
         <v>30</v>
       </c>
       <c r="I24" s="88" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K24" s="90" t="s">
         <v>19</v>
@@ -4073,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="77" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O24" s="106" t="s">
         <v>43</v>
@@ -4098,13 +4186,13 @@
         <v>30</v>
       </c>
       <c r="I25" s="88" t="s">
+        <v>415</v>
+      </c>
+      <c r="J25" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="90" t="s">
         <v>416</v>
-      </c>
-      <c r="J25" s="89" t="s">
-        <v>428</v>
-      </c>
-      <c r="K25" s="90" t="s">
-        <v>417</v>
       </c>
       <c r="L25" s="89" t="s">
         <v>69</v>
@@ -4113,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="N25" s="77" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O25" s="107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -4134,13 +4222,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="J26" s="89" t="s">
         <v>432</v>
       </c>
-      <c r="J26" s="89" t="s">
-        <v>433</v>
-      </c>
       <c r="K26" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L26" s="89" t="s">
         <v>69</v>
@@ -4150,10 +4238,10 @@
       </c>
       <c r="N26" s="90"/>
       <c r="O26" s="106" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P26" s="104" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -4171,13 +4259,13 @@
         <v>30</v>
       </c>
       <c r="I27" s="88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J27" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="K27" s="89" t="s">
         <v>435</v>
-      </c>
-      <c r="K27" s="89" t="s">
-        <v>436</v>
       </c>
       <c r="L27" s="89" t="s">
         <v>69</v>
@@ -4187,10 +4275,10 @@
       </c>
       <c r="N27" s="90"/>
       <c r="O27" s="106" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P27" s="104" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -4208,13 +4296,13 @@
         <v>46</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J28" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K28" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L28" s="90"/>
       <c r="M28" s="92" t="s">
@@ -4222,7 +4310,7 @@
       </c>
       <c r="N28" s="90"/>
       <c r="O28" s="106" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P28" s="89" t="s">
         <v>43</v>
@@ -4245,7 +4333,7 @@
         <v>46</v>
       </c>
       <c r="I29" s="88" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J29" s="90"/>
       <c r="K29" s="90" t="s">
@@ -4275,7 +4363,7 @@
         <v>46</v>
       </c>
       <c r="I30" s="88" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J30" s="90"/>
       <c r="K30" s="90" t="s">
@@ -4290,7 +4378,7 @@
       <c r="N30" s="90"/>
       <c r="O30" s="106"/>
       <c r="P30" s="104" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -4308,10 +4396,10 @@
         <v>46</v>
       </c>
       <c r="I31" s="88" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J31" s="89" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K31" s="78" t="s">
         <v>36</v>
@@ -4323,7 +4411,7 @@
       <c r="N31" s="90"/>
       <c r="O31" s="108"/>
       <c r="P31" s="114" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -4341,10 +4429,10 @@
         <v>46</v>
       </c>
       <c r="I32" s="77" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J32" s="89" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K32" s="78" t="s">
         <v>36</v>
@@ -4354,13 +4442,13 @@
         <v>30</v>
       </c>
       <c r="N32" s="77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O32" s="108" t="s">
         <v>43</v>
       </c>
       <c r="P32" s="114" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -4378,7 +4466,7 @@
         <v>37</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J33" s="90" t="s">
         <v>45</v>
@@ -4410,13 +4498,13 @@
         <v>30</v>
       </c>
       <c r="I34" s="88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J34" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K34" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L34" s="90"/>
       <c r="M34" s="92" t="s">
@@ -4424,7 +4512,7 @@
       </c>
       <c r="N34" s="90"/>
       <c r="O34" s="106" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P34" s="89" t="s">
         <v>43</v>
@@ -4445,26 +4533,26 @@
         <v>30</v>
       </c>
       <c r="I35" s="88" t="s">
+        <v>457</v>
+      </c>
+      <c r="J35" s="89" t="s">
         <v>458</v>
-      </c>
-      <c r="J35" s="89" t="s">
-        <v>459</v>
       </c>
       <c r="K35" s="89" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M35" s="94" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="90"/>
       <c r="O35" s="106" t="s">
+        <v>459</v>
+      </c>
+      <c r="P35" s="104" t="s">
         <v>460</v>
-      </c>
-      <c r="P35" s="104" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -4480,13 +4568,13 @@
         <v>30</v>
       </c>
       <c r="I36" s="88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J36" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K36" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L36" s="90"/>
       <c r="M36" s="92" t="s">
@@ -4494,10 +4582,10 @@
       </c>
       <c r="N36" s="90"/>
       <c r="O36" s="106" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P36" s="104" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -4513,13 +4601,13 @@
         <v>30</v>
       </c>
       <c r="I37" s="88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J37" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K37" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L37" s="90"/>
       <c r="M37" s="92" t="s">
@@ -4527,7 +4615,7 @@
       </c>
       <c r="N37" s="90"/>
       <c r="O37" s="106" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -4543,13 +4631,13 @@
         <v>30</v>
       </c>
       <c r="I38" s="88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J38" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K38" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L38" s="90"/>
       <c r="M38" s="92" t="s">
@@ -4557,7 +4645,7 @@
       </c>
       <c r="N38" s="90"/>
       <c r="O38" s="106" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -4575,7 +4663,7 @@
         <v>30</v>
       </c>
       <c r="I39" s="96" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J39" s="89"/>
       <c r="K39" s="89" t="s">
@@ -4603,13 +4691,13 @@
         <v>46</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J40" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K40" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L40" s="90"/>
       <c r="M40" s="94" t="s">
@@ -4633,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="115" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J41" s="99"/>
       <c r="K41" s="99"/>
@@ -4641,10 +4729,10 @@
       <c r="M41" s="101"/>
       <c r="N41" s="99"/>
       <c r="O41" s="110" t="s">
+        <v>463</v>
+      </c>
+      <c r="P41" s="104" t="s">
         <v>464</v>
-      </c>
-      <c r="P41" s="104" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -4653,10 +4741,10 @@
         <v>234</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E42" s="84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F42" s="85" t="s">
         <v>43</v>
@@ -4664,7 +4752,7 @@
       <c r="G42" s="85"/>
       <c r="H42" s="86"/>
       <c r="I42" s="116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="85"/>
@@ -4673,7 +4761,7 @@
       <c r="N42" s="85"/>
       <c r="O42" s="103"/>
       <c r="P42" s="113" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -4682,10 +4770,10 @@
         <v>234</v>
       </c>
       <c r="D43" s="89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E43" s="89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F43" s="89" t="s">
         <v>43</v>
@@ -4693,7 +4781,7 @@
       <c r="G43" s="90"/>
       <c r="H43" s="91"/>
       <c r="I43" s="116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J43" s="90"/>
       <c r="K43" s="90"/>
@@ -4702,7 +4790,7 @@
       <c r="N43" s="90"/>
       <c r="O43" s="93"/>
       <c r="P43" s="79" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -4711,10 +4799,10 @@
         <v>234</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E44" s="89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F44" s="89" t="s">
         <v>43</v>
@@ -4724,7 +4812,7 @@
         <v>37</v>
       </c>
       <c r="I44" s="89" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J44" s="90" t="s">
         <v>38</v>
@@ -4745,10 +4833,10 @@
         <v>234</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E45" s="90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F45" s="89" t="s">
         <v>43</v>
@@ -4758,7 +4846,7 @@
         <v>37</v>
       </c>
       <c r="I45" s="88" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J45" s="90"/>
       <c r="K45" s="90"/>
@@ -4768,10 +4856,10 @@
       </c>
       <c r="N45" s="90"/>
       <c r="O45" s="110" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P45" s="104" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -4780,10 +4868,10 @@
         <v>234</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E46" s="90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F46" s="89" t="s">
         <v>43</v>
@@ -4793,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="I46" s="88" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J46" s="90"/>
       <c r="K46" s="90"/>
@@ -4803,7 +4891,7 @@
       </c>
       <c r="N46" s="90"/>
       <c r="O46" s="110" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -4812,17 +4900,17 @@
         <v>234</v>
       </c>
       <c r="D47" s="89" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E47" s="90"/>
       <c r="F47" s="90"/>
       <c r="G47" s="90"/>
       <c r="H47" s="91"/>
       <c r="I47" s="77" t="s">
+        <v>471</v>
+      </c>
+      <c r="J47" s="90" t="s">
         <v>472</v>
-      </c>
-      <c r="J47" s="90" t="s">
-        <v>473</v>
       </c>
       <c r="K47" s="90"/>
       <c r="L47" s="90"/>
@@ -4830,7 +4918,7 @@
       <c r="N47" s="90"/>
       <c r="O47" s="93"/>
       <c r="P47" s="104" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -4839,19 +4927,19 @@
         <v>234</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E48" s="90" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F48" s="90"/>
       <c r="G48" s="90"/>
       <c r="H48" s="91"/>
       <c r="I48" s="88" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J48" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K48" s="90"/>
       <c r="L48" s="90"/>
@@ -4860,10 +4948,10 @@
       </c>
       <c r="N48" s="90"/>
       <c r="O48" s="110" t="s">
+        <v>480</v>
+      </c>
+      <c r="P48" s="104" t="s">
         <v>481</v>
-      </c>
-      <c r="P48" s="104" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -4875,10 +4963,10 @@
       <c r="G49" s="90"/>
       <c r="H49" s="91"/>
       <c r="I49" s="88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J49" s="90" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K49" s="90"/>
       <c r="L49" s="90"/>
@@ -4894,10 +4982,10 @@
         <v>234</v>
       </c>
       <c r="D50" s="98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E50" s="99" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F50" s="99" t="s">
         <v>43</v>
@@ -4905,10 +4993,10 @@
       <c r="G50" s="99"/>
       <c r="H50" s="100"/>
       <c r="I50" s="88" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J50" s="99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K50" s="99"/>
       <c r="L50" s="99"/>
@@ -4940,7 +5028,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -4958,22 +5046,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="124" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5118,7 +5206,7 @@
         <v>162</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -5188,7 +5276,7 @@
         <v>163</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -5340,13 +5428,13 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>163</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -5362,10 +5450,10 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -5382,10 +5470,10 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -5402,10 +5490,10 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -5422,13 +5510,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>162</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -5444,10 +5532,10 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5464,10 +5552,10 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5484,10 +5572,10 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -5504,13 +5592,13 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -5526,13 +5614,13 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -5548,10 +5636,10 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -5568,10 +5656,10 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -5588,10 +5676,10 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -5608,10 +5696,10 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -5628,10 +5716,10 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -5648,10 +5736,10 @@
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -5668,10 +5756,10 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -5688,10 +5776,10 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -5708,10 +5796,10 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -5728,10 +5816,10 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -5748,10 +5836,10 @@
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -5768,10 +5856,10 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -5788,10 +5876,10 @@
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -5808,13 +5896,13 @@
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>347</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -5830,13 +5918,13 @@
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D39" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>350</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -5864,13 +5952,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S60"/>
+  <dimension ref="B1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" customWidth="1"/>
@@ -5889,22 +5977,22 @@
   <sheetData>
     <row r="1" spans="2:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="124" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -6007,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
@@ -6061,43 +6149,36 @@
       <c r="O7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="127" t="s">
-        <v>484</v>
+      <c r="P7" s="117" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="128" t="s">
         <v>486</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="5" t="s">
-        <v>37</v>
+      <c r="J8" s="13"/>
+      <c r="K8" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="N8" s="13"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="P8" s="117"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
@@ -6105,32 +6186,30 @@
         <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="14" t="s">
-        <v>30</v>
+      <c r="H9" s="14">
+        <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>45</v>
+        <v>484</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>15</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="L9" s="13"/>
       <c r="M9" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="15"/>
@@ -6141,10 +6220,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>43</v>
@@ -6157,11 +6236,17 @@
         <v>44</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="N10" s="13"/>
       <c r="O10" s="15"/>
     </row>
@@ -6171,27 +6256,29 @@
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="14"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="16" t="s">
-        <v>487</v>
-      </c>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -6199,10 +6286,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>29</v>
@@ -6211,14 +6298,14 @@
       <c r="H12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="13"/>
       <c r="O12" s="16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -6227,29 +6314,26 @@
         <v>12</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>71</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="14">
-        <v>1</v>
-      </c>
+      <c r="M13" s="14"/>
       <c r="N13" s="13"/>
       <c r="O13" s="16" t="s">
-        <v>61</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -6258,43 +6342,30 @@
         <v>12</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>428</v>
-      </c>
-      <c r="K14" s="90" t="s">
-        <v>417</v>
-      </c>
-      <c r="L14" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="92">
+        <v>46</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14">
         <v>1</v>
       </c>
-      <c r="N14" s="77" t="s">
-        <v>430</v>
-      </c>
-      <c r="O14" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
@@ -6302,33 +6373,43 @@
         <v>12</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="14">
+      <c r="H15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="K15" s="90" t="s">
+        <v>416</v>
+      </c>
+      <c r="L15" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="92">
         <v>1</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="15"/>
+      <c r="N15" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="O15" s="107" t="s">
+        <v>428</v>
+      </c>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
@@ -6336,124 +6417,136 @@
         <v>12</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="K16" s="90" t="s">
+        <v>416</v>
+      </c>
+      <c r="L16" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="92">
+        <v>1</v>
+      </c>
+      <c r="N16" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="O16" s="107" t="s">
+        <v>491</v>
+      </c>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="14" t="s">
-        <v>30</v>
+      <c r="H17" s="14">
+        <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
+      <c r="M17" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="N17" s="13"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="13"/>
+        <v>493</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="K18" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="P18" s="117" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>58</v>
+        <v>493</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>47</v>
@@ -6461,51 +6554,57 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="13"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>498</v>
+      </c>
       <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
+      <c r="K20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="O20" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>29</v>
@@ -6515,193 +6614,185 @@
         <v>30</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>71</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="14">
-        <v>1</v>
-      </c>
+      <c r="M22" s="14"/>
       <c r="N22" s="13"/>
       <c r="O22" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="117" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="117" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>164</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="13"/>
       <c r="O24" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="J25" s="13"/>
       <c r="K25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>15</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="L25" s="13"/>
       <c r="M25" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N25" s="13"/>
-      <c r="O25" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="G26" s="13"/>
       <c r="H26" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>89</v>
+        <v>503</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>82</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>15</v>
@@ -6709,42 +6800,44 @@
       <c r="M26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="21" t="s">
         <v>164</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="G27" s="13"/>
       <c r="H27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="58" t="s">
+      <c r="I27" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K27" s="58" t="s">
+      <c r="K27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="58" t="s">
+      <c r="L27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="14" t="s">
         <v>46</v>
       </c>
       <c r="N27" s="13"/>
@@ -6752,257 +6845,276 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="52"/>
-      <c r="C28" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="F28" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="63" t="s">
-        <v>46</v>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>340</v>
+        <v>501</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="54"/>
-      <c r="O28" s="55"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
+      <c r="C30" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="D30" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F30" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="24" t="s">
+      <c r="G30" s="54"/>
+      <c r="H30" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="24">
-        <v>1</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I30" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="54"/>
+      <c r="O30" s="55"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>276</v>
+        <v>238</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="24">
-        <v>1</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="13"/>
+      <c r="H31" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="14"/>
       <c r="N31" s="13"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
-      <c r="C32" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>275</v>
-      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="24">
-        <v>1</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="14"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="N32" s="13"/>
       <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="117" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="13"/>
+      <c r="H33" s="24">
+        <v>1</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>505</v>
+      </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
-      <c r="M33" s="14"/>
+      <c r="M33" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N33" s="13"/>
       <c r="O33" s="15"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="F34" s="13"/>
+        <v>275</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>334</v>
+      <c r="H34" s="24">
+        <v>1</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="J34" s="13"/>
-      <c r="K34" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="K34" s="13"/>
       <c r="L34" s="13"/>
-      <c r="M34" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="M34" s="14"/>
       <c r="N34" s="13"/>
       <c r="O34" s="15"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>304</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="24">
         <v>1</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>46</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14"/>
       <c r="N35" s="13"/>
       <c r="O35" s="15"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>301</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="24">
-        <v>1</v>
-      </c>
-      <c r="I36" s="13"/>
+      <c r="H36" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>507</v>
+      </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
@@ -7010,77 +7122,98 @@
       <c r="N36" s="13"/>
       <c r="O36" s="15"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>299</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="24">
-        <v>1</v>
-      </c>
-      <c r="I37" s="13"/>
+      <c r="H37" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>507</v>
+      </c>
       <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="K37" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
+      <c r="M37" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N37" s="13"/>
       <c r="O37" s="15"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="13"/>
+      <c r="H38" s="24">
+        <v>1</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" s="128" t="s">
+        <v>515</v>
+      </c>
       <c r="O38" s="15"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="117" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>257</v>
+        <v>509</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="13"/>
+      <c r="H39" s="24">
+        <v>1</v>
+      </c>
+      <c r="I39" s="128" t="s">
+        <v>510</v>
+      </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -7088,25 +7221,27 @@
       <c r="N39" s="13"/>
       <c r="O39" s="15"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="13"/>
+      <c r="H40" s="24">
+        <v>1</v>
+      </c>
+      <c r="I40" s="128" t="s">
+        <v>511</v>
+      </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -7114,113 +7249,108 @@
       <c r="N40" s="13"/>
       <c r="O40" s="15"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="F41" s="13"/>
+        <v>286</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>298</v>
+      </c>
       <c r="G41" s="13"/>
       <c r="H41" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="128" t="s">
+        <v>511</v>
+      </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="13"/>
+      <c r="N41" s="128" t="s">
+        <v>513</v>
+      </c>
       <c r="O41" s="15"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="117" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F42" s="13"/>
+        <v>256</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>300</v>
+      </c>
       <c r="G42" s="13"/>
       <c r="H42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>334</v>
+      <c r="I42" s="128" t="s">
+        <v>516</v>
       </c>
       <c r="J42" s="13"/>
-      <c r="K42" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="K42" s="13"/>
       <c r="L42" s="13"/>
-      <c r="M42" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="M42" s="14"/>
       <c r="N42" s="13"/>
       <c r="O42" s="15"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>302</v>
+        <v>257</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G43" s="13"/>
-      <c r="H43" s="24">
-        <v>1</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="H43" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14"/>
       <c r="N43" s="13"/>
       <c r="O43" s="15"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>299</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="24">
-        <v>1</v>
+      <c r="H44" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -7230,73 +7360,89 @@
       <c r="N44" s="13"/>
       <c r="O44" s="15"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>301</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="13"/>
+      <c r="I45" s="13" t="s">
+        <v>333</v>
+      </c>
       <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
+      <c r="K45" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="L45" s="13"/>
-      <c r="M45" s="14"/>
+      <c r="M45" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N45" s="13"/>
       <c r="O45" s="15"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>294</v>
+        <v>259</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="14"/>
+      <c r="H46" s="24">
+        <v>1</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N46" s="13"/>
       <c r="O46" s="15"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="F47" s="13"/>
+        <v>291</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>298</v>
+      </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="24" t="s">
-        <v>30</v>
+      <c r="H47" s="24">
+        <v>1</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -7306,18 +7452,24 @@
       <c r="N47" s="13"/>
       <c r="O47" s="15"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+        <v>261</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>300</v>
+      </c>
       <c r="G48" s="13"/>
-      <c r="H48" s="24"/>
+      <c r="H48" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -7326,21 +7478,23 @@
       <c r="N48" s="13"/>
       <c r="O48" s="15"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="F49" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="G49" s="13"/>
       <c r="H49" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -7350,76 +7504,66 @@
       <c r="N49" s="13"/>
       <c r="O49" s="15"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="E50" s="13"/>
+        <v>263</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>294</v>
+      </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="14"/>
       <c r="N50" s="13"/>
       <c r="O50" s="15"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M51" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
       <c r="N51" s="13"/>
       <c r="O51" s="15"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E52" s="13"/>
+        <v>245</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="24"/>
+      <c r="H52" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -7428,74 +7572,76 @@
       <c r="N52" s="13"/>
       <c r="O52" s="15"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>282</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14"/>
       <c r="N53" s="13"/>
       <c r="O53" s="15"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>299</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="24">
-        <v>1</v>
-      </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14"/>
+      <c r="H54" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="N54" s="13"/>
       <c r="O54" s="15"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>274</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="24">
-        <v>1</v>
-      </c>
+      <c r="H55" s="24"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
@@ -7504,23 +7650,21 @@
       <c r="N55" s="13"/>
       <c r="O55" s="15"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>298</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="24" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -7530,18 +7674,20 @@
       <c r="N56" s="13"/>
       <c r="O56" s="15"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="F57" s="13"/>
+      <c r="D57" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>298</v>
+      </c>
       <c r="G57" s="13"/>
       <c r="H57" s="24">
         <v>1</v>
@@ -7554,21 +7700,23 @@
       <c r="N57" s="13"/>
       <c r="O57" s="15"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="F58" s="13"/>
+      <c r="D58" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="24" t="s">
-        <v>46</v>
+      <c r="H58" s="24">
+        <v>1</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -7578,23 +7726,23 @@
       <c r="N58" s="13"/>
       <c r="O58" s="15"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="12"/>
       <c r="C59" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>296</v>
+      <c r="D59" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="G59" s="13"/>
-      <c r="H59" s="24">
-        <v>1</v>
+      <c r="H59" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -7604,31 +7752,108 @@
       <c r="N59" s="13"/>
       <c r="O59" s="15"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
-      <c r="C60" s="28" t="s">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+      <c r="C60" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="24">
+        <v>1</v>
+      </c>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="117" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="12"/>
+      <c r="C61" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="15"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+      <c r="C62" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="24">
+        <v>1</v>
+      </c>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="15"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="17"/>
+      <c r="C63" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="E60" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F60" s="18" t="s">
+      <c r="E63" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F63" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="29">
+      <c r="G63" s="18"/>
+      <c r="H63" s="29">
         <v>1</v>
       </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="30"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7648,7 +7873,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -7665,22 +7890,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="124" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -7974,7 +8199,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -7993,22 +8218,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="125" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -8281,7 +8506,7 @@
         <v>184</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -8393,7 +8618,7 @@
         <v>189</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -8439,7 +8664,7 @@
         <v>191</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -8473,7 +8698,7 @@
         <v>192</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -8519,7 +8744,7 @@
         <v>193</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -8549,7 +8774,7 @@
         <v>194</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -8573,7 +8798,7 @@
         <v>202</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -8616,10 +8841,10 @@
       <c r="B28" s="12"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>374</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>375</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -8636,7 +8861,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="13"/>
@@ -8654,7 +8879,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="13"/>
@@ -8672,7 +8897,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="13"/>
@@ -8690,7 +8915,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="13"/>
@@ -8708,7 +8933,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="13"/>
@@ -8748,7 +8973,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13"/>
@@ -8766,7 +8991,7 @@
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="524">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -128,9 +128,6 @@
     <t>DatosConsultaType/DatosConsultaApoderamiento</t>
   </si>
   <si>
-    <t>Data about the empowerment(s)</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>1..n</t>
-  </si>
-  <si>
-    <t>The result(s) of the empowerment of one or more Mandatees by one or more Mandator(s).</t>
   </si>
   <si>
     <t>DatosConsultaType/DatosConsultaApoderamiento/CodApoderamientINT</t>
@@ -759,15 +753,6 @@
     <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/PeriodoVigencia</t>
   </si>
   <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica</t>
-  </si>
-  <si>
     <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosApoderado</t>
   </si>
   <si>
@@ -792,42 +777,6 @@
     <t>xs:string [200]</t>
   </si>
   <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/IdentificacionPF</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Apellido1</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Apellido2</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Email</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Telefono</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Domicilio</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/IdentificacionPJ</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/RazonSocial</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/Email</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/Telefono</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/Domicilio</t>
-  </si>
-  <si>
-    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/Representante</t>
-  </si>
-  <si>
     <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosApoderado/Representante</t>
   </si>
   <si>
@@ -1194,9 +1143,6 @@
     <t>Why do you need the ID of the Mandatee as Base64?, we would have the ID of the Mandatee inside the entity Mandate as an ISO 15000-5 ctts:Identifier.</t>
   </si>
   <si>
-    <t>eMandateRequest/Mandate/Empowerment/Mandatee/X509SignatureCertificate</t>
-  </si>
-  <si>
     <t>Base64</t>
   </si>
   <si>
@@ -1245,9 +1191,6 @@
     <t>A proxy, as defined in Deliverable 1?</t>
   </si>
   <si>
-    <t>eR*/Mandate/Empowerment/Description</t>
-  </si>
-  <si>
     <t>eMandateRequest</t>
   </si>
   <si>
@@ -1257,15 +1200,6 @@
     <t>eRR/Mandate/ID</t>
   </si>
   <si>
-    <t>eRR/Mandate/Empowerment/statusType</t>
-  </si>
-  <si>
-    <t>eRR/Mandate/Empowerment/Mandatee</t>
-  </si>
-  <si>
-    <t>eRR/Mandate/Empowerment/Intermediary</t>
-  </si>
-  <si>
     <t>eRR/id</t>
   </si>
   <si>
@@ -1284,9 +1218,6 @@
     <t>ubl:Period</t>
   </si>
   <si>
-    <t>eRR/Mandate/Empowerment/Mandatee/Organization</t>
-  </si>
-  <si>
     <t>org:Organization</t>
   </si>
   <si>
@@ -1308,9 +1239,6 @@
     <t>The identifier(s) of the eBusiness Document (transaction)</t>
   </si>
   <si>
-    <t>The identifier(s) of the mandate (the empowerment container)</t>
-  </si>
-  <si>
     <t>The date and time of the eBusiness Document</t>
   </si>
   <si>
@@ -1323,18 +1251,9 @@
     <t>Both date and time must be compulsory in this case, as this is a systemic timestamp.</t>
   </si>
   <si>
-    <t>eRR/Mandate/Empowerment/MandatorConstraint</t>
-  </si>
-  <si>
-    <t>eRR/Mandate/Empowerment/Constraint(s)</t>
-  </si>
-  <si>
     <t>The constraints applied to the use of the power by mandator and mandatees.</t>
   </si>
   <si>
-    <t>See triples rpam:Empowerment rpam:mandator ccev:Constraint and rpam:Empowerment rpam:mandatee ccev:Constraint</t>
-  </si>
-  <si>
     <t>DEFINITION NEEDED</t>
   </si>
   <si>
@@ -1344,24 +1263,12 @@
     <t>Cover by RPaM as a CriterionProperty of type xsd:boolean (ccts:Indicator in UBL)</t>
   </si>
   <si>
-    <t>Constraints applied to the Mandate that affect all the empowerments therein  contained. These constraints shoud be commonly shared through a register of SP-Information Requirements and Constraints (e.g. eCertis).</t>
-  </si>
-  <si>
     <t>We want avoid the perverse effects of the "other" approach. This hampers terribly the interoperability. Our proposal is to register and share any constraint that may be reused. If the constraint is of national or administration scope, then the IR and Constraint Register should cater for the definition of sub-criteria based on the common global constraints, as in eCertis.</t>
   </si>
   <si>
     <t>eRR/Mandate/Constraint</t>
   </si>
   <si>
-    <t>For data protection and privacy reasons, as the mandate can contain multiple empowerments to other persons, the eMandate Registry must make sure that the eMandate Response contains only information about the empowerment of the person concerned in the Request. This rule should apply to mandatees that are both Natural and Legal Persons.</t>
-  </si>
-  <si>
-    <t>eRR/Mandate/Empowerment/Mandatee/RelatedMandate</t>
-  </si>
-  <si>
-    <t>eRR/Mandate/Empowerment/Mandator/RelatedMandate</t>
-  </si>
-  <si>
     <t>@everis:For all rows in this spread-sheet we need to re-check whether the requirement applies to both documents or just to one of them</t>
   </si>
   <si>
@@ -1374,13 +1281,7 @@
     <t>@AT: We do not understand how this is used. AT, can you explain,  please? And provide examples?</t>
   </si>
   <si>
-    <t>@AT: Do you refer to the constraints of the mandator's and mandatee's use of the power in an empowerment? Otherwise can you explain and PROVIDE EXAMPLES, please?</t>
-  </si>
-  <si>
     <t>@everis: 1. Add to the ontology. 2. Update the configuration  matrix.</t>
-  </si>
-  <si>
-    <t>@AT: Can you elaborate plelase? @everis: 1. We need to understand well this need, but we can already add it to the Ontology. I have the gut-feeling that we'll need it. I see it in the empowerment. BTW I thing we have the definition in the glossary.</t>
   </si>
   <si>
     <t>@everis: 1. Move the delegationLevel to Empowerment
@@ -1413,12 +1314,6 @@
     <t>The period of time the power can be used by the mandatee.</t>
   </si>
   <si>
-    <t>If not present then it does not expire (until the empowerment is revoked or the mandate struck-off).</t>
-  </si>
-  <si>
-    <t>@everis: 1. Add to the matrix configuration the need to document that "If a mandate is struck-off in the eMandate Registry, all the empowerments therein contained must change their statuses accordingly (we may need to come up with a new status named :CANCELLED_MANDATE_STRUCK_OFF</t>
-  </si>
-  <si>
     <t>@everis: we may need a code list for the types of Mandates (simple, collective, ….)</t>
   </si>
   <si>
@@ -1452,9 +1347,6 @@
     <t>eMandateResponse/Exception</t>
   </si>
   <si>
-    <t>A message about the Mandate in the eMandate Respose document. In case no mandate is included in the response (e.g. because no information matching the request was found, the mandate has been struck-off or the empowerments have bee revoked, etc.), the the Exception describes the possible causes.</t>
-  </si>
-  <si>
     <t>eMandateResponse/Exception/Description</t>
   </si>
   <si>
@@ -1488,9 +1380,6 @@
     <t>@AT: do you have this need, too? If yes, which is the code list?</t>
   </si>
   <si>
-    <t>A collection of empowerments.</t>
-  </si>
-  <si>
     <t>See above</t>
   </si>
   <si>
@@ -1503,9 +1392,6 @@
     <t>Attachments to documents suplied by the SP, to inform the eMR about specific requirements (eg.; this could be used to attach legislation, templates for evidences, etc.)</t>
   </si>
   <si>
-    <t>In RPaM this goes in the Empowerment. Looks like a taxonomy.</t>
-  </si>
-  <si>
     <t>eMandateRequest/Mandate/Power/MandatorConstraint/CriterionProperty</t>
   </si>
   <si>
@@ -1588,6 +1474,138 @@
   </si>
   <si>
     <t>@ES: can you help us to understand this please? Could this be a document reference?</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Mandator/Contact</t>
+  </si>
+  <si>
+    <t>ubl:Contact</t>
+  </si>
+  <si>
+    <t>Data about the Power(s)</t>
+  </si>
+  <si>
+    <t>In RPaM this goes in the Power. Looks like a taxonomy.</t>
+  </si>
+  <si>
+    <t>The result(s) of the Power of one or more Mandatees by one or more Mandator(s).</t>
+  </si>
+  <si>
+    <t>A collection of Powers.</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaFisica</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaFisica/IdentificacionPF</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaFisica/Apellido1</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaFisica/Apellido2</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaFisica/Email</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaFisica/Telefono</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaFisica/Domicilio</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaJuridica</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaJuridica/IdentificacionPJ</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaJuridica/RazonSocial</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaJuridica/Email</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaJuridica/Telefono</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/PersonaJuridica/Domicilio</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPoderdante/Representante</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Mandator/PostalAddress</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/assignedToMandatee</t>
+  </si>
+  <si>
+    <t>eMandateResponse/DocumentReference</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Power/Constraint(s)</t>
+  </si>
+  <si>
+    <t>See triples rpam:Power rpam:mandator ccev:Constraint and rpam:Power rpam:mandatee ccev:Constraint</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Power/MandatorConstraint</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Power/Mandator/RelatedMandate</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Power/Mandatee/RelatedMandate</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/Mandatee/X509SignatureCertificate</t>
+  </si>
+  <si>
+    <t>eR*/Mandate/Power/Description</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Power/statusType</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Power/Mandatee</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Power/Mandatee/Organization</t>
+  </si>
+  <si>
+    <t>eRR/Mandate/Power/Intermediary</t>
+  </si>
+  <si>
+    <t>Constraints applied to the Mandate that affect all the powers therein  contained. These constraints shoud be commonly shared through a register of SP-Information Requirements and Constraints (e.g. eCertis).</t>
+  </si>
+  <si>
+    <t>@everis: 1. Add to the matrix configuration the need to document that "If a mandate is struck-off in the eMandate Registry, all the powers therein contained must change their statuses accordingly (we may need to come up with a new status named :CANCELLED_MANDATE_STRUCK_OFF</t>
+  </si>
+  <si>
+    <t>A message about the Mandate in the eMandate Respose document. In case no mandate is included in the response (e.g. because no information matching the request was found, the mandate has been struck-off or the powers have bee revoked, etc.), the the Exception describes the possible causes.</t>
+  </si>
+  <si>
+    <t>For data protection and privacy reasons, as the mandate can contain multiple powers to other persons, the eMandate Registry must make sure that the eMandate Response contains only information about the power of the person concerned in the Request. This rule should apply to mandatees that are both Natural and Legal Persons.</t>
+  </si>
+  <si>
+    <t>If not present then it does not expire (until the power is revoked or the mandate struck-off).</t>
+  </si>
+  <si>
+    <t>The result(s) of the power of one or more Mandatees by one or more Mandator(s).</t>
+  </si>
+  <si>
+    <t>@AT: Can you elaborate plelase? @everis: 1. We need to understand well this need, but we can already add it to the Ontology. I have the gut-feeling that we'll need it. I see it in the power. BTW I thing we have the definition in the glossary.</t>
+  </si>
+  <si>
+    <t>The identifier(s) of the mandate (the power container)</t>
+  </si>
+  <si>
+    <t>@AT: Do you refer to the constraints of the mandator's and mandatee's use of the power in an power? Otherwise can you explain and PROVIDE EXAMPLES, please?</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1979,13 +1997,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2176,6 +2209,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2206,7 +2240,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2504,7 +2538,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2516,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,23 +2569,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="119" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="B2" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
       <c r="H2" s="39"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="118" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
+      <c r="J2" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2573,25 +2607,25 @@
         <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="J3" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="N3" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -2637,11 +2671,11 @@
         <v>16</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -2667,10 +2701,10 @@
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
@@ -2682,22 +2716,22 @@
         <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
       <c r="J7" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
@@ -2709,10 +2743,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>21</v>
@@ -2721,7 +2755,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
@@ -2736,15 +2770,15 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
@@ -2759,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
@@ -2772,13 +2806,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
@@ -2790,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
@@ -2798,7 +2832,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="37"/>
@@ -2813,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
@@ -2826,13 +2860,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
@@ -2844,7 +2878,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
@@ -2852,7 +2886,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="37"/>
@@ -2867,15 +2901,15 @@
         <v>12</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="37"/>
@@ -2890,20 +2924,20 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="16"/>
       <c r="J15" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -2915,22 +2949,22 @@
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
       <c r="H16" s="13"/>
       <c r="I16" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16" s="31"/>
       <c r="L16" s="33"/>
@@ -2942,11 +2976,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
@@ -2965,10 +2999,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>21</v>
@@ -2977,16 +3011,16 @@
         <v>15</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
@@ -2998,10 +3032,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>21</v>
@@ -3010,14 +3044,14 @@
         <v>15</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
@@ -3029,28 +3063,28 @@
         <v>12</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20" s="58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20" s="62"/>
       <c r="L20" s="61"/>
@@ -3059,14 +3093,14 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
@@ -3080,13 +3114,13 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>21</v>
@@ -3095,7 +3129,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -3107,20 +3141,20 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>38</v>
+        <v>520</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -3132,10 +3166,10 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
@@ -3157,10 +3191,10 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="21" t="s">
@@ -3168,7 +3202,7 @@
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -3180,10 +3214,10 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
@@ -3205,10 +3239,10 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="21" t="s">
@@ -3216,7 +3250,7 @@
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -3228,18 +3262,18 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -3251,18 +3285,18 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -3274,14 +3308,14 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -3295,14 +3329,14 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="14" t="s">
@@ -3318,13 +3352,13 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>21</v>
@@ -3333,7 +3367,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -3345,10 +3379,10 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>21</v>
@@ -3357,7 +3391,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -3369,22 +3403,22 @@
     </row>
     <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" s="58" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H34" s="58"/>
       <c r="I34" s="66"/>
@@ -3408,8 +3442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="H15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:S25"/>
+    <sheetView topLeftCell="H21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3435,26 +3469,26 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C1" s="89" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
       <c r="N3" s="111"/>
       <c r="O3" s="112"/>
       <c r="P3" s="112"/>
@@ -3497,25 +3531,25 @@
         <v>10</v>
       </c>
       <c r="N4" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="71" t="s">
-        <v>59</v>
-      </c>
       <c r="P4" s="76" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="83"/>
       <c r="C5" s="89" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D5" s="84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="85"/>
@@ -3523,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="90" t="s">
         <v>81</v>
-      </c>
-      <c r="J5" s="90" t="s">
-        <v>83</v>
       </c>
       <c r="K5" s="78" t="s">
         <v>21</v>
@@ -3535,44 +3569,44 @@
         <v>15</v>
       </c>
       <c r="M5" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N5" s="90"/>
       <c r="O5" s="106"/>
       <c r="P5" s="81" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="88"/>
       <c r="C6" s="89" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F6" s="89"/>
       <c r="G6" s="90"/>
       <c r="H6" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>387</v>
+        <v>509</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="L6" s="90" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="M6" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N6" s="90"/>
       <c r="O6" s="106"/>
@@ -3580,46 +3614,46 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="88"/>
       <c r="C7" s="89" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" s="89"/>
       <c r="G7" s="90"/>
       <c r="H7" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="K7" s="78"/>
       <c r="L7" s="90"/>
       <c r="M7" s="94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N7" s="90"/>
       <c r="O7" s="106"/>
       <c r="P7" s="114" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="88"/>
       <c r="C8" s="89" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
@@ -3627,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="78"/>
@@ -3636,29 +3670,29 @@
       <c r="N8" s="90"/>
       <c r="O8" s="106"/>
       <c r="P8" s="114" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="88"/>
       <c r="C9" s="89" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F9" s="90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" s="90"/>
       <c r="H9" s="91">
         <v>1</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="78"/>
@@ -3667,26 +3701,26 @@
       <c r="N9" s="90"/>
       <c r="O9" s="106"/>
       <c r="P9" s="114" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="88"/>
       <c r="C10" s="89" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="91"/>
       <c r="I10" s="81" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="K10" s="78" t="s">
         <v>21</v>
@@ -3695,7 +3729,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" s="90"/>
       <c r="O10" s="106"/>
@@ -3704,17 +3738,17 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="88"/>
       <c r="C11" s="89" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D11" s="89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="90"/>
       <c r="F11" s="90"/>
       <c r="G11" s="90"/>
       <c r="H11" s="91"/>
       <c r="I11" s="80" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J11" s="90"/>
       <c r="K11" s="78"/>
@@ -3723,23 +3757,23 @@
       <c r="N11" s="90"/>
       <c r="O11" s="106"/>
       <c r="P11" s="114" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="88"/>
       <c r="C12" s="89" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D12" s="89" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E12" s="90"/>
       <c r="F12" s="90"/>
       <c r="G12" s="90"/>
       <c r="H12" s="91"/>
       <c r="I12" s="80" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J12" s="90"/>
       <c r="K12" s="78"/>
@@ -3748,23 +3782,23 @@
       <c r="N12" s="90"/>
       <c r="O12" s="106"/>
       <c r="P12" s="114" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="88"/>
       <c r="C13" s="89" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D13" s="89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E13" s="90"/>
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
       <c r="H13" s="91"/>
       <c r="I13" s="80" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J13" s="90"/>
       <c r="K13" s="78"/>
@@ -3773,30 +3807,30 @@
       <c r="N13" s="90"/>
       <c r="O13" s="106"/>
       <c r="P13" s="114" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="88"/>
       <c r="C14" s="89"/>
       <c r="D14" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="89" t="s">
-        <v>98</v>
-      </c>
       <c r="F14" s="89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G14" s="90"/>
       <c r="H14" s="91">
         <v>1</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="J14" s="90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14" s="78" t="s">
         <v>21</v>
@@ -3805,7 +3839,7 @@
         <v>15</v>
       </c>
       <c r="M14" s="95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N14" s="90"/>
       <c r="O14" s="106"/>
@@ -3814,59 +3848,59 @@
       <c r="B15" s="88"/>
       <c r="C15" s="89"/>
       <c r="D15" s="89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="89" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="90"/>
       <c r="H15" s="91" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>404</v>
+        <v>510</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="78" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="L15" s="78" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="M15" s="94">
         <v>1</v>
       </c>
       <c r="N15" s="90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O15" s="107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P15" s="114" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="88"/>
       <c r="C16" s="89"/>
       <c r="D16" s="89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16" s="90"/>
       <c r="H16" s="91" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="78" t="s">
@@ -3879,23 +3913,23 @@
         <v>1</v>
       </c>
       <c r="N16" s="90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O16" s="107" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="P16" s="105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="88"/>
       <c r="C17" s="89"/>
       <c r="D17" s="90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F17" s="90"/>
       <c r="G17" s="90"/>
@@ -3903,33 +3937,33 @@
         <v>1</v>
       </c>
       <c r="I17" s="88" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="J17" s="90"/>
       <c r="K17" s="78" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="L17" s="90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M17" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O17" s="107" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="P17" s="105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="90" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F18" s="90"/>
       <c r="G18" s="90"/>
@@ -3937,36 +3971,36 @@
         <v>1</v>
       </c>
       <c r="I18" s="77" t="s">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="J18" s="90" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="K18" s="78" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="L18" s="90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M18" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N18" s="90"/>
       <c r="O18" s="107" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="P18" s="114" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="88"/>
       <c r="C19" s="89"/>
       <c r="D19" s="90" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E19" s="90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
@@ -3974,13 +4008,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="88" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="J19" s="90" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="K19" s="90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="90"/>
       <c r="M19" s="92" t="s">
@@ -3993,10 +4027,10 @@
       <c r="B20" s="88"/>
       <c r="C20" s="89"/>
       <c r="D20" s="89" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" s="89"/>
       <c r="G20" s="90"/>
@@ -4004,13 +4038,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="77" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="K20" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L20" s="90"/>
       <c r="M20" s="94" t="s">
@@ -4019,28 +4053,28 @@
       <c r="N20" s="90"/>
       <c r="O20" s="108"/>
       <c r="P20" s="114" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="88"/>
       <c r="C21" s="89"/>
       <c r="D21" s="90" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="K21" s="90"/>
       <c r="L21" s="90"/>
@@ -4050,30 +4084,30 @@
       <c r="N21" s="90"/>
       <c r="O21" s="106"/>
       <c r="P21" s="114" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="88"/>
       <c r="C22" s="89"/>
       <c r="D22" s="90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" s="90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G22" s="90"/>
       <c r="H22" s="91" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="88" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="J22" s="89" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="K22" s="90"/>
       <c r="L22" s="72"/>
@@ -4081,36 +4115,36 @@
         <v>1</v>
       </c>
       <c r="N22" s="77" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="O22" s="107" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="P22" s="104" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="88"/>
       <c r="C23" s="89"/>
       <c r="D23" s="90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E23" s="90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F23" s="90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23" s="90"/>
       <c r="H23" s="91" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="88" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="J23" s="89" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="K23" s="90"/>
       <c r="L23" s="72"/>
@@ -4118,38 +4152,38 @@
         <v>1</v>
       </c>
       <c r="N23" s="77" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="O23" s="107" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="P23" s="104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="88"/>
       <c r="C24" s="89"/>
       <c r="D24" s="90" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E24" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="90" t="s">
-        <v>120</v>
-      </c>
       <c r="G24" s="90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H24" s="91" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="88" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="K24" s="90" t="s">
         <v>19</v>
@@ -4161,97 +4195,97 @@
         <v>1</v>
       </c>
       <c r="N24" s="77" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="O24" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="88"/>
       <c r="C25" s="89"/>
       <c r="D25" s="90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" s="90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" s="90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G25" s="90" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H25" s="91" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="88" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="J25" s="89" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="K25" s="90" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="L25" s="89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M25" s="92">
         <v>1</v>
       </c>
       <c r="N25" s="77" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="O25" s="107" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="88"/>
       <c r="C26" s="89"/>
       <c r="D26" s="90" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26" s="90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F26" s="90"/>
       <c r="G26" s="90"/>
       <c r="H26" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I26" s="88" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="J26" s="89" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="K26" s="89" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="L26" s="89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M26" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N26" s="90"/>
       <c r="O26" s="106" t="s">
-        <v>433</v>
+        <v>505</v>
       </c>
       <c r="P26" s="104" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="88"/>
       <c r="C27" s="89"/>
       <c r="D27" s="90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E27" s="90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="90"/>
       <c r="G27" s="90"/>
@@ -4259,85 +4293,85 @@
         <v>30</v>
       </c>
       <c r="I27" s="88" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="J27" s="77" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="K27" s="89" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="L27" s="89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M27" s="92" t="s">
         <v>30</v>
       </c>
       <c r="N27" s="90"/>
       <c r="O27" s="106" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="P27" s="104" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="88"/>
       <c r="C28" s="89"/>
       <c r="D28" s="90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="J28" s="77" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="K28" s="89" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="L28" s="90"/>
       <c r="M28" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N28" s="90"/>
       <c r="O28" s="106" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="P28" s="89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="88"/>
       <c r="C29" s="89"/>
       <c r="D29" s="90" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E29" s="90" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F29" s="90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G29" s="90"/>
       <c r="H29" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I29" s="88" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="J29" s="90"/>
       <c r="K29" s="90" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L29" s="90" t="s">
         <v>15</v>
@@ -4352,22 +4386,22 @@
       <c r="B30" s="88"/>
       <c r="C30" s="89"/>
       <c r="D30" s="90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" s="90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
       <c r="H30" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I30" s="88" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="J30" s="90"/>
       <c r="K30" s="90" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L30" s="90" t="s">
         <v>15</v>
@@ -4378,98 +4412,98 @@
       <c r="N30" s="90"/>
       <c r="O30" s="106"/>
       <c r="P30" s="104" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="88"/>
       <c r="C31" s="89"/>
       <c r="D31" s="90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E31" s="90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F31" s="90"/>
       <c r="G31" s="90"/>
       <c r="H31" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I31" s="88" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="J31" s="89" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="K31" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="90"/>
       <c r="M31" s="94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N31" s="90"/>
       <c r="O31" s="108"/>
       <c r="P31" s="114" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="88"/>
       <c r="C32" s="89"/>
       <c r="D32" s="90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32" s="90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F32" s="90"/>
       <c r="G32" s="90"/>
       <c r="H32" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I32" s="77" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="J32" s="89" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="K32" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L32" s="90"/>
       <c r="M32" s="94" t="s">
         <v>30</v>
       </c>
       <c r="N32" s="77" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="O32" s="108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P32" s="114" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="88"/>
       <c r="C33" s="89"/>
       <c r="D33" s="90" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E33" s="90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33" s="90"/>
       <c r="G33" s="90"/>
       <c r="H33" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I33" s="88" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="J33" s="90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33" s="90" t="s">
         <v>21</v>
@@ -4478,7 +4512,7 @@
         <v>15</v>
       </c>
       <c r="M33" s="94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N33" s="90"/>
       <c r="O33" s="106"/>
@@ -4487,10 +4521,10 @@
       <c r="B34" s="88"/>
       <c r="C34" s="89"/>
       <c r="D34" s="90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E34" s="90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" s="90"/>
       <c r="G34" s="90"/>
@@ -4498,34 +4532,34 @@
         <v>30</v>
       </c>
       <c r="I34" s="88" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="J34" s="77" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="K34" s="89" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="L34" s="90"/>
       <c r="M34" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N34" s="90"/>
       <c r="O34" s="106" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="P34" s="89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="88"/>
       <c r="C35" s="89"/>
       <c r="D35" s="90" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E35" s="90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F35" s="90"/>
       <c r="G35" s="90"/>
@@ -4533,33 +4567,33 @@
         <v>30</v>
       </c>
       <c r="I35" s="88" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="J35" s="89" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="K35" s="89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" s="89" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="M35" s="94" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="90"/>
       <c r="O35" s="106" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="P35" s="104" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="88"/>
       <c r="C36" s="89"/>
       <c r="D36" s="90" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
@@ -4568,31 +4602,31 @@
         <v>30</v>
       </c>
       <c r="I36" s="88" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="J36" s="77" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="K36" s="89" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="L36" s="90"/>
       <c r="M36" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N36" s="90"/>
       <c r="O36" s="106" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="P36" s="104" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="88"/>
       <c r="C37" s="89"/>
       <c r="D37" s="90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E37" s="90"/>
       <c r="F37" s="90"/>
@@ -4601,28 +4635,28 @@
         <v>30</v>
       </c>
       <c r="I37" s="88" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="J37" s="77" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="K37" s="89" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="L37" s="90"/>
       <c r="M37" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N37" s="90"/>
       <c r="O37" s="106" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="88"/>
       <c r="C38" s="89"/>
       <c r="D38" s="90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
@@ -4631,31 +4665,31 @@
         <v>30</v>
       </c>
       <c r="I38" s="88" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="J38" s="77" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="K38" s="89" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="L38" s="90"/>
       <c r="M38" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N38" s="90"/>
       <c r="O38" s="106" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="88"/>
       <c r="C39" s="89"/>
       <c r="D39" s="90" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E39" s="90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F39" s="90"/>
       <c r="G39" s="90"/>
@@ -4663,15 +4697,15 @@
         <v>30</v>
       </c>
       <c r="I39" s="96" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="J39" s="89"/>
       <c r="K39" s="89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L39" s="89"/>
       <c r="M39" s="94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N39" s="89"/>
       <c r="O39" s="109"/>
@@ -4680,28 +4714,28 @@
       <c r="B40" s="88"/>
       <c r="C40" s="89"/>
       <c r="D40" s="90" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E40" s="90" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F40" s="90"/>
       <c r="G40" s="90"/>
       <c r="H40" s="91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I40" s="88" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="J40" s="77" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="K40" s="89" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="L40" s="90"/>
       <c r="M40" s="94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N40" s="90"/>
       <c r="O40" s="106"/>
@@ -4710,10 +4744,10 @@
       <c r="B41" s="97"/>
       <c r="C41" s="98"/>
       <c r="D41" s="99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F41" s="99"/>
       <c r="G41" s="99"/>
@@ -4721,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="115" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J41" s="99"/>
       <c r="K41" s="99"/>
@@ -4729,30 +4763,30 @@
       <c r="M41" s="101"/>
       <c r="N41" s="99"/>
       <c r="O41" s="110" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="P41" s="104" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="83"/>
       <c r="C42" s="85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E42" s="84" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G42" s="85"/>
       <c r="H42" s="86"/>
       <c r="I42" s="116" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="85"/>
@@ -4761,27 +4795,27 @@
       <c r="N42" s="85"/>
       <c r="O42" s="103"/>
       <c r="P42" s="113" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="88"/>
       <c r="C43" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D43" s="89" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E43" s="89" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F43" s="89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G43" s="90"/>
       <c r="H43" s="91"/>
       <c r="I43" s="116" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="J43" s="90"/>
       <c r="K43" s="90"/>
@@ -4790,39 +4824,39 @@
       <c r="N43" s="90"/>
       <c r="O43" s="93"/>
       <c r="P43" s="79" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="88"/>
       <c r="C44" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="E44" s="89" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G44" s="90"/>
       <c r="H44" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I44" s="89" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="J44" s="90" t="s">
-        <v>38</v>
+        <v>520</v>
       </c>
       <c r="K44" s="90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L44" s="90"/>
       <c r="M44" s="94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N44" s="90"/>
       <c r="O44" s="93"/>
@@ -4830,87 +4864,87 @@
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="88"/>
       <c r="C45" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E45" s="90" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F45" s="89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G45" s="90"/>
       <c r="H45" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I45" s="88" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="J45" s="90"/>
       <c r="K45" s="90"/>
       <c r="L45" s="90"/>
       <c r="M45" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N45" s="90"/>
       <c r="O45" s="110" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="P45" s="104" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="88"/>
       <c r="C46" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E46" s="90" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F46" s="89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G46" s="90"/>
       <c r="H46" s="91" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="88" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="J46" s="90"/>
       <c r="K46" s="90"/>
       <c r="L46" s="90"/>
       <c r="M46" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N46" s="90"/>
       <c r="O46" s="110" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="88"/>
       <c r="C47" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D47" s="89" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="E47" s="90"/>
       <c r="F47" s="90"/>
       <c r="G47" s="90"/>
       <c r="H47" s="91"/>
       <c r="I47" s="77" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="J47" s="90" t="s">
-        <v>472</v>
+        <v>517</v>
       </c>
       <c r="K47" s="90"/>
       <c r="L47" s="90"/>
@@ -4918,40 +4952,40 @@
       <c r="N47" s="90"/>
       <c r="O47" s="93"/>
       <c r="P47" s="104" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="88"/>
       <c r="C48" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E48" s="90" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F48" s="90"/>
       <c r="G48" s="90"/>
       <c r="H48" s="91"/>
       <c r="I48" s="88" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="J48" s="90" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="K48" s="90"/>
       <c r="L48" s="90"/>
       <c r="M48" s="92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N48" s="90"/>
       <c r="O48" s="110" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="P48" s="104" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -4963,10 +4997,10 @@
       <c r="G49" s="90"/>
       <c r="H49" s="91"/>
       <c r="I49" s="88" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="J49" s="90" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="K49" s="90"/>
       <c r="L49" s="90"/>
@@ -4979,24 +5013,24 @@
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="97"/>
       <c r="C50" s="99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D50" s="98" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="E50" s="99" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="F50" s="99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G50" s="99"/>
       <c r="H50" s="100"/>
       <c r="I50" s="88" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="J50" s="99" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="K50" s="99"/>
       <c r="L50" s="99"/>
@@ -5046,22 +5080,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="125" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5103,10 +5137,10 @@
         <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -5115,17 +5149,17 @@
         <v>12</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="25"/>
       <c r="I4" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>21</v>
@@ -5134,7 +5168,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="11"/>
@@ -5145,19 +5179,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="24"/>
       <c r="I5" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -5171,16 +5205,16 @@
         <v>12</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="24"/>
       <c r="I6" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
@@ -5193,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O6" s="16"/>
     </row>
@@ -5203,19 +5237,19 @@
         <v>12</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="24"/>
       <c r="I7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>21</v>
@@ -5224,10 +5258,10 @@
         <v>15</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O7" s="16"/>
     </row>
@@ -5237,19 +5271,19 @@
         <v>12</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="24"/>
       <c r="I8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>21</v>
@@ -5258,13 +5292,13 @@
         <v>15</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -5273,31 +5307,31 @@
         <v>12</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="24"/>
       <c r="I9" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O9" s="16"/>
     </row>
@@ -5307,16 +5341,16 @@
         <v>12</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="24"/>
       <c r="I10" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
@@ -5329,10 +5363,10 @@
         <v>1</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -5341,7 +5375,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -5361,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -5381,16 +5415,16 @@
         <v>12</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="15"/>
       <c r="I13" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -5405,36 +5439,36 @@
         <v>12</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="15"/>
       <c r="I14" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -5450,10 +5484,10 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -5470,10 +5504,10 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -5490,10 +5524,10 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -5510,13 +5544,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -5532,10 +5566,10 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5552,10 +5586,10 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5572,10 +5606,10 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -5592,13 +5626,13 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -5614,13 +5648,13 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -5636,10 +5670,10 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -5656,10 +5690,10 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -5676,10 +5710,10 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -5696,10 +5730,10 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -5716,10 +5750,10 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -5736,10 +5770,10 @@
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -5756,10 +5790,10 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -5776,10 +5810,10 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -5796,10 +5830,10 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -5816,10 +5850,10 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -5836,10 +5870,10 @@
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -5856,10 +5890,10 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -5876,10 +5910,10 @@
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -5896,13 +5930,13 @@
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="21" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -5918,13 +5952,13 @@
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="28" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -5954,8 +5988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5977,22 +6011,22 @@
   <sheetData>
     <row r="1" spans="2:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="125" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -6034,10 +6068,10 @@
         <v>10</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6082,7 +6116,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>6</v>
@@ -6095,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
@@ -6108,7 +6142,7 @@
         <v>16</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O6" s="15"/>
     </row>
@@ -6127,7 +6161,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="14">
         <v>1</v>
@@ -6147,10 +6181,10 @@
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P7" s="117" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -6161,22 +6195,22 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="128" t="s">
-        <v>486</v>
+      <c r="I8" s="118" t="s">
+        <v>449</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="21" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="15" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="P8" s="117"/>
     </row>
@@ -6189,27 +6223,27 @@
         <v>31</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14">
         <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="15"/>
@@ -6220,23 +6254,23 @@
         <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>21</v>
@@ -6245,7 +6279,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="15"/>
@@ -6256,23 +6290,23 @@
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -6286,10 +6320,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>29</v>
@@ -6298,14 +6332,14 @@
       <c r="H12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="128"/>
+      <c r="I12" s="118"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="5"/>
       <c r="N12" s="13"/>
       <c r="O12" s="16" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -6314,10 +6348,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>29</v>
@@ -6333,7 +6367,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="13"/>
       <c r="O13" s="16" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -6342,20 +6376,20 @@
         <v>12</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -6364,7 +6398,7 @@
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -6373,10 +6407,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>29</v>
@@ -6386,25 +6420,25 @@
         <v>30</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J15" s="89" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="K15" s="90" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="L15" s="89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M15" s="92">
         <v>1</v>
       </c>
       <c r="N15" s="77" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="O15" s="107" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
@@ -6417,10 +6451,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>29</v>
@@ -6430,25 +6464,25 @@
         <v>30</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="J16" s="89" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="K16" s="90" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="L16" s="89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M16" s="92">
         <v>1</v>
       </c>
       <c r="N16" s="77" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="O16" s="107" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="P16" s="81"/>
       <c r="Q16" s="81"/>
@@ -6464,27 +6498,27 @@
         <v>31</v>
       </c>
       <c r="E17" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="14">
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>38</v>
+        <v>484</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="15"/>
@@ -6495,23 +6529,23 @@
         <v>12</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>21</v>
@@ -6520,11 +6554,11 @@
         <v>15</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N18" s="13"/>
       <c r="P18" s="117" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -6533,23 +6567,23 @@
         <v>12</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -6563,10 +6597,10 @@
         <v>12</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>29</v>
@@ -6576,7 +6610,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13" t="s">
@@ -6589,10 +6623,10 @@
         <v>1</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -6601,10 +6635,10 @@
         <v>12</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>29</v>
@@ -6614,19 +6648,19 @@
         <v>30</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
       <c r="N21" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -6635,17 +6669,17 @@
         <v>12</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="13"/>
@@ -6654,10 +6688,10 @@
       <c r="M22" s="14"/>
       <c r="N22" s="13"/>
       <c r="O22" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P22" s="117" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -6666,10 +6700,10 @@
         <v>12</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>29</v>
@@ -6679,7 +6713,7 @@
         <v>30</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13" t="s">
@@ -6692,13 +6726,13 @@
         <v>1</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P23" s="117" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -6707,23 +6741,23 @@
         <v>12</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -6732,7 +6766,7 @@
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -6741,24 +6775,24 @@
         <v>12</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="14" t="s">
@@ -6773,23 +6807,23 @@
         <v>12</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="F26" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>21</v>
@@ -6798,13 +6832,13 @@
         <v>15</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -6813,23 +6847,23 @@
         <v>12</v>
       </c>
       <c r="D27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>21</v>
@@ -6838,11 +6872,11 @@
         <v>15</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -6851,10 +6885,10 @@
         <v>12</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -6862,25 +6896,25 @@
         <v>30</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>15</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6889,10 +6923,10 @@
         <v>12</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -6900,10 +6934,10 @@
         <v>30</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="J29" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29" s="58" t="s">
         <v>21</v>
@@ -6912,36 +6946,36 @@
         <v>15</v>
       </c>
       <c r="M29" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="52"/>
       <c r="C30" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="54" t="s">
         <v>234</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>236</v>
       </c>
       <c r="G30" s="54"/>
       <c r="H30" s="63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>21</v>
@@ -6950,7 +6984,7 @@
         <v>15</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N30" s="54"/>
       <c r="O30" s="55"/>
@@ -6958,26 +6992,26 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -6994,10 +7028,10 @@
       <c r="G32" s="13"/>
       <c r="H32" s="24"/>
       <c r="I32" s="12" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>21</v>
@@ -7006,24 +7040,24 @@
         <v>15</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="15"/>
       <c r="P32" s="117" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -7031,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -7045,23 +7079,23 @@
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="24">
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -7073,13 +7107,13 @@
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -7087,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -7099,21 +7133,21 @@
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>242</v>
+        <v>486</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -7125,13 +7159,13 @@
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>243</v>
+        <v>487</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -7139,11 +7173,11 @@
         <v>30</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="14" t="s">
@@ -7155,26 +7189,26 @@
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>253</v>
+        <v>488</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="24">
         <v>1</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>21</v>
@@ -7183,36 +7217,36 @@
         <v>15</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N38" s="128" t="s">
-        <v>515</v>
+        <v>44</v>
+      </c>
+      <c r="N38" s="118" t="s">
+        <v>477</v>
       </c>
       <c r="O38" s="15"/>
       <c r="P38" s="117" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="24">
         <v>1</v>
       </c>
-      <c r="I39" s="128" t="s">
-        <v>510</v>
+      <c r="I39" s="118" t="s">
+        <v>472</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -7224,23 +7258,23 @@
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>254</v>
+        <v>489</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="24">
         <v>1</v>
       </c>
-      <c r="I40" s="128" t="s">
-        <v>511</v>
+      <c r="I40" s="118" t="s">
+        <v>473</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -7252,56 +7286,56 @@
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>255</v>
+        <v>490</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="128" t="s">
-        <v>511</v>
+      <c r="I41" s="118" t="s">
+        <v>473</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="128" t="s">
-        <v>513</v>
+      <c r="N41" s="118" t="s">
+        <v>475</v>
       </c>
       <c r="O41" s="15"/>
       <c r="P41" s="117" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>256</v>
+        <v>491</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="128" t="s">
-        <v>516</v>
+      <c r="I42" s="118" t="s">
+        <v>478</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -7313,24 +7347,27 @@
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>257</v>
+        <v>492</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
+      <c r="I43" s="118" t="s">
+        <v>480</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>481</v>
+      </c>
       <c r="L43" s="13"/>
       <c r="M43" s="14"/>
       <c r="N43" s="13"/>
@@ -7339,22 +7376,25 @@
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>258</v>
+        <v>493</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
+      <c r="I44" s="118" t="s">
+        <v>501</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>481</v>
+      </c>
       <c r="L44" s="13"/>
       <c r="M44" s="14"/>
       <c r="N44" s="13"/>
@@ -7363,13 +7403,13 @@
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>244</v>
+        <v>494</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -7377,11 +7417,11 @@
         <v>30</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L45" s="13"/>
       <c r="M45" s="14" t="s">
@@ -7393,26 +7433,26 @@
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>259</v>
+        <v>495</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="24">
         <v>1</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>21</v>
@@ -7421,7 +7461,7 @@
         <v>15</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="15"/>
@@ -7429,16 +7469,16 @@
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="24">
@@ -7455,22 +7495,24 @@
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>261</v>
+        <v>497</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="13"/>
+      <c r="I48" s="118" t="s">
+        <v>480</v>
+      </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
@@ -7481,22 +7523,24 @@
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>262</v>
+        <v>498</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="13"/>
+      <c r="I49" s="118" t="s">
+        <v>480</v>
+      </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
@@ -7507,20 +7551,22 @@
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>263</v>
+        <v>499</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="13"/>
+      <c r="I50" s="118" t="s">
+        <v>501</v>
+      </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
@@ -7531,10 +7577,10 @@
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>264</v>
+        <v>500</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -7551,20 +7597,22 @@
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>502</v>
+      </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
@@ -7575,10 +7623,10 @@
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -7587,7 +7635,7 @@
         <v>30</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="K53" s="13" t="s">
         <v>21</v>
@@ -7596,7 +7644,7 @@
         <v>15</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="15"/>
@@ -7604,10 +7652,10 @@
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -7616,7 +7664,7 @@
         <v>30</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>21</v>
@@ -7625,7 +7673,7 @@
         <v>15</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="15"/>
@@ -7633,10 +7681,10 @@
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
@@ -7653,20 +7701,22 @@
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="I56" s="118" t="s">
+        <v>503</v>
+      </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
@@ -7677,22 +7727,24 @@
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="24">
         <v>1</v>
       </c>
-      <c r="I57" s="13"/>
+      <c r="I57" s="118" t="s">
+        <v>503</v>
+      </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -7703,22 +7755,24 @@
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="24">
         <v>1</v>
       </c>
-      <c r="I58" s="13"/>
+      <c r="I58" s="118" t="s">
+        <v>503</v>
+      </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
@@ -7729,16 +7783,16 @@
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="12"/>
       <c r="C59" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="24" t="s">
@@ -7755,13 +7809,13 @@
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="12"/>
       <c r="C60" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -7776,26 +7830,28 @@
       <c r="N60" s="13"/>
       <c r="O60" s="15"/>
       <c r="P60" s="117" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="12"/>
       <c r="C61" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="I61" s="118" t="s">
+        <v>436</v>
+      </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
@@ -7806,22 +7862,24 @@
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="12"/>
       <c r="C62" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="24">
         <v>1</v>
       </c>
-      <c r="I62" s="13"/>
+      <c r="I62" s="118" t="s">
+        <v>436</v>
+      </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
@@ -7832,22 +7890,24 @@
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
       <c r="C63" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="29">
         <v>1</v>
       </c>
-      <c r="I63" s="18"/>
+      <c r="I63" s="129" t="s">
+        <v>436</v>
+      </c>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
@@ -7870,7 +7930,7 @@
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7890,22 +7950,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="125" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -7947,34 +8007,34 @@
         <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="11"/>
@@ -7983,14 +8043,14 @@
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13" t="s">
@@ -8003,26 +8063,26 @@
         <v>1</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
@@ -8035,26 +8095,26 @@
         <v>1</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13" t="s">
@@ -8067,28 +8127,28 @@
         <v>1</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="14" t="s">
@@ -8101,17 +8161,17 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="15"/>
       <c r="I9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>21</v>
@@ -8120,29 +8180,29 @@
         <v>15</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="15"/>
       <c r="I10" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="14" t="s">
@@ -8155,17 +8215,17 @@
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="30"/>
       <c r="I11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>21</v>
@@ -8174,11 +8234,11 @@
         <v>15</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -8195,8 +8255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="G14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8218,22 +8278,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="126" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -8275,19 +8335,19 @@
         <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -8304,10 +8364,10 @@
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -8324,10 +8384,10 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -8344,10 +8404,10 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -8364,22 +8424,22 @@
     <row r="8" spans="2:15" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43"/>
       <c r="C8" s="44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
       <c r="I8" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K8" s="44" t="s">
         <v>21</v>
@@ -8388,22 +8448,22 @@
         <v>15</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N8" s="48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O8" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -8420,10 +8480,10 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -8440,10 +8500,10 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -8460,10 +8520,10 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -8480,10 +8540,10 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -8500,13 +8560,13 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -8522,10 +8582,10 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -8542,10 +8602,10 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -8562,13 +8622,13 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -8592,10 +8652,10 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -8612,13 +8672,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -8634,19 +8694,19 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="15"/>
       <c r="I20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -8658,22 +8718,22 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="15"/>
       <c r="I21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>21</v>
@@ -8682,29 +8742,29 @@
         <v>15</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="15"/>
       <c r="I22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -8717,16 +8777,16 @@
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="15"/>
       <c r="I23" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -8738,29 +8798,29 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="15"/>
       <c r="I24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="K24" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="15"/>
@@ -8768,19 +8828,19 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="15"/>
       <c r="I25" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -8795,16 +8855,16 @@
         <v>12</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -8816,19 +8876,19 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -8841,10 +8901,10 @@
       <c r="B28" s="12"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -8861,7 +8921,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="13"/>
@@ -8879,7 +8939,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="13"/>
@@ -8897,7 +8957,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="13"/>
@@ -8915,7 +8975,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="13"/>
@@ -8933,7 +8993,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="13"/>
@@ -8951,16 +9011,16 @@
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="15"/>
       <c r="I34" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -8973,7 +9033,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="21" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13"/>
@@ -8991,7 +9051,7 @@
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="28" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="552">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -537,18 +537,6 @@
   </si>
   <si>
     <t>FI</t>
-  </si>
-  <si>
-    <t>eMandateRequest/Mandate/hasPower/Power/Identifier</t>
-  </si>
-  <si>
-    <t>eMandateRequest/Mandate/hasPower/Power/GeospatialConstraint</t>
-  </si>
-  <si>
-    <t>eMandateRequest/Mandate/hasPower/Power/FinancialTheresholdConstraint</t>
-  </si>
-  <si>
-    <t>eMandateRequest/Mandate/hasPower/Power/CurrentDelegationLevel</t>
   </si>
   <si>
     <t>Amount</t>
@@ -963,34 +951,10 @@
     <t>eMandateResponse/Mandate</t>
   </si>
   <si>
-    <t>eMandateResponse/Mandate/hasPower/Power/Type</t>
-  </si>
-  <si>
-    <t>eMandateResponse/Mandate/hasPower/Power/Identifier</t>
-  </si>
-  <si>
-    <t>eMandateResponse/Mandate/hasPower/Power/statusType</t>
-  </si>
-  <si>
-    <t>eMandateResponse/Mandate/hasPower/Power/GeospatialConstraint</t>
-  </si>
-  <si>
-    <t>eMandateResponse/Mandate/hasPower/Power/FinancialTheresholdConstraint</t>
-  </si>
-  <si>
-    <t>eMandateResponse/Mandate/hasPower/Power/CurrentDelegationLevel</t>
-  </si>
-  <si>
     <t>eMandateResponse/Mandate/hasPower/Power/powerOf/Mandator</t>
   </si>
   <si>
     <t>eMandateResponse/Mandate/hasPower/Power/powerOf/Mandator/ID</t>
-  </si>
-  <si>
-    <t>eMandateResponse/Mandate/hasPower/Power/assignedTo/Mandatee</t>
-  </si>
-  <si>
-    <t>eMandateResponse/Mandate/hasPower/Power/assignedTo/Mandatee/ID</t>
   </si>
   <si>
     <t>eMandateResponse/Mandate/validityPeriodConstraint/ubl:Period</t>
@@ -1606,6 +1570,126 @@
   </si>
   <si>
     <t>@AT: Do you refer to the constraints of the mandator's and mandatee's use of the power in an power? Otherwise can you explain and PROVIDE EXAMPLES, please?</t>
+  </si>
+  <si>
+    <t>eMandateRequest/System</t>
+  </si>
+  <si>
+    <t>eMandateRequest/System/ID</t>
+  </si>
+  <si>
+    <t>The identifier(s) of the System</t>
+  </si>
+  <si>
+    <t>The system that issued the eMandateRequest document.</t>
+  </si>
+  <si>
+    <t>eMandateRequest/DocumentReference</t>
+  </si>
+  <si>
+    <t>A condition that needs to be answered for evaluation purposes.</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Name</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Type</t>
+  </si>
+  <si>
+    <t>eMandateRequest/CustomizationID</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Note</t>
+  </si>
+  <si>
+    <t>skos:Note</t>
+  </si>
+  <si>
+    <t>eMandateRequest/ProfileExecutionID</t>
+  </si>
+  <si>
+    <t>eMandateRequest/ProfileID</t>
+  </si>
+  <si>
+    <t>eMandateRequest/rpamVersionID</t>
+  </si>
+  <si>
+    <t>The date and time, assigned by the sender, on which this document was issued.</t>
+  </si>
+  <si>
+    <t>The version of the RPaM specification upon which this document instance is based on.</t>
+  </si>
+  <si>
+    <t>Identifies a user-defined application profile of RPaM being used.</t>
+  </si>
+  <si>
+    <t>Identifies an instance of executing a profile, to associate all transactions in a collaboration.</t>
+  </si>
+  <si>
+    <t>Free-form text pertinent to this document, conveying information that is not contained explicitly in other structures.</t>
+  </si>
+  <si>
+    <t>Identifies a user-defined customization of the RPaM standard model for a specific use.</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/Identifier</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/GeospatialConstraint</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/FinancialTheresholdConstraint</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/assignedToMandatee/ID</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/assignedToMandatee</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/powerOfMandator/ID</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/powerOfMandator</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/Type</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/Identifier</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/statusType</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/GeospatialConstraint</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/FinancialTheresholdConstraint</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/CurrentDelegationLevel</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/powerOfMandator</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/powerOfMandator/ID</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/assignedToMandatee</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/assignedToMandatee/ID</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/DelegationLevel</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/Description</t>
+  </si>
+  <si>
+    <t>eMandateRequest/Mandate/Power/Name</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1969,21 +2053,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2016,9 +2085,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2127,9 +2196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2150,7 +2216,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2209,7 +2275,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2240,7 +2307,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2548,10 +2620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N34"/>
+  <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,23 +2641,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="B2" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
       <c r="H2" s="39"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2616,7 +2688,7 @@
         <v>165</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L3" s="35" t="s">
         <v>166</v>
@@ -2635,7 +2707,9 @@
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>526</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
@@ -2682,86 +2756,80 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="34"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="13"/>
+        <v>521</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" s="21"/>
       <c r="G7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
     </row>
@@ -2770,20 +2838,22 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>524</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>528</v>
+      </c>
       <c r="E9" s="21" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="13"/>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21"/>
       <c r="I9" s="15"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="33"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
@@ -2793,53 +2863,53 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="5">
+        <v>525</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>41</v>
-      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="34"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -2847,99 +2917,97 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>508</v>
+      </c>
       <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>62</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="33" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
-      <c r="M12" s="31"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
-    <row r="13" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="13"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="21"/>
+      <c r="C14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="F14" s="13"/>
       <c r="G14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="34"/>
       <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>172</v>
+        <v>518</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="21" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="5" t="s">
-        <v>44</v>
+      <c r="G15" s="5">
+        <v>1</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="31"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
@@ -2949,25 +3017,21 @@
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>69</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
       <c r="H16" s="13"/>
-      <c r="I16" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="33"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
     </row>
@@ -2976,457 +3040,786 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="33"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F18" s="21"/>
+      <c r="G18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="C19" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="33"/>
+    </row>
+    <row r="22" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="33" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="31"/>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57" t="s">
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="61" t="s">
+      <c r="C25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
+      <c r="I25" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
-        <v>232</v>
+      <c r="B26" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>312</v>
+        <v>538</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+    </row>
+    <row r="32" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="2:14" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>517</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="62"/>
+      <c r="G33" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="62"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G37" s="5">
         <v>1</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="21" t="s">
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="5" t="s">
+      <c r="F39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="5" t="s">
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="5" t="s">
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="21" t="s">
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14" t="s">
+      <c r="F44" s="13"/>
+      <c r="G44" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G46" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="58" t="s">
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F47" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="59" t="s">
+      <c r="G47" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="58"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3442,1603 +3835,1603 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="H21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="81" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" style="81" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="81" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="82" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.28515625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="81" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" style="81" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="82" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="81"/>
-    <col min="15" max="15" width="21.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="81" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="81"/>
+    <col min="1" max="1" width="3.28515625" style="78" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="78" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="78" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.28515625" style="78" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="78" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="79" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="78"/>
+    <col min="15" max="15" width="21.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="78" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="86" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="80"/>
+      <c r="C5" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83">
+        <v>1</v>
+      </c>
+      <c r="I5" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="87"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="78" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="85"/>
+      <c r="C6" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="J6" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="L6" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="M6" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="87"/>
+      <c r="O6" s="103"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="85"/>
+      <c r="C7" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>359</v>
+      </c>
+      <c r="J7" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="K7" s="75"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="87"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="85"/>
+      <c r="C8" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88">
+        <v>1</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="111" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="85"/>
+      <c r="C9" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88">
+        <v>1</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="J9" s="87"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="111" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="85"/>
+      <c r="C10" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="J10" s="86" t="s">
+        <v>362</v>
+      </c>
+      <c r="K10" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="87"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="76"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="85"/>
+      <c r="C12" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="J12" s="87"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="J13" s="87"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="111" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88">
+        <v>1</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="J14" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="87"/>
+      <c r="O14" s="103"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="J15" s="87"/>
+      <c r="K15" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="L15" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="M15" s="91">
+        <v>1</v>
+      </c>
+      <c r="N15" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J16" s="87"/>
+      <c r="K16" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="91">
+        <v>1</v>
+      </c>
+      <c r="N16" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="104" t="s">
+        <v>363</v>
+      </c>
+      <c r="P16" s="102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88">
+        <v>1</v>
+      </c>
+      <c r="I17" s="85" t="s">
+        <v>500</v>
+      </c>
+      <c r="J17" s="87"/>
+      <c r="K17" s="75" t="s">
+        <v>368</v>
+      </c>
+      <c r="L17" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="104" t="s">
+        <v>369</v>
+      </c>
+      <c r="P17" s="102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88">
+        <v>1</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>501</v>
+      </c>
+      <c r="J18" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>383</v>
+      </c>
+      <c r="L18" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="87"/>
+      <c r="O18" s="104" t="s">
+        <v>384</v>
+      </c>
+      <c r="P18" s="111" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88">
+        <v>1</v>
+      </c>
+      <c r="I19" s="85" t="s">
+        <v>500</v>
+      </c>
+      <c r="J19" s="87" t="s">
+        <v>371</v>
+      </c>
+      <c r="K19" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="87"/>
+      <c r="M19" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="87"/>
+      <c r="O19" s="103"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88">
+        <v>1</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="J20" s="86" t="s">
+        <v>372</v>
+      </c>
+      <c r="K20" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="87"/>
+      <c r="M20" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="87"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="111" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="87"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="111" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="87"/>
+      <c r="H22" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="85" t="s">
+        <v>377</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="K22" s="87"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="89">
+        <v>1</v>
+      </c>
+      <c r="N22" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="O22" s="104" t="s">
+        <v>386</v>
+      </c>
+      <c r="P22" s="101" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>510</v>
+      </c>
+      <c r="K23" s="87"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="89">
+        <v>1</v>
+      </c>
+      <c r="N23" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="O23" s="104" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="P23" s="101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>390</v>
+      </c>
+      <c r="K24" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="89">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="76" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83"/>
-      <c r="C5" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86">
+      <c r="N24" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="O24" s="103" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>391</v>
+      </c>
+      <c r="K25" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="L25" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="89">
         <v>1</v>
       </c>
-      <c r="I5" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="78" t="s">
+      <c r="N25" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="O25" s="104" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>492</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>394</v>
+      </c>
+      <c r="K26" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="L26" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="87"/>
+      <c r="O26" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="P26" s="101" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="85" t="s">
+        <v>494</v>
+      </c>
+      <c r="J27" s="74" t="s">
+        <v>395</v>
+      </c>
+      <c r="K27" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="L27" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="87"/>
+      <c r="O27" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="P27" s="101" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="J28" s="74" t="s">
+        <v>503</v>
+      </c>
+      <c r="K28" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="L28" s="87"/>
+      <c r="M28" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="87"/>
+      <c r="O28" s="103" t="s">
+        <v>398</v>
+      </c>
+      <c r="P28" s="86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="87"/>
+      <c r="O29" s="103"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="87"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="101" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="85" t="s">
+        <v>495</v>
+      </c>
+      <c r="J31" s="86" t="s">
+        <v>372</v>
+      </c>
+      <c r="K31" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="87"/>
+      <c r="M31" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="87"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="111" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="J32" s="86" t="s">
+        <v>372</v>
+      </c>
+      <c r="K32" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="87"/>
+      <c r="M32" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="74" t="s">
+        <v>506</v>
+      </c>
+      <c r="O32" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="111" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="J33" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="90" t="s">
+      <c r="L33" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M33" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="90"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="81" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91" t="s">
+      <c r="N33" s="87"/>
+      <c r="O33" s="103"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="J34" s="74" t="s">
+        <v>503</v>
+      </c>
+      <c r="K34" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="L34" s="87"/>
+      <c r="M34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="77" t="s">
-        <v>509</v>
-      </c>
-      <c r="J6" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="L6" s="90" t="s">
-        <v>378</v>
-      </c>
-      <c r="M6" s="92" t="s">
+      <c r="N34" s="87"/>
+      <c r="O34" s="103" t="s">
+        <v>398</v>
+      </c>
+      <c r="P34" s="86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="85" t="s">
+        <v>412</v>
+      </c>
+      <c r="J35" s="86" t="s">
+        <v>413</v>
+      </c>
+      <c r="K35" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="86" t="s">
+        <v>382</v>
+      </c>
+      <c r="M35" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="87"/>
+      <c r="O35" s="103" t="s">
+        <v>507</v>
+      </c>
+      <c r="P35" s="101" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="85"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="J36" s="74" t="s">
+        <v>503</v>
+      </c>
+      <c r="K36" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="L36" s="87"/>
+      <c r="M36" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="106"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91" t="s">
+      <c r="N36" s="87"/>
+      <c r="O36" s="103" t="s">
+        <v>415</v>
+      </c>
+      <c r="P36" s="101" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="J37" s="74" t="s">
+        <v>503</v>
+      </c>
+      <c r="K37" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="L37" s="87"/>
+      <c r="M37" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="77" t="s">
-        <v>371</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>372</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="94" t="s">
+      <c r="N37" s="87"/>
+      <c r="O37" s="103" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="J38" s="74" t="s">
+        <v>503</v>
+      </c>
+      <c r="K38" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="L38" s="87"/>
+      <c r="M38" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="114" t="s">
+      <c r="N38" s="87"/>
+      <c r="O38" s="103" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="93" t="s">
+        <v>380</v>
+      </c>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39" s="86"/>
+      <c r="M39" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="86"/>
+      <c r="O39" s="106"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="J40" s="74" t="s">
+        <v>503</v>
+      </c>
+      <c r="K40" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="L40" s="87"/>
+      <c r="M40" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="87"/>
+      <c r="O40" s="103"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="97">
+        <v>1</v>
+      </c>
+      <c r="I41" s="112" t="s">
+        <v>364</v>
+      </c>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="107" t="s">
+        <v>416</v>
+      </c>
+      <c r="P41" s="101" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="80"/>
+      <c r="C42" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="82"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="110" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="85"/>
+      <c r="C43" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="F43" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="87"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="76" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="85"/>
+      <c r="C44" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="87"/>
+      <c r="H44" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="J44" s="87" t="s">
+        <v>508</v>
+      </c>
+      <c r="K44" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="87"/>
+      <c r="M44" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="87"/>
+      <c r="O44" s="90"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="85"/>
+      <c r="C45" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="87"/>
+      <c r="H45" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="85" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="88"/>
-      <c r="C8" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91">
-        <v>1</v>
-      </c>
-      <c r="I8" s="80" t="s">
-        <v>376</v>
-      </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="114" t="s">
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="87"/>
+      <c r="O45" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="P45" s="101" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="85"/>
+      <c r="C46" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="87"/>
+      <c r="H46" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="85" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="88"/>
-      <c r="C9" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D9" s="89" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91">
-        <v>1</v>
-      </c>
-      <c r="I9" s="80" t="s">
-        <v>376</v>
-      </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="114" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="88"/>
-      <c r="C10" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" s="89" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>374</v>
-      </c>
-      <c r="K10" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="87" t="s">
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="87"/>
+      <c r="O46" s="107" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="85"/>
+      <c r="C47" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="74" t="s">
+        <v>424</v>
+      </c>
+      <c r="J47" s="87" t="s">
+        <v>505</v>
+      </c>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="101" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="85"/>
+      <c r="C48" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="85" t="s">
+        <v>426</v>
+      </c>
+      <c r="J48" s="87" t="s">
+        <v>428</v>
+      </c>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="90"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="79"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="88"/>
-      <c r="C11" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="80" t="s">
-        <v>376</v>
-      </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="114" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="88"/>
-      <c r="C12" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D12" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="80" t="s">
-        <v>376</v>
-      </c>
-      <c r="J12" s="90"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="114" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="88"/>
-      <c r="C13" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="80" t="s">
-        <v>376</v>
-      </c>
-      <c r="J13" s="90"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="114" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91">
-        <v>1</v>
-      </c>
-      <c r="I14" s="88" t="s">
-        <v>388</v>
-      </c>
-      <c r="J14" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="90"/>
-      <c r="O14" s="106"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91" t="s">
+      <c r="N48" s="87"/>
+      <c r="O48" s="107" t="s">
+        <v>432</v>
+      </c>
+      <c r="P48" s="101" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="85"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="85" t="s">
+        <v>427</v>
+      </c>
+      <c r="J49" s="87" t="s">
+        <v>429</v>
+      </c>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="77" t="s">
-        <v>510</v>
-      </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="L15" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="M15" s="94">
-        <v>1</v>
-      </c>
-      <c r="N15" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="107" t="s">
+      <c r="N49" s="87"/>
+      <c r="O49" s="90"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="94"/>
+      <c r="C50" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="96" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="114" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91" t="s">
+      <c r="G50" s="96"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="85" t="s">
+        <v>425</v>
+      </c>
+      <c r="J50" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="88" t="s">
-        <v>511</v>
-      </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="94">
-        <v>1</v>
-      </c>
-      <c r="N16" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="P16" s="105" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91">
-        <v>1</v>
-      </c>
-      <c r="I17" s="88" t="s">
-        <v>512</v>
-      </c>
-      <c r="J17" s="90"/>
-      <c r="K17" s="78" t="s">
-        <v>380</v>
-      </c>
-      <c r="L17" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="107" t="s">
-        <v>381</v>
-      </c>
-      <c r="P17" s="105" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91">
-        <v>1</v>
-      </c>
-      <c r="I18" s="77" t="s">
-        <v>513</v>
-      </c>
-      <c r="J18" s="90" t="s">
-        <v>382</v>
-      </c>
-      <c r="K18" s="78" t="s">
-        <v>395</v>
-      </c>
-      <c r="L18" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="90"/>
-      <c r="O18" s="107" t="s">
-        <v>396</v>
-      </c>
-      <c r="P18" s="114" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91">
-        <v>1</v>
-      </c>
-      <c r="I19" s="88" t="s">
-        <v>512</v>
-      </c>
-      <c r="J19" s="90" t="s">
-        <v>383</v>
-      </c>
-      <c r="K19" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="90"/>
-      <c r="M19" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="90"/>
-      <c r="O19" s="106"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91">
-        <v>1</v>
-      </c>
-      <c r="I20" s="77" t="s">
-        <v>507</v>
-      </c>
-      <c r="J20" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="K20" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="90"/>
-      <c r="M20" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="90"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="114" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="77" t="s">
-        <v>514</v>
-      </c>
-      <c r="J21" s="89" t="s">
-        <v>385</v>
-      </c>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="90"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="114" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="88" t="s">
-        <v>389</v>
-      </c>
-      <c r="J22" s="89" t="s">
-        <v>401</v>
-      </c>
-      <c r="K22" s="90"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="92">
-        <v>1</v>
-      </c>
-      <c r="N22" s="77" t="s">
-        <v>397</v>
-      </c>
-      <c r="O22" s="107" t="s">
-        <v>398</v>
-      </c>
-      <c r="P22" s="104" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="88" t="s">
-        <v>388</v>
-      </c>
-      <c r="J23" s="89" t="s">
-        <v>522</v>
-      </c>
-      <c r="K23" s="90"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="92">
-        <v>1</v>
-      </c>
-      <c r="N23" s="77" t="s">
-        <v>400</v>
-      </c>
-      <c r="O23" s="107" t="s">
-        <v>399</v>
-      </c>
-      <c r="P23" s="104" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="88" t="s">
-        <v>390</v>
-      </c>
-      <c r="J24" s="89" t="s">
-        <v>402</v>
-      </c>
-      <c r="K24" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="92">
-        <v>1</v>
-      </c>
-      <c r="N24" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="O24" s="106" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="88" t="s">
-        <v>393</v>
-      </c>
-      <c r="J25" s="89" t="s">
-        <v>403</v>
-      </c>
-      <c r="K25" s="90" t="s">
-        <v>394</v>
-      </c>
-      <c r="L25" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="92">
-        <v>1</v>
-      </c>
-      <c r="N25" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="O25" s="107" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="88" t="s">
-        <v>504</v>
-      </c>
-      <c r="J26" s="89" t="s">
-        <v>406</v>
-      </c>
-      <c r="K26" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="L26" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="106" t="s">
-        <v>505</v>
-      </c>
-      <c r="P26" s="104" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="88" t="s">
-        <v>506</v>
-      </c>
-      <c r="J27" s="77" t="s">
-        <v>407</v>
-      </c>
-      <c r="K27" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="L27" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="90"/>
-      <c r="O27" s="106" t="s">
-        <v>409</v>
-      </c>
-      <c r="P27" s="104" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>515</v>
-      </c>
-      <c r="K28" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="L28" s="90"/>
-      <c r="M28" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="90"/>
-      <c r="O28" s="106" t="s">
-        <v>410</v>
-      </c>
-      <c r="P28" s="89" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="90"/>
-      <c r="H29" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="88" t="s">
-        <v>391</v>
-      </c>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="90"/>
-      <c r="O29" s="106"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="88" t="s">
-        <v>391</v>
-      </c>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="L30" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="90"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="104" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="88" t="s">
-        <v>507</v>
-      </c>
-      <c r="J31" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="K31" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="90"/>
-      <c r="M31" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="90"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="114" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="77" t="s">
-        <v>508</v>
-      </c>
-      <c r="J32" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="K32" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="90"/>
-      <c r="M32" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="77" t="s">
-        <v>518</v>
-      </c>
-      <c r="O32" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" s="114" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="88" t="s">
-        <v>388</v>
-      </c>
-      <c r="J33" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="90"/>
-      <c r="O33" s="106"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="88"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="J34" s="77" t="s">
-        <v>515</v>
-      </c>
-      <c r="K34" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="L34" s="90"/>
-      <c r="M34" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="90"/>
-      <c r="O34" s="106" t="s">
-        <v>410</v>
-      </c>
-      <c r="P34" s="89" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="88" t="s">
-        <v>424</v>
-      </c>
-      <c r="J35" s="89" t="s">
-        <v>425</v>
-      </c>
-      <c r="K35" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="89" t="s">
-        <v>394</v>
-      </c>
-      <c r="M35" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="90"/>
-      <c r="O35" s="106" t="s">
-        <v>519</v>
-      </c>
-      <c r="P35" s="104" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="J36" s="77" t="s">
-        <v>515</v>
-      </c>
-      <c r="K36" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="L36" s="90"/>
-      <c r="M36" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="90"/>
-      <c r="O36" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="P36" s="104" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="J37" s="77" t="s">
-        <v>515</v>
-      </c>
-      <c r="K37" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="L37" s="90"/>
-      <c r="M37" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="90"/>
-      <c r="O37" s="106" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="88"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="J38" s="77" t="s">
-        <v>515</v>
-      </c>
-      <c r="K38" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="L38" s="90"/>
-      <c r="M38" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="90"/>
-      <c r="O38" s="106" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="88"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="96" t="s">
-        <v>392</v>
-      </c>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="L39" s="89"/>
-      <c r="M39" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="89"/>
-      <c r="O39" s="109"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="88"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="J40" s="77" t="s">
-        <v>515</v>
-      </c>
-      <c r="K40" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="L40" s="90"/>
-      <c r="M40" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="90"/>
-      <c r="O40" s="106"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="97"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="100">
-        <v>1</v>
-      </c>
-      <c r="I41" s="115" t="s">
-        <v>376</v>
-      </c>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="110" t="s">
-        <v>428</v>
-      </c>
-      <c r="P41" s="104" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="83"/>
-      <c r="C42" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="84" t="s">
-        <v>287</v>
-      </c>
-      <c r="E42" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="85"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="116" t="s">
-        <v>376</v>
-      </c>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="113" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="88"/>
-      <c r="C43" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="89" t="s">
-        <v>288</v>
-      </c>
-      <c r="E43" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="F43" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" s="90"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="116" t="s">
-        <v>376</v>
-      </c>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="79" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="88"/>
-      <c r="C44" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="89" t="s">
-        <v>290</v>
-      </c>
-      <c r="E44" s="89" t="s">
-        <v>301</v>
-      </c>
-      <c r="F44" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="90"/>
-      <c r="H44" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="89" t="s">
-        <v>309</v>
-      </c>
-      <c r="J44" s="90" t="s">
-        <v>520</v>
-      </c>
-      <c r="K44" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" s="90"/>
-      <c r="M44" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="N44" s="90"/>
-      <c r="O44" s="93"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="88"/>
-      <c r="C45" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="89" t="s">
-        <v>289</v>
-      </c>
-      <c r="E45" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="F45" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="90"/>
-      <c r="H45" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" s="88" t="s">
-        <v>432</v>
-      </c>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="90"/>
-      <c r="O45" s="110" t="s">
-        <v>435</v>
-      </c>
-      <c r="P45" s="104" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="88"/>
-      <c r="C46" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="D46" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="E46" s="90" t="s">
-        <v>299</v>
-      </c>
-      <c r="F46" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="90"/>
-      <c r="H46" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="88" t="s">
-        <v>432</v>
-      </c>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="90"/>
-      <c r="O46" s="110" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="88"/>
-      <c r="C47" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="89" t="s">
-        <v>292</v>
-      </c>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="77" t="s">
-        <v>436</v>
-      </c>
-      <c r="J47" s="90" t="s">
-        <v>517</v>
-      </c>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="104" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="88"/>
-      <c r="C48" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48" s="89" t="s">
-        <v>293</v>
-      </c>
-      <c r="E48" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="88" t="s">
-        <v>438</v>
-      </c>
-      <c r="J48" s="90" t="s">
-        <v>440</v>
-      </c>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="N48" s="90"/>
-      <c r="O48" s="110" t="s">
-        <v>444</v>
-      </c>
-      <c r="P48" s="104" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="88"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="J49" s="90" t="s">
-        <v>441</v>
-      </c>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="90"/>
-      <c r="O49" s="93"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="97"/>
-      <c r="C50" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" s="98" t="s">
-        <v>294</v>
-      </c>
-      <c r="E50" s="99" t="s">
-        <v>298</v>
-      </c>
-      <c r="F50" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="99"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="88" t="s">
-        <v>437</v>
-      </c>
-      <c r="J50" s="99" t="s">
-        <v>442</v>
-      </c>
-      <c r="K50" s="99"/>
-      <c r="L50" s="99"/>
-      <c r="M50" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" s="99"/>
-      <c r="O50" s="102"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5080,22 +5473,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="126" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5182,7 +5575,7 @@
         <v>159</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -5205,10 +5598,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -5240,7 +5633,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -5271,10 +5664,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -5310,7 +5703,7 @@
         <v>161</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -5341,10 +5734,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -5375,7 +5768,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -5395,7 +5788,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -5415,10 +5808,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -5439,7 +5832,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5462,13 +5855,13 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>161</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -5484,10 +5877,10 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -5504,10 +5897,10 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -5524,10 +5917,10 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -5544,13 +5937,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>160</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -5566,10 +5959,10 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5586,10 +5979,10 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5606,10 +5999,10 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -5626,13 +6019,13 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -5648,13 +6041,13 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -5670,10 +6063,10 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -5690,10 +6083,10 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -5710,10 +6103,10 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -5730,10 +6123,10 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -5750,10 +6143,10 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>341</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -5770,10 +6163,10 @@
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -5790,10 +6183,10 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -5810,10 +6203,10 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -5830,10 +6223,10 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -5850,10 +6243,10 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -5870,10 +6263,10 @@
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -5890,10 +6283,10 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -5910,10 +6303,10 @@
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -5930,13 +6323,13 @@
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -5952,13 +6345,13 @@
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="28" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -5988,7 +6381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -6011,22 +6404,22 @@
   <sheetData>
     <row r="1" spans="2:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="126" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -6116,7 +6509,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>6</v>
@@ -6128,8 +6521,8 @@
       <c r="H6" s="14">
         <v>1</v>
       </c>
-      <c r="I6" s="77" t="s">
-        <v>446</v>
+      <c r="I6" s="74" t="s">
+        <v>434</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
@@ -6183,8 +6576,8 @@
       <c r="O7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="117" t="s">
-        <v>447</v>
+      <c r="P7" s="114" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -6195,12 +6588,12 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="118" t="s">
-        <v>449</v>
+      <c r="I8" s="115" t="s">
+        <v>437</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="21" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="L8" s="21" t="s">
         <v>67</v>
@@ -6210,9 +6603,9 @@
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="P8" s="117"/>
+        <v>439</v>
+      </c>
+      <c r="P8" s="114"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
@@ -6223,7 +6616,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>32</v>
@@ -6236,7 +6629,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>35</v>
@@ -6332,14 +6725,14 @@
       <c r="H12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="118"/>
+      <c r="I12" s="115"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="5"/>
       <c r="N12" s="13"/>
       <c r="O12" s="16" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -6367,7 +6760,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="13"/>
       <c r="O13" s="16" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -6422,28 +6815,28 @@
       <c r="I15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="89" t="s">
-        <v>403</v>
-      </c>
-      <c r="K15" s="90" t="s">
-        <v>394</v>
-      </c>
-      <c r="L15" s="89" t="s">
+      <c r="J15" s="86" t="s">
+        <v>391</v>
+      </c>
+      <c r="K15" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="L15" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="92">
+      <c r="M15" s="89">
         <v>1</v>
       </c>
-      <c r="N15" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="O15" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
+      <c r="N15" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="O15" s="104" t="s">
+        <v>392</v>
+      </c>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
@@ -6464,30 +6857,30 @@
         <v>30</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="J16" s="89" t="s">
-        <v>403</v>
-      </c>
-      <c r="K16" s="90" t="s">
-        <v>394</v>
-      </c>
-      <c r="L16" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="J16" s="86" t="s">
+        <v>391</v>
+      </c>
+      <c r="K16" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="L16" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="92">
+      <c r="M16" s="89">
         <v>1</v>
       </c>
-      <c r="N16" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="O16" s="107" t="s">
-        <v>453</v>
-      </c>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
+      <c r="N16" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="O16" s="104" t="s">
+        <v>441</v>
+      </c>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
@@ -6498,7 +6891,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>32</v>
@@ -6508,10 +6901,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>35</v>
@@ -6542,7 +6935,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>43</v>
@@ -6557,8 +6950,8 @@
         <v>44</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="P18" s="117" t="s">
-        <v>456</v>
+      <c r="P18" s="114" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -6580,7 +6973,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>45</v>
@@ -6610,7 +7003,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13" t="s">
@@ -6648,7 +7041,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>45</v>
@@ -6690,8 +7083,8 @@
       <c r="O22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="P22" s="117" t="s">
-        <v>457</v>
+      <c r="P22" s="114" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -6713,7 +7106,7 @@
         <v>30</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13" t="s">
@@ -6731,8 +7124,8 @@
       <c r="O23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="117" t="s">
-        <v>458</v>
+      <c r="P23" s="114" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -6754,7 +7147,7 @@
         <v>30</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>69</v>
@@ -6788,7 +7181,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13" t="s">
@@ -6820,7 +7213,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>80</v>
@@ -6860,7 +7253,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>81</v>
@@ -6896,7 +7289,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>80</v>
@@ -6934,7 +7327,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="J29" s="58" t="s">
         <v>81</v>
@@ -6956,23 +7349,23 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="52"/>
       <c r="C30" s="53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F30" s="54" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G30" s="54"/>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="60" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>43</v>
@@ -6992,23 +7385,23 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>236</v>
-      </c>
       <c r="E31" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="24" t="s">
         <v>44</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>45</v>
@@ -7028,7 +7421,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="24"/>
       <c r="I32" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>43</v>
@@ -7044,20 +7437,20 @@
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="15"/>
-      <c r="P32" s="117" t="s">
-        <v>466</v>
+      <c r="P32" s="114" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -7065,7 +7458,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -7079,23 +7472,23 @@
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="24">
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -7107,13 +7500,13 @@
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -7121,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -7133,13 +7526,13 @@
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -7147,7 +7540,7 @@
         <v>36</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -7159,13 +7552,13 @@
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -7173,7 +7566,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13" t="s">
@@ -7189,23 +7582,23 @@
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="24">
         <v>1</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>80</v>
@@ -7219,34 +7612,34 @@
       <c r="M38" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="118" t="s">
-        <v>477</v>
+      <c r="N38" s="115" t="s">
+        <v>465</v>
       </c>
       <c r="O38" s="15"/>
-      <c r="P38" s="117" t="s">
-        <v>476</v>
+      <c r="P38" s="114" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="24">
         <v>1</v>
       </c>
-      <c r="I39" s="118" t="s">
-        <v>472</v>
+      <c r="I39" s="115" t="s">
+        <v>460</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -7258,23 +7651,23 @@
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="24">
         <v>1</v>
       </c>
-      <c r="I40" s="118" t="s">
-        <v>473</v>
+      <c r="I40" s="115" t="s">
+        <v>461</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -7286,56 +7679,56 @@
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="118" t="s">
-        <v>473</v>
+      <c r="I41" s="115" t="s">
+        <v>461</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="118" t="s">
-        <v>475</v>
+      <c r="N41" s="115" t="s">
+        <v>463</v>
       </c>
       <c r="O41" s="15"/>
-      <c r="P41" s="117" t="s">
-        <v>474</v>
+      <c r="P41" s="114" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="118" t="s">
-        <v>478</v>
+      <c r="I42" s="115" t="s">
+        <v>466</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -7347,26 +7740,26 @@
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I43" s="118" t="s">
-        <v>480</v>
+      <c r="I43" s="115" t="s">
+        <v>468</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="L43" s="13"/>
       <c r="M43" s="14"/>
@@ -7376,24 +7769,24 @@
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I44" s="118" t="s">
-        <v>501</v>
+      <c r="I44" s="115" t="s">
+        <v>489</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="14"/>
@@ -7403,13 +7796,13 @@
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -7417,7 +7810,7 @@
         <v>30</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13" t="s">
@@ -7433,23 +7826,23 @@
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="24">
         <v>1</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>80</v>
@@ -7469,16 +7862,16 @@
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="24">
@@ -7495,23 +7888,23 @@
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="118" t="s">
-        <v>480</v>
+      <c r="I48" s="115" t="s">
+        <v>468</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -7523,23 +7916,23 @@
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="118" t="s">
-        <v>480</v>
+      <c r="I49" s="115" t="s">
+        <v>468</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -7551,21 +7944,21 @@
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="118" t="s">
-        <v>501</v>
+      <c r="I50" s="115" t="s">
+        <v>489</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -7577,10 +7970,10 @@
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -7597,13 +7990,13 @@
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -7611,7 +8004,7 @@
         <v>36</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -7623,10 +8016,10 @@
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -7635,7 +8028,7 @@
         <v>30</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="K53" s="13" t="s">
         <v>21</v>
@@ -7652,10 +8045,10 @@
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -7664,7 +8057,7 @@
         <v>30</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>21</v>
@@ -7681,10 +8074,10 @@
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
@@ -7701,21 +8094,21 @@
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I56" s="118" t="s">
-        <v>503</v>
+      <c r="I56" s="115" t="s">
+        <v>491</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
@@ -7727,23 +8120,23 @@
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="24">
         <v>1</v>
       </c>
-      <c r="I57" s="118" t="s">
-        <v>503</v>
+      <c r="I57" s="115" t="s">
+        <v>491</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -7755,23 +8148,23 @@
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="24">
         <v>1</v>
       </c>
-      <c r="I58" s="118" t="s">
-        <v>503</v>
+      <c r="I58" s="115" t="s">
+        <v>491</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -7783,16 +8176,16 @@
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="12"/>
       <c r="C59" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="24" t="s">
@@ -7809,13 +8202,13 @@
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="12"/>
       <c r="C60" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -7829,28 +8222,28 @@
       <c r="M60" s="14"/>
       <c r="N60" s="13"/>
       <c r="O60" s="15"/>
-      <c r="P60" s="117" t="s">
-        <v>479</v>
+      <c r="P60" s="114" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="12"/>
       <c r="C61" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I61" s="118" t="s">
-        <v>436</v>
+      <c r="I61" s="115" t="s">
+        <v>424</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -7862,23 +8255,23 @@
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="12"/>
       <c r="C62" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="24">
         <v>1</v>
       </c>
-      <c r="I62" s="118" t="s">
-        <v>436</v>
+      <c r="I62" s="115" t="s">
+        <v>424</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -7890,23 +8283,23 @@
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
       <c r="C63" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="29">
         <v>1</v>
       </c>
-      <c r="I63" s="129" t="s">
-        <v>436</v>
+      <c r="I63" s="116" t="s">
+        <v>424</v>
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
@@ -7950,22 +8343,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="126" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -8017,7 +8410,7 @@
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -8027,7 +8420,7 @@
         <v>34</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>35</v>
@@ -8043,7 +8436,7 @@
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -8073,10 +8466,10 @@
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -8105,10 +8498,10 @@
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -8137,7 +8530,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -8161,7 +8554,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -8191,7 +8584,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -8215,7 +8608,7 @@
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -8278,22 +8671,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="127" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -8344,10 +8737,10 @@
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -8364,10 +8757,10 @@
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -8384,10 +8777,10 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -8404,10 +8797,10 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -8424,22 +8817,22 @@
     <row r="8" spans="2:15" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43"/>
       <c r="C8" s="44" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
       <c r="I8" s="46" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K8" s="44" t="s">
         <v>21</v>
@@ -8460,10 +8853,10 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -8480,10 +8873,10 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -8500,10 +8893,10 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -8520,10 +8913,10 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -8540,10 +8933,10 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -8560,13 +8953,13 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -8582,10 +8975,10 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -8602,10 +8995,10 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -8622,13 +9015,13 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -8652,10 +9045,10 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -8672,13 +9065,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -8694,13 +9087,13 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -8718,13 +9111,13 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -8752,13 +9145,13 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -8777,10 +9170,10 @@
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -8798,13 +9191,13 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -8813,7 +9206,7 @@
         <v>34</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>35</v>
@@ -8828,13 +9221,13 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -8855,10 +9248,10 @@
         <v>12</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -8876,13 +9269,13 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -8901,10 +9294,10 @@
       <c r="B28" s="12"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -8921,7 +9314,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="13"/>
@@ -8939,7 +9332,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="13"/>
@@ -8957,7 +9350,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="13"/>
@@ -8975,7 +9368,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="13"/>
@@ -8993,7 +9386,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="13"/>
@@ -9011,10 +9404,10 @@
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -9033,7 +9426,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="21" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13"/>
@@ -9051,7 +9444,7 @@
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="28" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>

--- a/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual_Data_Model/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="555">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -930,9 +930,6 @@
     <t>eMandateResponse</t>
   </si>
   <si>
-    <t>eMandateResponse/eMandateID</t>
-  </si>
-  <si>
     <t>ConsultarApoderamientosResponse/ResultadoError</t>
   </si>
   <si>
@@ -958,9 +955,6 @@
   </si>
   <si>
     <t>eMandateResponse/Mandate/validityPeriodConstraint/ubl:Period</t>
-  </si>
-  <si>
-    <t>The identifier(s) of the eMandate.</t>
   </si>
   <si>
     <t>eMandateResponse/Mandate/ID</t>
@@ -1584,12 +1578,6 @@
     <t>The system that issued the eMandateRequest document.</t>
   </si>
   <si>
-    <t>eMandateRequest/DocumentReference</t>
-  </si>
-  <si>
-    <t>A condition that needs to be answered for evaluation purposes.</t>
-  </si>
-  <si>
     <t>eMandateRequest/Mandate/Name</t>
   </si>
   <si>
@@ -1650,9 +1638,6 @@
     <t>eMandateRequest/Mandate/Power/powerOfMandator/ID</t>
   </si>
   <si>
-    <t>eMandateRequest/Mandate/Power/powerOfMandator</t>
-  </si>
-  <si>
     <t>eMandateResponse/Mandate/Power/Type</t>
   </si>
   <si>
@@ -1668,9 +1653,6 @@
     <t>eMandateResponse/Mandate/Power/FinancialTheresholdConstraint</t>
   </si>
   <si>
-    <t>eMandateResponse/Mandate/Power/CurrentDelegationLevel</t>
-  </si>
-  <si>
     <t>eMandateResponse/Mandate/Power/powerOfMandator</t>
   </si>
   <si>
@@ -1690,6 +1672,33 @@
   </si>
   <si>
     <t>eMandateRequest/Mandate/Power/Name</t>
+  </si>
+  <si>
+    <t>eMandateResponse/System</t>
+  </si>
+  <si>
+    <t>eMandateResponse/System/ID</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/Power/DelegationLevel</t>
+  </si>
+  <si>
+    <t>eMandateResponse/MandateID</t>
+  </si>
+  <si>
+    <t>The identifier(s) of the mandate.</t>
+  </si>
+  <si>
+    <t>The system that issued the mandateRequest document.</t>
+  </si>
+  <si>
+    <t>The result(s) of the power of one or more mandatees by one or more mandator(s).</t>
+  </si>
+  <si>
+    <t>eMandateResponse/ubl:DocumentReference</t>
+  </si>
+  <si>
+    <t>eMandateRequest/ubl:DocumentReference</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2081,13 +2090,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2199,9 +2223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2277,6 +2299,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2307,12 +2334,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2620,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N47"/>
+  <dimension ref="B2:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,23 +2663,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="39"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2708,7 +2730,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>19</v>
@@ -2761,10 +2783,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>21</v>
@@ -2776,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="21"/>
-      <c r="I6" s="130"/>
+      <c r="I6" s="117"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
@@ -2788,20 +2810,20 @@
         <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="21"/>
-      <c r="I7" s="130"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
@@ -2813,10 +2835,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>21</v>
@@ -2838,10 +2860,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>524</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>528</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>21</v>
@@ -2863,10 +2885,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>21</v>
@@ -2920,7 +2942,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>35</v>
@@ -2994,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="21" t="s">
@@ -3017,7 +3039,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="21" t="s">
@@ -3040,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
@@ -3071,7 +3093,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
@@ -3094,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
@@ -3117,7 +3139,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
@@ -3140,7 +3162,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
@@ -3171,7 +3193,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
@@ -3194,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
@@ -3217,7 +3239,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="21" t="s">
@@ -3269,7 +3291,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>538</v>
+        <v>450</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
@@ -3292,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>80</v>
@@ -3325,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>81</v>
@@ -3356,7 +3378,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>189</v>
@@ -3389,10 +3411,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>35</v>
@@ -3414,10 +3436,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>21</v>
@@ -3436,148 +3458,150 @@
       <c r="M31" s="34"/>
       <c r="N31" s="34"/>
     </row>
-    <row r="32" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+    <row r="32" spans="2:14" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21" t="s">
+      <c r="C32" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="5" t="s">
+      <c r="F32" s="61"/>
+      <c r="G32" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-    </row>
-    <row r="33" spans="2:14" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>517</v>
-      </c>
-      <c r="E33" s="62" t="s">
+      <c r="H32" s="61"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+    </row>
+    <row r="34" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>551</v>
+      </c>
       <c r="E34" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="21"/>
+      <c r="G34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+    </row>
+    <row r="35" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E35" s="13" t="s">
+      <c r="C35" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="36" t="s">
         <v>228</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>305</v>
+        <v>549</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="D37" s="13"/>
+      <c r="C37" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>552</v>
+      </c>
       <c r="E37" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
+      <c r="K37" s="63"/>
       <c r="L37" s="56"/>
       <c r="M37" s="56"/>
       <c r="N37" s="56"/>
@@ -3586,16 +3610,18 @@
       <c r="B38" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>540</v>
+      <c r="C38" s="13" t="s">
+        <v>534</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="5" t="s">
-        <v>36</v>
+      <c r="E38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
@@ -3609,18 +3635,16 @@
       <c r="B39" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>541</v>
+      <c r="C39" s="21" t="s">
+        <v>535</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
+      <c r="E39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -3634,16 +3658,18 @@
       <c r="B40" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>542</v>
+      <c r="C40" s="13" t="s">
+        <v>536</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="5" t="s">
-        <v>44</v>
+      <c r="F40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -3658,11 +3684,11 @@
         <v>228</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="21" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="5" t="s">
@@ -3680,14 +3706,14 @@
       <c r="B42" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>544</v>
+      <c r="C42" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="13"/>
+        <v>169</v>
+      </c>
+      <c r="F42" s="21"/>
       <c r="G42" s="5" t="s">
         <v>44</v>
       </c>
@@ -3704,17 +3730,19 @@
         <v>228</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>308</v>
+        <v>548</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="21" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
+      <c r="G43" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="65"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
       <c r="M43" s="56"/>
@@ -3725,19 +3753,17 @@
         <v>228</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>545</v>
+        <v>307</v>
       </c>
       <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>35</v>
+      <c r="E44" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="F44" s="13"/>
-      <c r="G44" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="G44" s="14"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="65"/>
+      <c r="J44" s="63"/>
       <c r="K44" s="56"/>
       <c r="L44" s="56"/>
       <c r="M44" s="56"/>
@@ -3748,23 +3774,19 @@
         <v>228</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>80</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>15</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F45" s="13"/>
       <c r="G45" s="14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="65"/>
+      <c r="J45" s="63"/>
       <c r="K45" s="56"/>
       <c r="L45" s="56"/>
       <c r="M45" s="56"/>
@@ -3775,7 +3797,10 @@
         <v>228</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>547</v>
+        <v>540</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>21</v>
@@ -3788,38 +3813,85 @@
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="65"/>
+      <c r="J46" s="63"/>
       <c r="K46" s="56"/>
       <c r="L46" s="56"/>
       <c r="M46" s="56"/>
       <c r="N46" s="56"/>
     </row>
-    <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="61" t="s">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="D47" s="58" t="s">
+      <c r="C47" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E48" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F48" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="58"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+    </row>
+    <row r="49" spans="2:14" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>553</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="61"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3841,1597 +3913,1597 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="78" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="78" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="78" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.28515625" style="78" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="78" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" style="78" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="78"/>
-    <col min="15" max="15" width="21.7109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="78" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="78"/>
+    <col min="1" max="1" width="3.28515625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="76" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.28515625" style="76" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="76" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="76" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="77" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="76"/>
+    <col min="15" max="15" width="21.7109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="76" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="84" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="78"/>
+      <c r="C5" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81">
+        <v>1</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="85"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="L6" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="M6" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="85"/>
+      <c r="O6" s="101"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="83"/>
+      <c r="C7" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="85"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="109" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86">
+        <v>1</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="85"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="109" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86">
+        <v>1</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="109" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="83"/>
+      <c r="C10" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="76" t="s">
+        <v>359</v>
+      </c>
+      <c r="J10" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="85"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="74"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="83"/>
+      <c r="C11" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="J11" s="85"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="109" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="83"/>
+      <c r="C12" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="J12" s="85"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="109" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="83"/>
+      <c r="C13" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="J13" s="85"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="109" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86">
+        <v>1</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>374</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="85"/>
+      <c r="O14" s="101"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>496</v>
+      </c>
+      <c r="J15" s="85"/>
+      <c r="K15" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="L15" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="M15" s="89">
+        <v>1</v>
+      </c>
+      <c r="N15" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="109" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="83" t="s">
+        <v>497</v>
+      </c>
+      <c r="J16" s="85"/>
+      <c r="K16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="89">
+        <v>1</v>
+      </c>
+      <c r="N16" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="P16" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86">
+        <v>1</v>
+      </c>
+      <c r="I17" s="83" t="s">
+        <v>498</v>
+      </c>
+      <c r="J17" s="85"/>
+      <c r="K17" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="L17" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="102" t="s">
+        <v>367</v>
+      </c>
+      <c r="P17" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86">
+        <v>1</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>499</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="L18" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="85"/>
+      <c r="O18" s="102" t="s">
+        <v>382</v>
+      </c>
+      <c r="P18" s="109" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86">
+        <v>1</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>498</v>
+      </c>
+      <c r="J19" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="85"/>
+      <c r="M19" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="85"/>
+      <c r="O19" s="101"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86">
+        <v>1</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="J20" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="85"/>
+      <c r="M20" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="85"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="109" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="J21" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="85"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="109" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="83" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="J22" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="K22" s="85"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="87">
         <v>1</v>
       </c>
-      <c r="C4" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="73" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="86" t="s">
+      <c r="N22" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="O22" s="102" t="s">
+        <v>384</v>
+      </c>
+      <c r="P22" s="99" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="83" t="s">
         <v>374</v>
       </c>
-      <c r="D5" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83">
+      <c r="J23" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="K23" s="85"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="87">
         <v>1</v>
       </c>
-      <c r="I5" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="75" t="s">
+      <c r="N23" s="72" t="s">
+        <v>386</v>
+      </c>
+      <c r="O23" s="102" t="s">
+        <v>385</v>
+      </c>
+      <c r="P23" s="99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="J24" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="K24" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="87">
+        <v>1</v>
+      </c>
+      <c r="N24" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="O24" s="101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>379</v>
+      </c>
+      <c r="J25" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="K25" s="85" t="s">
+        <v>380</v>
+      </c>
+      <c r="L25" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="87">
+        <v>1</v>
+      </c>
+      <c r="N25" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="O25" s="102" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>490</v>
+      </c>
+      <c r="J26" s="84" t="s">
+        <v>392</v>
+      </c>
+      <c r="K26" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="L26" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="85"/>
+      <c r="O26" s="101" t="s">
+        <v>491</v>
+      </c>
+      <c r="P26" s="99" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="83" t="s">
+        <v>492</v>
+      </c>
+      <c r="J27" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="K27" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="L27" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="85"/>
+      <c r="O27" s="101" t="s">
+        <v>395</v>
+      </c>
+      <c r="P27" s="99" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="J28" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="K28" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="L28" s="85"/>
+      <c r="M28" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="85"/>
+      <c r="O28" s="101" t="s">
+        <v>396</v>
+      </c>
+      <c r="P28" s="84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="85"/>
+      <c r="O29" s="101"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="85"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="99" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>493</v>
+      </c>
+      <c r="J31" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="K31" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="85"/>
+      <c r="M31" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="85"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="109" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>494</v>
+      </c>
+      <c r="J32" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="K32" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="85"/>
+      <c r="M32" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="72" t="s">
+        <v>504</v>
+      </c>
+      <c r="O32" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="109" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="83" t="s">
+        <v>374</v>
+      </c>
+      <c r="J33" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L33" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="89" t="s">
+      <c r="M33" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="87"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="78" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="85"/>
-      <c r="C6" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88" t="s">
+      <c r="N33" s="85"/>
+      <c r="O33" s="101"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="J34" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="K34" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="L34" s="85"/>
+      <c r="M34" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="74" t="s">
-        <v>497</v>
-      </c>
-      <c r="J6" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="L6" s="87" t="s">
-        <v>366</v>
-      </c>
-      <c r="M6" s="89" t="s">
+      <c r="N34" s="85"/>
+      <c r="O34" s="101" t="s">
+        <v>396</v>
+      </c>
+      <c r="P34" s="84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="83" t="s">
+        <v>410</v>
+      </c>
+      <c r="J35" s="84" t="s">
+        <v>411</v>
+      </c>
+      <c r="K35" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="M35" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="85"/>
+      <c r="O35" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="P35" s="99" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="J36" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="K36" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="L36" s="85"/>
+      <c r="M36" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="87"/>
-      <c r="O6" s="103"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="85"/>
-      <c r="C7" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88" t="s">
+      <c r="N36" s="85"/>
+      <c r="O36" s="101" t="s">
+        <v>413</v>
+      </c>
+      <c r="P36" s="99" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="K37" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="L37" s="85"/>
+      <c r="M37" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="74" t="s">
-        <v>359</v>
-      </c>
-      <c r="J7" s="86" t="s">
-        <v>360</v>
-      </c>
-      <c r="K7" s="75"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="91" t="s">
+      <c r="N37" s="85"/>
+      <c r="O37" s="101" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="J38" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="K38" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="L38" s="85"/>
+      <c r="M38" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="85"/>
-      <c r="C8" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88">
+      <c r="N38" s="85"/>
+      <c r="O38" s="101" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="91" t="s">
+        <v>378</v>
+      </c>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39" s="84"/>
+      <c r="M39" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="84"/>
+      <c r="O39" s="104"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="83"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="J40" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="K40" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="L40" s="85"/>
+      <c r="M40" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="85"/>
+      <c r="O40" s="101"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="92"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="95">
         <v>1</v>
       </c>
-      <c r="I8" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="111" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="85"/>
-      <c r="C9" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88">
-        <v>1</v>
-      </c>
-      <c r="I9" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="111" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="J10" s="86" t="s">
+      <c r="I41" s="110" t="s">
         <v>362</v>
       </c>
-      <c r="K10" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="84" t="s">
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="105" t="s">
+        <v>414</v>
+      </c>
+      <c r="P41" s="99" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="78"/>
+      <c r="C42" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="80"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="111" t="s">
+        <v>362</v>
+      </c>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="108" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="83"/>
+      <c r="C43" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="84" t="s">
+        <v>292</v>
+      </c>
+      <c r="F43" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="85"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="111" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="74" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="83"/>
+      <c r="C44" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="85"/>
+      <c r="H44" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="87"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="76"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="111" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="111" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="85"/>
-      <c r="C13" s="86" t="s">
-        <v>374</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="111" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88">
-        <v>1</v>
-      </c>
-      <c r="I14" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="J14" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="92" t="s">
+      <c r="I44" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="J44" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="K44" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="85"/>
+      <c r="M44" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="85"/>
+      <c r="O44" s="88"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="83"/>
+      <c r="C45" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="85"/>
+      <c r="H45" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="83" t="s">
+        <v>418</v>
+      </c>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="87"/>
-      <c r="O14" s="103"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88" t="s">
+      <c r="N45" s="85"/>
+      <c r="O45" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="P45" s="99" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="83"/>
+      <c r="C46" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="85"/>
+      <c r="H46" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="74" t="s">
-        <v>498</v>
-      </c>
-      <c r="J15" s="87"/>
-      <c r="K15" s="75" t="s">
-        <v>367</v>
-      </c>
-      <c r="L15" s="75" t="s">
-        <v>365</v>
-      </c>
-      <c r="M15" s="91">
-        <v>1</v>
-      </c>
-      <c r="N15" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="104" t="s">
+      <c r="I46" s="83" t="s">
+        <v>418</v>
+      </c>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="85"/>
+      <c r="O46" s="105" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="83"/>
+      <c r="C47" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="J47" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="99" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="83"/>
+      <c r="C48" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="J48" s="85" t="s">
+        <v>426</v>
+      </c>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="N48" s="85"/>
+      <c r="O48" s="105" t="s">
+        <v>430</v>
+      </c>
+      <c r="P48" s="99" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="83"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="J49" s="85" t="s">
+        <v>427</v>
+      </c>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="85"/>
+      <c r="O49" s="88"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="92"/>
+      <c r="C50" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="94" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="111" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="88" t="s">
+      <c r="G50" s="94"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="83" t="s">
+        <v>423</v>
+      </c>
+      <c r="J50" s="94" t="s">
+        <v>428</v>
+      </c>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="85" t="s">
-        <v>499</v>
-      </c>
-      <c r="J16" s="87"/>
-      <c r="K16" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="91">
-        <v>1</v>
-      </c>
-      <c r="N16" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="104" t="s">
-        <v>363</v>
-      </c>
-      <c r="P16" s="102" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88">
-        <v>1</v>
-      </c>
-      <c r="I17" s="85" t="s">
-        <v>500</v>
-      </c>
-      <c r="J17" s="87"/>
-      <c r="K17" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="L17" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="104" t="s">
-        <v>369</v>
-      </c>
-      <c r="P17" s="102" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88">
-        <v>1</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>501</v>
-      </c>
-      <c r="J18" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="K18" s="75" t="s">
-        <v>383</v>
-      </c>
-      <c r="L18" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="87"/>
-      <c r="O18" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="P18" s="111" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="88">
-        <v>1</v>
-      </c>
-      <c r="I19" s="85" t="s">
-        <v>500</v>
-      </c>
-      <c r="J19" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="K19" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="87"/>
-      <c r="M19" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="87"/>
-      <c r="O19" s="103"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88">
-        <v>1</v>
-      </c>
-      <c r="I20" s="74" t="s">
-        <v>495</v>
-      </c>
-      <c r="J20" s="86" t="s">
-        <v>372</v>
-      </c>
-      <c r="K20" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="87"/>
-      <c r="M20" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="87"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="111" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="74" t="s">
-        <v>502</v>
-      </c>
-      <c r="J21" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="87"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="111" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="85" t="s">
-        <v>377</v>
-      </c>
-      <c r="J22" s="86" t="s">
-        <v>389</v>
-      </c>
-      <c r="K22" s="87"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="89">
-        <v>1</v>
-      </c>
-      <c r="N22" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="O22" s="104" t="s">
-        <v>386</v>
-      </c>
-      <c r="P22" s="101" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="J23" s="86" t="s">
-        <v>510</v>
-      </c>
-      <c r="K23" s="87"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="89">
-        <v>1</v>
-      </c>
-      <c r="N23" s="74" t="s">
-        <v>388</v>
-      </c>
-      <c r="O23" s="104" t="s">
-        <v>387</v>
-      </c>
-      <c r="P23" s="101" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="85" t="s">
-        <v>378</v>
-      </c>
-      <c r="J24" s="86" t="s">
-        <v>390</v>
-      </c>
-      <c r="K24" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="89">
-        <v>1</v>
-      </c>
-      <c r="N24" s="74" t="s">
-        <v>393</v>
-      </c>
-      <c r="O24" s="103" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="J25" s="86" t="s">
-        <v>391</v>
-      </c>
-      <c r="K25" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="L25" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="89">
-        <v>1</v>
-      </c>
-      <c r="N25" s="74" t="s">
-        <v>393</v>
-      </c>
-      <c r="O25" s="104" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="85" t="s">
-        <v>492</v>
-      </c>
-      <c r="J26" s="86" t="s">
-        <v>394</v>
-      </c>
-      <c r="K26" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="L26" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="87"/>
-      <c r="O26" s="103" t="s">
-        <v>493</v>
-      </c>
-      <c r="P26" s="101" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="85" t="s">
-        <v>494</v>
-      </c>
-      <c r="J27" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="K27" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="L27" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="87"/>
-      <c r="O27" s="103" t="s">
-        <v>397</v>
-      </c>
-      <c r="P27" s="101" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="J28" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="K28" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="L28" s="87"/>
-      <c r="M28" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="87"/>
-      <c r="O28" s="103" t="s">
-        <v>398</v>
-      </c>
-      <c r="P28" s="86" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="103"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="L30" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="87"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="101" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="85" t="s">
-        <v>495</v>
-      </c>
-      <c r="J31" s="86" t="s">
-        <v>372</v>
-      </c>
-      <c r="K31" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="87"/>
-      <c r="M31" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="87"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="111" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="74" t="s">
-        <v>496</v>
-      </c>
-      <c r="J32" s="86" t="s">
-        <v>372</v>
-      </c>
-      <c r="K32" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="87"/>
-      <c r="M32" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="74" t="s">
-        <v>506</v>
-      </c>
-      <c r="O32" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" s="111" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="85" t="s">
-        <v>376</v>
-      </c>
-      <c r="J33" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="87"/>
-      <c r="O33" s="103"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="J34" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="K34" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="L34" s="87"/>
-      <c r="M34" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="87"/>
-      <c r="O34" s="103" t="s">
-        <v>398</v>
-      </c>
-      <c r="P34" s="86" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="85" t="s">
-        <v>412</v>
-      </c>
-      <c r="J35" s="86" t="s">
-        <v>413</v>
-      </c>
-      <c r="K35" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="86" t="s">
-        <v>382</v>
-      </c>
-      <c r="M35" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="87"/>
-      <c r="O35" s="103" t="s">
-        <v>507</v>
-      </c>
-      <c r="P35" s="101" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="85"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="J36" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="K36" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="L36" s="87"/>
-      <c r="M36" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="87"/>
-      <c r="O36" s="103" t="s">
-        <v>415</v>
-      </c>
-      <c r="P36" s="101" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="J37" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="K37" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="L37" s="87"/>
-      <c r="M37" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="87"/>
-      <c r="O37" s="103" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="85"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="J38" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="K38" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="L38" s="87"/>
-      <c r="M38" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="87"/>
-      <c r="O38" s="103" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="85"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="93" t="s">
-        <v>380</v>
-      </c>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="L39" s="86"/>
-      <c r="M39" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="86"/>
-      <c r="O39" s="106"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="J40" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="K40" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="L40" s="87"/>
-      <c r="M40" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="87"/>
-      <c r="O40" s="103"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="97">
-        <v>1</v>
-      </c>
-      <c r="I41" s="112" t="s">
-        <v>364</v>
-      </c>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="107" t="s">
-        <v>416</v>
-      </c>
-      <c r="P41" s="101" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
-      <c r="C42" s="82" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="E42" s="81" t="s">
-        <v>291</v>
-      </c>
-      <c r="F42" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="113" t="s">
-        <v>364</v>
-      </c>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="100"/>
-      <c r="P42" s="110" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="85"/>
-      <c r="C43" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="E43" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" s="87"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="113" t="s">
-        <v>364</v>
-      </c>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="76" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="85"/>
-      <c r="C44" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="86" t="s">
-        <v>286</v>
-      </c>
-      <c r="E44" s="86" t="s">
-        <v>297</v>
-      </c>
-      <c r="F44" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="86" t="s">
-        <v>305</v>
-      </c>
-      <c r="J44" s="87" t="s">
-        <v>508</v>
-      </c>
-      <c r="K44" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" s="87"/>
-      <c r="M44" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="N44" s="87"/>
-      <c r="O44" s="90"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="85"/>
-      <c r="C45" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="E45" s="87" t="s">
-        <v>296</v>
-      </c>
-      <c r="F45" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="87"/>
-      <c r="H45" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="87"/>
-      <c r="O45" s="107" t="s">
-        <v>423</v>
-      </c>
-      <c r="P45" s="101" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="85"/>
-      <c r="C46" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="E46" s="87" t="s">
-        <v>295</v>
-      </c>
-      <c r="F46" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="87"/>
-      <c r="H46" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="87"/>
-      <c r="O46" s="107" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="85"/>
-      <c r="C47" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="86" t="s">
-        <v>288</v>
-      </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="74" t="s">
-        <v>424</v>
-      </c>
-      <c r="J47" s="87" t="s">
-        <v>505</v>
-      </c>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="101" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="85"/>
-      <c r="C48" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D48" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="E48" s="87" t="s">
-        <v>293</v>
-      </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="85" t="s">
-        <v>426</v>
-      </c>
-      <c r="J48" s="87" t="s">
-        <v>428</v>
-      </c>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="N48" s="87"/>
-      <c r="O48" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="P48" s="101" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="85"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="85" t="s">
-        <v>427</v>
-      </c>
-      <c r="J49" s="87" t="s">
-        <v>429</v>
-      </c>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="87"/>
-      <c r="O49" s="90"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="94"/>
-      <c r="C50" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="E50" s="96" t="s">
-        <v>294</v>
-      </c>
-      <c r="F50" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="96"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="85" t="s">
-        <v>425</v>
-      </c>
-      <c r="J50" s="96" t="s">
-        <v>430</v>
-      </c>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" s="96"/>
-      <c r="O50" s="99"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5473,22 +5545,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="124" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5633,7 +5705,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -5703,7 +5775,7 @@
         <v>161</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -5855,13 +5927,13 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>161</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -5877,10 +5949,10 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -5897,10 +5969,10 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -5917,10 +5989,10 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -5937,13 +6009,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>160</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -5959,10 +6031,10 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5979,10 +6051,10 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5999,10 +6071,10 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -6019,13 +6091,13 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -6041,13 +6113,13 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -6063,10 +6135,10 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -6083,10 +6155,10 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -6103,10 +6175,10 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -6123,10 +6195,10 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -6143,10 +6215,10 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -6163,10 +6235,10 @@
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -6183,10 +6255,10 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -6203,10 +6275,10 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -6223,10 +6295,10 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -6243,10 +6315,10 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -6263,10 +6335,10 @@
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -6283,10 +6355,10 @@
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -6303,10 +6375,10 @@
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -6323,13 +6395,13 @@
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>316</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -6345,13 +6417,13 @@
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>319</v>
-      </c>
       <c r="E39" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -6404,22 +6476,22 @@
   <sheetData>
     <row r="1" spans="2:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="124" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -6521,8 +6593,8 @@
       <c r="H6" s="14">
         <v>1</v>
       </c>
-      <c r="I6" s="74" t="s">
-        <v>434</v>
+      <c r="I6" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
@@ -6576,8 +6648,8 @@
       <c r="O7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="114" t="s">
-        <v>435</v>
+      <c r="P7" s="112" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -6588,12 +6660,12 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="115" t="s">
-        <v>437</v>
+      <c r="I8" s="113" t="s">
+        <v>435</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L8" s="21" t="s">
         <v>67</v>
@@ -6603,9 +6675,9 @@
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="P8" s="114"/>
+        <v>437</v>
+      </c>
+      <c r="P8" s="112"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
@@ -6616,7 +6688,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>32</v>
@@ -6629,7 +6701,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>35</v>
@@ -6725,14 +6797,14 @@
       <c r="H12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="115"/>
+      <c r="I12" s="113"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="5"/>
       <c r="N12" s="13"/>
       <c r="O12" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -6760,7 +6832,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="13"/>
       <c r="O13" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -6815,28 +6887,28 @@
       <c r="I15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>380</v>
+      </c>
+      <c r="L15" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="87">
+        <v>1</v>
+      </c>
+      <c r="N15" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="K15" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="L15" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="89">
-        <v>1</v>
-      </c>
-      <c r="N15" s="74" t="s">
-        <v>393</v>
-      </c>
-      <c r="O15" s="104" t="s">
-        <v>392</v>
-      </c>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
+      <c r="O15" s="102" t="s">
+        <v>390</v>
+      </c>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
@@ -6857,30 +6929,30 @@
         <v>30</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="J16" s="86" t="s">
+        <v>438</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>380</v>
+      </c>
+      <c r="L16" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="87">
+        <v>1</v>
+      </c>
+      <c r="N16" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="K16" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="L16" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="89">
-        <v>1</v>
-      </c>
-      <c r="N16" s="74" t="s">
-        <v>393</v>
-      </c>
-      <c r="O16" s="104" t="s">
-        <v>441</v>
-      </c>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
+      <c r="O16" s="102" t="s">
+        <v>439</v>
+      </c>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
@@ -6891,7 +6963,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>32</v>
@@ -6901,10 +6973,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>35</v>
@@ -6935,7 +7007,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>43</v>
@@ -6950,8 +7022,8 @@
         <v>44</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="P18" s="114" t="s">
-        <v>444</v>
+      <c r="P18" s="112" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -6973,7 +7045,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>45</v>
@@ -7003,7 +7075,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13" t="s">
@@ -7041,7 +7113,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>45</v>
@@ -7083,8 +7155,8 @@
       <c r="O22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="P22" s="114" t="s">
-        <v>445</v>
+      <c r="P22" s="112" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -7106,7 +7178,7 @@
         <v>30</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13" t="s">
@@ -7124,8 +7196,8 @@
       <c r="O23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="114" t="s">
-        <v>446</v>
+      <c r="P23" s="112" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -7147,7 +7219,7 @@
         <v>30</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>69</v>
@@ -7181,7 +7253,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13" t="s">
@@ -7213,7 +7285,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>80</v>
@@ -7253,7 +7325,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>81</v>
@@ -7289,7 +7361,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>80</v>
@@ -7327,7 +7399,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J29" s="58" t="s">
         <v>81</v>
@@ -7365,7 +7437,7 @@
         <v>44</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>43</v>
@@ -7401,7 +7473,7 @@
         <v>44</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>45</v>
@@ -7421,7 +7493,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="24"/>
       <c r="I32" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>43</v>
@@ -7437,8 +7509,8 @@
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="15"/>
-      <c r="P32" s="114" t="s">
-        <v>454</v>
+      <c r="P32" s="112" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -7458,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -7488,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -7514,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -7529,7 +7601,7 @@
         <v>228</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>258</v>
@@ -7540,7 +7612,7 @@
         <v>36</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -7555,7 +7627,7 @@
         <v>228</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>261</v>
@@ -7566,7 +7638,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13" t="s">
@@ -7585,7 +7657,7 @@
         <v>228</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>269</v>
@@ -7598,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>80</v>
@@ -7612,12 +7684,12 @@
       <c r="M38" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="115" t="s">
-        <v>465</v>
+      <c r="N38" s="113" t="s">
+        <v>463</v>
       </c>
       <c r="O38" s="15"/>
-      <c r="P38" s="114" t="s">
-        <v>464</v>
+      <c r="P38" s="112" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -7626,7 +7698,7 @@
         <v>228</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>264</v>
@@ -7638,8 +7710,8 @@
       <c r="H39" s="24">
         <v>1</v>
       </c>
-      <c r="I39" s="115" t="s">
-        <v>460</v>
+      <c r="I39" s="113" t="s">
+        <v>458</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -7654,7 +7726,7 @@
         <v>228</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>263</v>
@@ -7666,8 +7738,8 @@
       <c r="H40" s="24">
         <v>1</v>
       </c>
-      <c r="I40" s="115" t="s">
-        <v>461</v>
+      <c r="I40" s="113" t="s">
+        <v>459</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -7682,7 +7754,7 @@
         <v>228</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>265</v>
@@ -7694,19 +7766,19 @@
       <c r="H41" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="115" t="s">
-        <v>461</v>
+      <c r="I41" s="113" t="s">
+        <v>459</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="115" t="s">
-        <v>463</v>
+      <c r="N41" s="113" t="s">
+        <v>461</v>
       </c>
       <c r="O41" s="15"/>
-      <c r="P41" s="114" t="s">
-        <v>462</v>
+      <c r="P41" s="112" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -7715,7 +7787,7 @@
         <v>228</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>266</v>
@@ -7727,8 +7799,8 @@
       <c r="H42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="115" t="s">
-        <v>466</v>
+      <c r="I42" s="113" t="s">
+        <v>464</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -7743,7 +7815,7 @@
         <v>228</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>267</v>
@@ -7755,11 +7827,11 @@
       <c r="H43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I43" s="115" t="s">
-        <v>468</v>
+      <c r="I43" s="113" t="s">
+        <v>466</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L43" s="13"/>
       <c r="M43" s="14"/>
@@ -7772,7 +7844,7 @@
         <v>228</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>268</v>
@@ -7782,11 +7854,11 @@
       <c r="H44" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I44" s="115" t="s">
-        <v>489</v>
+      <c r="I44" s="113" t="s">
+        <v>487</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="14"/>
@@ -7799,7 +7871,7 @@
         <v>228</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>262</v>
@@ -7810,7 +7882,7 @@
         <v>30</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13" t="s">
@@ -7829,7 +7901,7 @@
         <v>228</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>280</v>
@@ -7842,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>80</v>
@@ -7865,7 +7937,7 @@
         <v>228</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>270</v>
@@ -7891,7 +7963,7 @@
         <v>228</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>271</v>
@@ -7903,8 +7975,8 @@
       <c r="H48" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="115" t="s">
-        <v>468</v>
+      <c r="I48" s="113" t="s">
+        <v>466</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -7919,7 +7991,7 @@
         <v>228</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>272</v>
@@ -7931,8 +8003,8 @@
       <c r="H49" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="115" t="s">
-        <v>468</v>
+      <c r="I49" s="113" t="s">
+        <v>466</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -7947,7 +8019,7 @@
         <v>228</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>273</v>
@@ -7957,8 +8029,8 @@
       <c r="H50" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="115" t="s">
-        <v>489</v>
+      <c r="I50" s="113" t="s">
+        <v>487</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -7973,7 +8045,7 @@
         <v>228</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -8004,7 +8076,7 @@
         <v>36</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -8028,7 +8100,7 @@
         <v>30</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K53" s="13" t="s">
         <v>21</v>
@@ -8057,7 +8129,7 @@
         <v>30</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>21</v>
@@ -8107,8 +8179,8 @@
       <c r="H56" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I56" s="115" t="s">
-        <v>491</v>
+      <c r="I56" s="113" t="s">
+        <v>489</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
@@ -8135,8 +8207,8 @@
       <c r="H57" s="24">
         <v>1</v>
       </c>
-      <c r="I57" s="115" t="s">
-        <v>491</v>
+      <c r="I57" s="113" t="s">
+        <v>489</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -8163,8 +8235,8 @@
       <c r="H58" s="24">
         <v>1</v>
       </c>
-      <c r="I58" s="115" t="s">
-        <v>491</v>
+      <c r="I58" s="113" t="s">
+        <v>489</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -8208,7 +8280,7 @@
         <v>239</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -8222,8 +8294,8 @@
       <c r="M60" s="14"/>
       <c r="N60" s="13"/>
       <c r="O60" s="15"/>
-      <c r="P60" s="114" t="s">
-        <v>467</v>
+      <c r="P60" s="112" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
@@ -8232,18 +8304,18 @@
         <v>228</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I61" s="115" t="s">
-        <v>424</v>
+      <c r="I61" s="113" t="s">
+        <v>422</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -8270,8 +8342,8 @@
       <c r="H62" s="24">
         <v>1</v>
       </c>
-      <c r="I62" s="115" t="s">
-        <v>424</v>
+      <c r="I62" s="113" t="s">
+        <v>422</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -8298,8 +8370,8 @@
       <c r="H63" s="29">
         <v>1</v>
       </c>
-      <c r="I63" s="116" t="s">
-        <v>424</v>
+      <c r="I63" s="114" t="s">
+        <v>422</v>
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
@@ -8343,22 +8415,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="124" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -8420,7 +8492,7 @@
         <v>34</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>35</v>
@@ -8671,22 +8743,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="125" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -8959,7 +9031,7 @@
         <v>178</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -9071,7 +9143,7 @@
         <v>183</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -9117,7 +9189,7 @@
         <v>185</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -9151,7 +9223,7 @@
         <v>186</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -9197,7 +9269,7 @@
         <v>187</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -9206,7 +9278,7 @@
         <v>34</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>35</v>
@@ -9227,7 +9299,7 @@
         <v>188</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -9251,7 +9323,7 @@
         <v>196</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -9294,10 +9366,10 @@
       <c r="B28" s="12"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -9314,7 +9386,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="13"/>
@@ -9332,7 +9404,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="13"/>
@@ -9350,7 +9422,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="13"/>
@@ -9368,7 +9440,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="13"/>
@@ -9386,7 +9458,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="13"/>
@@ -9426,7 +9498,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13"/>
@@ -9444,7 +9516,7 @@
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
